--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -1,36 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90076864-4A5E-4586-9CE5-9AD747D6C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0FFC61C6-1449-4BFE-95BB-D085C29B26D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Basic Details" sheetId="2" r:id="rId2"/>
-    <sheet name="ODP Account Creation" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Case Master-OLD" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Details" sheetId="3" r:id="rId3"/>
     <sheet name="Accounts" sheetId="4" r:id="rId4"/>
     <sheet name="Party" sheetId="5" r:id="rId5"/>
-    <sheet name="Payment Profile" sheetId="6" r:id="rId6"/>
+    <sheet name="Budget" sheetId="6" r:id="rId6"/>
+    <sheet name="Scheduled" sheetId="7" r:id="rId7"/>
+    <sheet name="Payment Profile" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K4"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7miQx9iyIK8ecezAiljJ7Ns/wMZsAA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miJVWP15JaCovKwi0Jx2gEs/j/q6Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -44,40 +42,43 @@
     <t>Test Case Description</t>
   </si>
   <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Basic Deatils</t>
+  </si>
+  <si>
+    <t>Create a Deal having Accounts for XCRO Transactions</t>
+  </si>
+  <si>
     <t>TC01</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Basic Deatils</t>
-  </si>
-  <si>
-    <t>Create a Deal having Accounts for XCRO Transactions</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
     <t>Create a Deal having Accounts, Parties for EComm Transactions</t>
   </si>
   <si>
-    <t>TC03</t>
-  </si>
-  <si>
     <t>Party</t>
   </si>
   <si>
     <t>Create a XCRO Deal having 2 Payments</t>
   </si>
   <si>
-    <t>TC04</t>
+    <t>Budget</t>
   </si>
   <si>
     <t>Create a XCRO Deal with 1 Retention and 2 Payments</t>
+  </si>
+  <si>
+    <t>In the Budget Screen, validate the Available Budget and Utilized budget</t>
   </si>
   <si>
     <t>TC100</t>
@@ -88,7 +89,58 @@
 Creating a payment with PRS</t>
   </si>
   <si>
-    <t>Test Case id</t>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Run TC</t>
+  </si>
+  <si>
+    <t>TS01</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts</t>
+  </si>
+  <si>
+    <t>TS02</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party</t>
+  </si>
+  <si>
+    <t>TS03</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Payments
+Retention</t>
+  </si>
+  <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Payments
+Retention
+Fees</t>
+  </si>
+  <si>
+    <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
+  </si>
+  <si>
+    <t>TS05</t>
   </si>
   <si>
     <t>Deal Name</t>
@@ -127,7 +179,7 @@
     <t>Mandatory</t>
   </si>
   <si>
-    <t>Deal1</t>
+    <t>TS01_Deal</t>
   </si>
   <si>
     <t>Select All</t>
@@ -145,6 +197,9 @@
     <t>India</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Merchant</t>
   </si>
   <si>
@@ -157,7 +212,7 @@
     <t>Y,Y,N</t>
   </si>
   <si>
-    <t>Deal2</t>
+    <t>TS02_Deal</t>
   </si>
   <si>
     <t>flexible funding</t>
@@ -178,180 +233,235 @@
     <t>BT</t>
   </si>
   <si>
-    <t>Test Case No</t>
-  </si>
-  <si>
-    <t>Login to ODP- URL</t>
-  </si>
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>Available Balance
-Amount</t>
-  </si>
-  <si>
-    <t>Available Balance Currency</t>
-  </si>
-  <si>
-    <t>Available Balance Indicator</t>
-  </si>
-  <si>
-    <t>Available Balance Last Updated On</t>
-  </si>
-  <si>
-    <t>EOD Balance
-Amount</t>
-  </si>
-  <si>
-    <t>EOD Balance Currency</t>
-  </si>
-  <si>
-    <t>EOD Balance Indicator</t>
-  </si>
-  <si>
-    <t>EOD Balance Last Updated On</t>
-  </si>
-  <si>
-    <t>OBO Consideration</t>
-  </si>
-  <si>
-    <t>OBO Flag</t>
-  </si>
-  <si>
-    <t>Opened On</t>
-  </si>
-  <si>
-    <t>https://odp.xcro.appveen.com/appcenter/#/auth</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>U?5k167v13w5</t>
+    <t>TS03_Deal</t>
+  </si>
+  <si>
+    <t>Bangalore CPU</t>
+  </si>
+  <si>
+    <t>Redevelopment</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Acquiree</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Add a new Party</t>
+  </si>
+  <si>
+    <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>eCommerce Party-checkbox</t>
+  </si>
+  <si>
+    <t>Participant Id</t>
+  </si>
+  <si>
+    <t>Debit Accounts</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Authorised signatory-check box</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Accounts-Payment System</t>
+  </si>
+  <si>
+    <t>Beneficiary Bank Bic</t>
+  </si>
+  <si>
+    <t>Beneficiary Country</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary Currency</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document Nature</t>
+  </si>
+  <si>
+    <t>TestUser1</t>
+  </si>
+  <si>
+    <t>Test remarks</t>
+  </si>
+  <si>
+    <t>Testuser1@gmail.com</t>
+  </si>
+  <si>
+    <t>BIC123</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>SBI98765</t>
+  </si>
+  <si>
+    <t>Blueprint</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Create Budget-Name</t>
+  </si>
+  <si>
+    <t>Source Account</t>
+  </si>
+  <si>
+    <t>Add Budget Row</t>
+  </si>
+  <si>
+    <t>Budget Carry forward</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Allocated Budget Amount</t>
+  </si>
+  <si>
+    <t>Internet Budget</t>
   </si>
   <si>
     <t>HDFC1234</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>20-01-2023</t>
-  </si>
-  <si>
-    <t>NonOBO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Country - Dropdown</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Add a new Party</t>
-  </si>
-  <si>
-    <t>Customer Id</t>
-  </si>
-  <si>
-    <t>Party Name</t>
-  </si>
-  <si>
-    <t>Responsibility</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>eCommerce Party - checkbox</t>
-  </si>
-  <si>
-    <t>Participant Id</t>
-  </si>
-  <si>
-    <t>Debit Accounts</t>
-  </si>
-  <si>
-    <t>Contacts-Contact name</t>
-  </si>
-  <si>
-    <t>Authorised signatory-check box</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Accounts-Payment System</t>
-  </si>
-  <si>
-    <t>Beneficiary Bank Bic</t>
-  </si>
-  <si>
-    <t>Beneficiary Country</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Beneficiary Currency</t>
-  </si>
-  <si>
-    <t>Documents - Document Type</t>
-  </si>
-  <si>
-    <t>Document Nature</t>
-  </si>
-  <si>
-    <t>TestUser1</t>
-  </si>
-  <si>
-    <t>Acquiree</t>
-  </si>
-  <si>
-    <t>Test remarks</t>
-  </si>
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>Testuser1@gmail.com</t>
-  </si>
-  <si>
-    <t>BIC123</t>
-  </si>
-  <si>
-    <t>SBI98765</t>
-  </si>
-  <si>
-    <t>Blueprint</t>
-  </si>
-  <si>
-    <t>Original</t>
+    <t>Purpose
+and
+Destination</t>
+  </si>
+  <si>
+    <t>AIRTEL xtream Fibernet Bill</t>
+  </si>
+  <si>
+    <t>SBI1234</t>
+  </si>
+  <si>
+    <t>Monthely</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Select Instruction Type</t>
+  </si>
+  <si>
+    <t>Basic Deatils - Name</t>
+  </si>
+  <si>
+    <t>Balance Consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Split
+</t>
+  </si>
+  <si>
+    <t>Partial Payment</t>
+  </si>
+  <si>
+    <t>Sweep in</t>
+  </si>
+  <si>
+    <t>Schedule - Repeating</t>
+  </si>
+  <si>
+    <t>Execution Date</t>
+  </si>
+  <si>
+    <t>Schedule At</t>
+  </si>
+  <si>
+    <t>Holiday Action</t>
+  </si>
+  <si>
+    <t>Sub Instruction-Applicable Budget</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Budget Purpose</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Beneficiary Country Of Incorporation</t>
+  </si>
+  <si>
+    <t>Retry-Enable Auto Retry</t>
+  </si>
+  <si>
+    <t>Notification-Notification Alerts</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Internet Bill Payment</t>
+  </si>
+  <si>
+    <t>Available Balance</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>EOD</t>
+  </si>
+  <si>
+    <t>Execute On Holiday</t>
+  </si>
+  <si>
+    <t>SCBASDFGH</t>
   </si>
   <si>
     <t>Payment Profile</t>
@@ -369,20 +479,23 @@
 Debit Remittance Info</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>Country Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -405,35 +518,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Ubuntu"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF777777"/>
-      <name val="Ubuntu"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -463,11 +554,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,20 +570,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,7 +804,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -723,10 +817,10 @@
     <col min="2" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -740,133 +834,219 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F14" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
+      <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+    </row>
     <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1842,6 +2022,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1852,15 +2033,1154 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:F993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="80.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
@@ -1871,119 +3191,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>30</v>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>40</v>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2983,3189 +4367,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="9">
-        <v>150000</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="9">
-        <v>100000</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N70" s="10"/>
-    </row>
-    <row r="71" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N75" s="10"/>
-    </row>
-    <row r="76" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N77" s="10"/>
-    </row>
-    <row r="78" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N79" s="10"/>
-    </row>
-    <row r="80" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N80" s="10"/>
-    </row>
-    <row r="81" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N82" s="10"/>
-    </row>
-    <row r="83" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N83" s="10"/>
-    </row>
-    <row r="84" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N84" s="10"/>
-    </row>
-    <row r="85" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N90" s="10"/>
-    </row>
-    <row r="91" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N91" s="10"/>
-    </row>
-    <row r="92" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N93" s="10"/>
-    </row>
-    <row r="94" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N94" s="10"/>
-    </row>
-    <row r="95" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N95" s="10"/>
-    </row>
-    <row r="96" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N96" s="10"/>
-    </row>
-    <row r="97" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N97" s="10"/>
-    </row>
-    <row r="98" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N99" s="10"/>
-    </row>
-    <row r="100" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N100" s="10"/>
-    </row>
-    <row r="101" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N101" s="10"/>
-    </row>
-    <row r="102" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N102" s="10"/>
-    </row>
-    <row r="103" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N103" s="10"/>
-    </row>
-    <row r="104" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N104" s="10"/>
-    </row>
-    <row r="105" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N106" s="10"/>
-    </row>
-    <row r="107" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N108" s="10"/>
-    </row>
-    <row r="109" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N109" s="10"/>
-    </row>
-    <row r="110" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N110" s="10"/>
-    </row>
-    <row r="111" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N111" s="10"/>
-    </row>
-    <row r="112" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N112" s="10"/>
-    </row>
-    <row r="113" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N113" s="10"/>
-    </row>
-    <row r="114" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N114" s="10"/>
-    </row>
-    <row r="115" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N115" s="10"/>
-    </row>
-    <row r="116" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N116" s="10"/>
-    </row>
-    <row r="117" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N117" s="10"/>
-    </row>
-    <row r="118" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N118" s="10"/>
-    </row>
-    <row r="119" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N119" s="10"/>
-    </row>
-    <row r="120" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N120" s="10"/>
-    </row>
-    <row r="121" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N121" s="10"/>
-    </row>
-    <row r="122" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N122" s="10"/>
-    </row>
-    <row r="123" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N123" s="10"/>
-    </row>
-    <row r="124" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N124" s="10"/>
-    </row>
-    <row r="125" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N125" s="10"/>
-    </row>
-    <row r="126" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N126" s="10"/>
-    </row>
-    <row r="127" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N127" s="10"/>
-    </row>
-    <row r="128" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N128" s="10"/>
-    </row>
-    <row r="129" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N129" s="10"/>
-    </row>
-    <row r="130" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N130" s="10"/>
-    </row>
-    <row r="131" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N131" s="10"/>
-    </row>
-    <row r="132" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N132" s="10"/>
-    </row>
-    <row r="133" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N133" s="10"/>
-    </row>
-    <row r="134" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N134" s="10"/>
-    </row>
-    <row r="135" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N135" s="10"/>
-    </row>
-    <row r="136" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N136" s="10"/>
-    </row>
-    <row r="137" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N137" s="10"/>
-    </row>
-    <row r="138" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N138" s="10"/>
-    </row>
-    <row r="139" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N139" s="10"/>
-    </row>
-    <row r="140" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N140" s="10"/>
-    </row>
-    <row r="141" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N141" s="10"/>
-    </row>
-    <row r="142" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N142" s="10"/>
-    </row>
-    <row r="143" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N143" s="10"/>
-    </row>
-    <row r="144" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N144" s="10"/>
-    </row>
-    <row r="145" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N145" s="10"/>
-    </row>
-    <row r="146" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N146" s="10"/>
-    </row>
-    <row r="147" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N147" s="10"/>
-    </row>
-    <row r="148" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N148" s="10"/>
-    </row>
-    <row r="149" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N149" s="10"/>
-    </row>
-    <row r="150" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N150" s="10"/>
-    </row>
-    <row r="151" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N151" s="10"/>
-    </row>
-    <row r="152" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N152" s="10"/>
-    </row>
-    <row r="153" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N153" s="10"/>
-    </row>
-    <row r="154" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N154" s="10"/>
-    </row>
-    <row r="155" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N155" s="10"/>
-    </row>
-    <row r="156" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N156" s="10"/>
-    </row>
-    <row r="157" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N157" s="10"/>
-    </row>
-    <row r="158" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N158" s="10"/>
-    </row>
-    <row r="159" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N159" s="10"/>
-    </row>
-    <row r="160" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N160" s="10"/>
-    </row>
-    <row r="161" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N161" s="10"/>
-    </row>
-    <row r="162" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N162" s="10"/>
-    </row>
-    <row r="163" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N163" s="10"/>
-    </row>
-    <row r="164" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N164" s="10"/>
-    </row>
-    <row r="165" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N165" s="10"/>
-    </row>
-    <row r="166" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N166" s="10"/>
-    </row>
-    <row r="167" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N167" s="10"/>
-    </row>
-    <row r="168" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N168" s="10"/>
-    </row>
-    <row r="169" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N169" s="10"/>
-    </row>
-    <row r="170" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N170" s="10"/>
-    </row>
-    <row r="171" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N171" s="10"/>
-    </row>
-    <row r="172" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N172" s="10"/>
-    </row>
-    <row r="173" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N173" s="10"/>
-    </row>
-    <row r="174" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N174" s="10"/>
-    </row>
-    <row r="175" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N175" s="10"/>
-    </row>
-    <row r="176" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N176" s="10"/>
-    </row>
-    <row r="177" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N177" s="10"/>
-    </row>
-    <row r="178" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N178" s="10"/>
-    </row>
-    <row r="179" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N179" s="10"/>
-    </row>
-    <row r="180" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N180" s="10"/>
-    </row>
-    <row r="181" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N181" s="10"/>
-    </row>
-    <row r="182" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N182" s="10"/>
-    </row>
-    <row r="183" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N183" s="10"/>
-    </row>
-    <row r="184" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N184" s="10"/>
-    </row>
-    <row r="185" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N185" s="10"/>
-    </row>
-    <row r="186" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N186" s="10"/>
-    </row>
-    <row r="187" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N187" s="10"/>
-    </row>
-    <row r="188" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N188" s="10"/>
-    </row>
-    <row r="189" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N189" s="10"/>
-    </row>
-    <row r="190" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N190" s="10"/>
-    </row>
-    <row r="191" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N191" s="10"/>
-    </row>
-    <row r="192" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N192" s="10"/>
-    </row>
-    <row r="193" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N193" s="10"/>
-    </row>
-    <row r="194" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N194" s="10"/>
-    </row>
-    <row r="195" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N195" s="10"/>
-    </row>
-    <row r="196" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N196" s="10"/>
-    </row>
-    <row r="197" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N197" s="10"/>
-    </row>
-    <row r="198" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N198" s="10"/>
-    </row>
-    <row r="199" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N199" s="10"/>
-    </row>
-    <row r="200" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N200" s="10"/>
-    </row>
-    <row r="201" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N201" s="10"/>
-    </row>
-    <row r="202" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N202" s="10"/>
-    </row>
-    <row r="203" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N203" s="10"/>
-    </row>
-    <row r="204" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N204" s="10"/>
-    </row>
-    <row r="205" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N205" s="10"/>
-    </row>
-    <row r="206" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N206" s="10"/>
-    </row>
-    <row r="207" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N207" s="10"/>
-    </row>
-    <row r="208" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N208" s="10"/>
-    </row>
-    <row r="209" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N209" s="10"/>
-    </row>
-    <row r="210" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N210" s="10"/>
-    </row>
-    <row r="211" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N211" s="10"/>
-    </row>
-    <row r="212" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N212" s="10"/>
-    </row>
-    <row r="213" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N213" s="10"/>
-    </row>
-    <row r="214" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N214" s="10"/>
-    </row>
-    <row r="215" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N215" s="10"/>
-    </row>
-    <row r="216" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N216" s="10"/>
-    </row>
-    <row r="217" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N217" s="10"/>
-    </row>
-    <row r="218" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N218" s="10"/>
-    </row>
-    <row r="219" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N219" s="10"/>
-    </row>
-    <row r="220" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N220" s="10"/>
-    </row>
-    <row r="221" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N221" s="10"/>
-    </row>
-    <row r="222" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N222" s="10"/>
-    </row>
-    <row r="223" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N223" s="10"/>
-    </row>
-    <row r="224" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N224" s="10"/>
-    </row>
-    <row r="225" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N225" s="10"/>
-    </row>
-    <row r="226" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N226" s="10"/>
-    </row>
-    <row r="227" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N227" s="10"/>
-    </row>
-    <row r="228" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N228" s="10"/>
-    </row>
-    <row r="229" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N229" s="10"/>
-    </row>
-    <row r="230" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N230" s="10"/>
-    </row>
-    <row r="231" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N231" s="10"/>
-    </row>
-    <row r="232" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N232" s="10"/>
-    </row>
-    <row r="233" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N233" s="10"/>
-    </row>
-    <row r="234" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N234" s="10"/>
-    </row>
-    <row r="235" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N235" s="10"/>
-    </row>
-    <row r="236" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N236" s="10"/>
-    </row>
-    <row r="237" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N237" s="10"/>
-    </row>
-    <row r="238" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N238" s="10"/>
-    </row>
-    <row r="239" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N239" s="10"/>
-    </row>
-    <row r="240" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N240" s="10"/>
-    </row>
-    <row r="241" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N241" s="10"/>
-    </row>
-    <row r="242" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N242" s="10"/>
-    </row>
-    <row r="243" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N243" s="10"/>
-    </row>
-    <row r="244" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N244" s="10"/>
-    </row>
-    <row r="245" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N245" s="10"/>
-    </row>
-    <row r="246" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N246" s="10"/>
-    </row>
-    <row r="247" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N247" s="10"/>
-    </row>
-    <row r="248" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N248" s="10"/>
-    </row>
-    <row r="249" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N249" s="10"/>
-    </row>
-    <row r="250" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N250" s="10"/>
-    </row>
-    <row r="251" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N251" s="10"/>
-    </row>
-    <row r="252" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N252" s="10"/>
-    </row>
-    <row r="253" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N253" s="10"/>
-    </row>
-    <row r="254" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N254" s="10"/>
-    </row>
-    <row r="255" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N255" s="10"/>
-    </row>
-    <row r="256" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N256" s="10"/>
-    </row>
-    <row r="257" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N257" s="10"/>
-    </row>
-    <row r="258" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N258" s="10"/>
-    </row>
-    <row r="259" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N259" s="10"/>
-    </row>
-    <row r="260" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N260" s="10"/>
-    </row>
-    <row r="261" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N261" s="10"/>
-    </row>
-    <row r="262" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N262" s="10"/>
-    </row>
-    <row r="263" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N263" s="10"/>
-    </row>
-    <row r="264" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N264" s="10"/>
-    </row>
-    <row r="265" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N265" s="10"/>
-    </row>
-    <row r="266" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N266" s="10"/>
-    </row>
-    <row r="267" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N267" s="10"/>
-    </row>
-    <row r="268" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N268" s="10"/>
-    </row>
-    <row r="269" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N269" s="10"/>
-    </row>
-    <row r="270" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N270" s="10"/>
-    </row>
-    <row r="271" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N271" s="10"/>
-    </row>
-    <row r="272" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N272" s="10"/>
-    </row>
-    <row r="273" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N273" s="10"/>
-    </row>
-    <row r="274" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N274" s="10"/>
-    </row>
-    <row r="275" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N275" s="10"/>
-    </row>
-    <row r="276" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N276" s="10"/>
-    </row>
-    <row r="277" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N277" s="10"/>
-    </row>
-    <row r="278" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N278" s="10"/>
-    </row>
-    <row r="279" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N279" s="10"/>
-    </row>
-    <row r="280" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N280" s="10"/>
-    </row>
-    <row r="281" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N281" s="10"/>
-    </row>
-    <row r="282" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N282" s="10"/>
-    </row>
-    <row r="283" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N283" s="10"/>
-    </row>
-    <row r="284" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N284" s="10"/>
-    </row>
-    <row r="285" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N285" s="10"/>
-    </row>
-    <row r="286" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N286" s="10"/>
-    </row>
-    <row r="287" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N287" s="10"/>
-    </row>
-    <row r="288" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N288" s="10"/>
-    </row>
-    <row r="289" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N289" s="10"/>
-    </row>
-    <row r="290" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N290" s="10"/>
-    </row>
-    <row r="291" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N291" s="10"/>
-    </row>
-    <row r="292" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N292" s="10"/>
-    </row>
-    <row r="293" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N293" s="10"/>
-    </row>
-    <row r="294" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N294" s="10"/>
-    </row>
-    <row r="295" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N295" s="10"/>
-    </row>
-    <row r="296" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N296" s="10"/>
-    </row>
-    <row r="297" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N297" s="10"/>
-    </row>
-    <row r="298" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N298" s="10"/>
-    </row>
-    <row r="299" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N299" s="10"/>
-    </row>
-    <row r="300" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N300" s="10"/>
-    </row>
-    <row r="301" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N301" s="10"/>
-    </row>
-    <row r="302" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N302" s="10"/>
-    </row>
-    <row r="303" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N303" s="10"/>
-    </row>
-    <row r="304" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N304" s="10"/>
-    </row>
-    <row r="305" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N305" s="10"/>
-    </row>
-    <row r="306" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N306" s="10"/>
-    </row>
-    <row r="307" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N307" s="10"/>
-    </row>
-    <row r="308" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N308" s="10"/>
-    </row>
-    <row r="309" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N309" s="10"/>
-    </row>
-    <row r="310" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N310" s="10"/>
-    </row>
-    <row r="311" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N311" s="10"/>
-    </row>
-    <row r="312" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N312" s="10"/>
-    </row>
-    <row r="313" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N313" s="10"/>
-    </row>
-    <row r="314" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N314" s="10"/>
-    </row>
-    <row r="315" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N315" s="10"/>
-    </row>
-    <row r="316" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N316" s="10"/>
-    </row>
-    <row r="317" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N317" s="10"/>
-    </row>
-    <row r="318" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N318" s="10"/>
-    </row>
-    <row r="319" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N319" s="10"/>
-    </row>
-    <row r="320" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N320" s="10"/>
-    </row>
-    <row r="321" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N321" s="10"/>
-    </row>
-    <row r="322" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N322" s="10"/>
-    </row>
-    <row r="323" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N323" s="10"/>
-    </row>
-    <row r="324" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N324" s="10"/>
-    </row>
-    <row r="325" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N325" s="10"/>
-    </row>
-    <row r="326" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N326" s="10"/>
-    </row>
-    <row r="327" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N327" s="10"/>
-    </row>
-    <row r="328" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N328" s="10"/>
-    </row>
-    <row r="329" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N329" s="10"/>
-    </row>
-    <row r="330" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N330" s="10"/>
-    </row>
-    <row r="331" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N331" s="10"/>
-    </row>
-    <row r="332" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N332" s="10"/>
-    </row>
-    <row r="333" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N333" s="10"/>
-    </row>
-    <row r="334" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N334" s="10"/>
-    </row>
-    <row r="335" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N335" s="10"/>
-    </row>
-    <row r="336" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N336" s="10"/>
-    </row>
-    <row r="337" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N337" s="10"/>
-    </row>
-    <row r="338" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N338" s="10"/>
-    </row>
-    <row r="339" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N339" s="10"/>
-    </row>
-    <row r="340" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N340" s="10"/>
-    </row>
-    <row r="341" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N341" s="10"/>
-    </row>
-    <row r="342" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N342" s="10"/>
-    </row>
-    <row r="343" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N343" s="10"/>
-    </row>
-    <row r="344" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N344" s="10"/>
-    </row>
-    <row r="345" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N345" s="10"/>
-    </row>
-    <row r="346" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N346" s="10"/>
-    </row>
-    <row r="347" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N347" s="10"/>
-    </row>
-    <row r="348" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N348" s="10"/>
-    </row>
-    <row r="349" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N349" s="10"/>
-    </row>
-    <row r="350" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N350" s="10"/>
-    </row>
-    <row r="351" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N351" s="10"/>
-    </row>
-    <row r="352" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N352" s="10"/>
-    </row>
-    <row r="353" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N353" s="10"/>
-    </row>
-    <row r="354" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N354" s="10"/>
-    </row>
-    <row r="355" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N355" s="10"/>
-    </row>
-    <row r="356" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N356" s="10"/>
-    </row>
-    <row r="357" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N357" s="10"/>
-    </row>
-    <row r="358" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N358" s="10"/>
-    </row>
-    <row r="359" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N359" s="10"/>
-    </row>
-    <row r="360" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N360" s="10"/>
-    </row>
-    <row r="361" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N361" s="10"/>
-    </row>
-    <row r="362" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N362" s="10"/>
-    </row>
-    <row r="363" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N363" s="10"/>
-    </row>
-    <row r="364" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N364" s="10"/>
-    </row>
-    <row r="365" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N365" s="10"/>
-    </row>
-    <row r="366" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N366" s="10"/>
-    </row>
-    <row r="367" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N367" s="10"/>
-    </row>
-    <row r="368" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N368" s="10"/>
-    </row>
-    <row r="369" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N369" s="10"/>
-    </row>
-    <row r="370" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N370" s="10"/>
-    </row>
-    <row r="371" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N371" s="10"/>
-    </row>
-    <row r="372" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N372" s="10"/>
-    </row>
-    <row r="373" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N373" s="10"/>
-    </row>
-    <row r="374" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N374" s="10"/>
-    </row>
-    <row r="375" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N375" s="10"/>
-    </row>
-    <row r="376" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N376" s="10"/>
-    </row>
-    <row r="377" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N377" s="10"/>
-    </row>
-    <row r="378" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N378" s="10"/>
-    </row>
-    <row r="379" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N379" s="10"/>
-    </row>
-    <row r="380" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N380" s="10"/>
-    </row>
-    <row r="381" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N381" s="10"/>
-    </row>
-    <row r="382" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N382" s="10"/>
-    </row>
-    <row r="383" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N383" s="10"/>
-    </row>
-    <row r="384" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N384" s="10"/>
-    </row>
-    <row r="385" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N385" s="10"/>
-    </row>
-    <row r="386" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N386" s="10"/>
-    </row>
-    <row r="387" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N387" s="10"/>
-    </row>
-    <row r="388" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N388" s="10"/>
-    </row>
-    <row r="389" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N389" s="10"/>
-    </row>
-    <row r="390" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N390" s="10"/>
-    </row>
-    <row r="391" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N391" s="10"/>
-    </row>
-    <row r="392" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N392" s="10"/>
-    </row>
-    <row r="393" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N393" s="10"/>
-    </row>
-    <row r="394" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N394" s="10"/>
-    </row>
-    <row r="395" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N395" s="10"/>
-    </row>
-    <row r="396" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N396" s="10"/>
-    </row>
-    <row r="397" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N397" s="10"/>
-    </row>
-    <row r="398" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N398" s="10"/>
-    </row>
-    <row r="399" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N399" s="10"/>
-    </row>
-    <row r="400" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N400" s="10"/>
-    </row>
-    <row r="401" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N401" s="10"/>
-    </row>
-    <row r="402" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N402" s="10"/>
-    </row>
-    <row r="403" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N403" s="10"/>
-    </row>
-    <row r="404" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N404" s="10"/>
-    </row>
-    <row r="405" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N405" s="10"/>
-    </row>
-    <row r="406" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N406" s="10"/>
-    </row>
-    <row r="407" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N407" s="10"/>
-    </row>
-    <row r="408" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N408" s="10"/>
-    </row>
-    <row r="409" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N409" s="10"/>
-    </row>
-    <row r="410" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N410" s="10"/>
-    </row>
-    <row r="411" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N411" s="10"/>
-    </row>
-    <row r="412" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N412" s="10"/>
-    </row>
-    <row r="413" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N413" s="10"/>
-    </row>
-    <row r="414" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N414" s="10"/>
-    </row>
-    <row r="415" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N415" s="10"/>
-    </row>
-    <row r="416" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N416" s="10"/>
-    </row>
-    <row r="417" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N417" s="10"/>
-    </row>
-    <row r="418" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N418" s="10"/>
-    </row>
-    <row r="419" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N419" s="10"/>
-    </row>
-    <row r="420" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N420" s="10"/>
-    </row>
-    <row r="421" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N421" s="10"/>
-    </row>
-    <row r="422" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N422" s="10"/>
-    </row>
-    <row r="423" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N423" s="10"/>
-    </row>
-    <row r="424" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N424" s="10"/>
-    </row>
-    <row r="425" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N425" s="10"/>
-    </row>
-    <row r="426" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N426" s="10"/>
-    </row>
-    <row r="427" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N427" s="10"/>
-    </row>
-    <row r="428" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N428" s="10"/>
-    </row>
-    <row r="429" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N429" s="10"/>
-    </row>
-    <row r="430" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N430" s="10"/>
-    </row>
-    <row r="431" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N431" s="10"/>
-    </row>
-    <row r="432" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N432" s="10"/>
-    </row>
-    <row r="433" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N433" s="10"/>
-    </row>
-    <row r="434" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N434" s="10"/>
-    </row>
-    <row r="435" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N435" s="10"/>
-    </row>
-    <row r="436" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N436" s="10"/>
-    </row>
-    <row r="437" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N437" s="10"/>
-    </row>
-    <row r="438" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N438" s="10"/>
-    </row>
-    <row r="439" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N439" s="10"/>
-    </row>
-    <row r="440" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N440" s="10"/>
-    </row>
-    <row r="441" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N441" s="10"/>
-    </row>
-    <row r="442" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N442" s="10"/>
-    </row>
-    <row r="443" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N443" s="10"/>
-    </row>
-    <row r="444" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N444" s="10"/>
-    </row>
-    <row r="445" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N445" s="10"/>
-    </row>
-    <row r="446" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N446" s="10"/>
-    </row>
-    <row r="447" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N447" s="10"/>
-    </row>
-    <row r="448" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N448" s="10"/>
-    </row>
-    <row r="449" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N449" s="10"/>
-    </row>
-    <row r="450" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N450" s="10"/>
-    </row>
-    <row r="451" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N451" s="10"/>
-    </row>
-    <row r="452" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N452" s="10"/>
-    </row>
-    <row r="453" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N453" s="10"/>
-    </row>
-    <row r="454" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N454" s="10"/>
-    </row>
-    <row r="455" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N455" s="10"/>
-    </row>
-    <row r="456" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N456" s="10"/>
-    </row>
-    <row r="457" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N457" s="10"/>
-    </row>
-    <row r="458" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N458" s="10"/>
-    </row>
-    <row r="459" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N459" s="10"/>
-    </row>
-    <row r="460" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N460" s="10"/>
-    </row>
-    <row r="461" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N461" s="10"/>
-    </row>
-    <row r="462" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N462" s="10"/>
-    </row>
-    <row r="463" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N463" s="10"/>
-    </row>
-    <row r="464" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N464" s="10"/>
-    </row>
-    <row r="465" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N465" s="10"/>
-    </row>
-    <row r="466" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N466" s="10"/>
-    </row>
-    <row r="467" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N467" s="10"/>
-    </row>
-    <row r="468" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N468" s="10"/>
-    </row>
-    <row r="469" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N469" s="10"/>
-    </row>
-    <row r="470" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N470" s="10"/>
-    </row>
-    <row r="471" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N471" s="10"/>
-    </row>
-    <row r="472" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N472" s="10"/>
-    </row>
-    <row r="473" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N473" s="10"/>
-    </row>
-    <row r="474" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N474" s="10"/>
-    </row>
-    <row r="475" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N475" s="10"/>
-    </row>
-    <row r="476" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N476" s="10"/>
-    </row>
-    <row r="477" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N477" s="10"/>
-    </row>
-    <row r="478" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N478" s="10"/>
-    </row>
-    <row r="479" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N479" s="10"/>
-    </row>
-    <row r="480" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N480" s="10"/>
-    </row>
-    <row r="481" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N481" s="10"/>
-    </row>
-    <row r="482" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N482" s="10"/>
-    </row>
-    <row r="483" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N483" s="10"/>
-    </row>
-    <row r="484" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N484" s="10"/>
-    </row>
-    <row r="485" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N485" s="10"/>
-    </row>
-    <row r="486" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N486" s="10"/>
-    </row>
-    <row r="487" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N487" s="10"/>
-    </row>
-    <row r="488" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N488" s="10"/>
-    </row>
-    <row r="489" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N489" s="10"/>
-    </row>
-    <row r="490" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N490" s="10"/>
-    </row>
-    <row r="491" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N491" s="10"/>
-    </row>
-    <row r="492" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N492" s="10"/>
-    </row>
-    <row r="493" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N493" s="10"/>
-    </row>
-    <row r="494" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N494" s="10"/>
-    </row>
-    <row r="495" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N495" s="10"/>
-    </row>
-    <row r="496" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N496" s="10"/>
-    </row>
-    <row r="497" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N497" s="10"/>
-    </row>
-    <row r="498" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N498" s="10"/>
-    </row>
-    <row r="499" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N499" s="10"/>
-    </row>
-    <row r="500" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N500" s="10"/>
-    </row>
-    <row r="501" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N501" s="10"/>
-    </row>
-    <row r="502" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N502" s="10"/>
-    </row>
-    <row r="503" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N503" s="10"/>
-    </row>
-    <row r="504" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N504" s="10"/>
-    </row>
-    <row r="505" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N505" s="10"/>
-    </row>
-    <row r="506" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N506" s="10"/>
-    </row>
-    <row r="507" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N507" s="10"/>
-    </row>
-    <row r="508" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N508" s="10"/>
-    </row>
-    <row r="509" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N509" s="10"/>
-    </row>
-    <row r="510" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N510" s="10"/>
-    </row>
-    <row r="511" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N511" s="10"/>
-    </row>
-    <row r="512" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N512" s="10"/>
-    </row>
-    <row r="513" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N513" s="10"/>
-    </row>
-    <row r="514" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N514" s="10"/>
-    </row>
-    <row r="515" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N515" s="10"/>
-    </row>
-    <row r="516" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N516" s="10"/>
-    </row>
-    <row r="517" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N517" s="10"/>
-    </row>
-    <row r="518" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N518" s="10"/>
-    </row>
-    <row r="519" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N519" s="10"/>
-    </row>
-    <row r="520" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N520" s="10"/>
-    </row>
-    <row r="521" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N521" s="10"/>
-    </row>
-    <row r="522" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N522" s="10"/>
-    </row>
-    <row r="523" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N523" s="10"/>
-    </row>
-    <row r="524" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N524" s="10"/>
-    </row>
-    <row r="525" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N525" s="10"/>
-    </row>
-    <row r="526" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N526" s="10"/>
-    </row>
-    <row r="527" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N527" s="10"/>
-    </row>
-    <row r="528" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N528" s="10"/>
-    </row>
-    <row r="529" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N529" s="10"/>
-    </row>
-    <row r="530" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N530" s="10"/>
-    </row>
-    <row r="531" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N531" s="10"/>
-    </row>
-    <row r="532" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N532" s="10"/>
-    </row>
-    <row r="533" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N533" s="10"/>
-    </row>
-    <row r="534" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N534" s="10"/>
-    </row>
-    <row r="535" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N535" s="10"/>
-    </row>
-    <row r="536" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N536" s="10"/>
-    </row>
-    <row r="537" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N537" s="10"/>
-    </row>
-    <row r="538" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N538" s="10"/>
-    </row>
-    <row r="539" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N539" s="10"/>
-    </row>
-    <row r="540" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N540" s="10"/>
-    </row>
-    <row r="541" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N541" s="10"/>
-    </row>
-    <row r="542" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N542" s="10"/>
-    </row>
-    <row r="543" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N543" s="10"/>
-    </row>
-    <row r="544" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N544" s="10"/>
-    </row>
-    <row r="545" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N545" s="10"/>
-    </row>
-    <row r="546" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N546" s="10"/>
-    </row>
-    <row r="547" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N547" s="10"/>
-    </row>
-    <row r="548" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N548" s="10"/>
-    </row>
-    <row r="549" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N549" s="10"/>
-    </row>
-    <row r="550" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N550" s="10"/>
-    </row>
-    <row r="551" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N551" s="10"/>
-    </row>
-    <row r="552" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N552" s="10"/>
-    </row>
-    <row r="553" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N553" s="10"/>
-    </row>
-    <row r="554" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N554" s="10"/>
-    </row>
-    <row r="555" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N555" s="10"/>
-    </row>
-    <row r="556" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N556" s="10"/>
-    </row>
-    <row r="557" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N557" s="10"/>
-    </row>
-    <row r="558" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N558" s="10"/>
-    </row>
-    <row r="559" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N559" s="10"/>
-    </row>
-    <row r="560" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N560" s="10"/>
-    </row>
-    <row r="561" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N561" s="10"/>
-    </row>
-    <row r="562" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N562" s="10"/>
-    </row>
-    <row r="563" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N563" s="10"/>
-    </row>
-    <row r="564" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N564" s="10"/>
-    </row>
-    <row r="565" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N565" s="10"/>
-    </row>
-    <row r="566" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N566" s="10"/>
-    </row>
-    <row r="567" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N567" s="10"/>
-    </row>
-    <row r="568" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N568" s="10"/>
-    </row>
-    <row r="569" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N569" s="10"/>
-    </row>
-    <row r="570" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N570" s="10"/>
-    </row>
-    <row r="571" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N571" s="10"/>
-    </row>
-    <row r="572" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N572" s="10"/>
-    </row>
-    <row r="573" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N573" s="10"/>
-    </row>
-    <row r="574" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N574" s="10"/>
-    </row>
-    <row r="575" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N575" s="10"/>
-    </row>
-    <row r="576" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N576" s="10"/>
-    </row>
-    <row r="577" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N577" s="10"/>
-    </row>
-    <row r="578" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N578" s="10"/>
-    </row>
-    <row r="579" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N579" s="10"/>
-    </row>
-    <row r="580" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N580" s="10"/>
-    </row>
-    <row r="581" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N581" s="10"/>
-    </row>
-    <row r="582" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N582" s="10"/>
-    </row>
-    <row r="583" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N583" s="10"/>
-    </row>
-    <row r="584" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N584" s="10"/>
-    </row>
-    <row r="585" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N585" s="10"/>
-    </row>
-    <row r="586" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N586" s="10"/>
-    </row>
-    <row r="587" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N587" s="10"/>
-    </row>
-    <row r="588" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N588" s="10"/>
-    </row>
-    <row r="589" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N589" s="10"/>
-    </row>
-    <row r="590" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N590" s="10"/>
-    </row>
-    <row r="591" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N591" s="10"/>
-    </row>
-    <row r="592" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N592" s="10"/>
-    </row>
-    <row r="593" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N593" s="10"/>
-    </row>
-    <row r="594" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N594" s="10"/>
-    </row>
-    <row r="595" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N595" s="10"/>
-    </row>
-    <row r="596" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N596" s="10"/>
-    </row>
-    <row r="597" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N597" s="10"/>
-    </row>
-    <row r="598" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N598" s="10"/>
-    </row>
-    <row r="599" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N599" s="10"/>
-    </row>
-    <row r="600" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N600" s="10"/>
-    </row>
-    <row r="601" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N601" s="10"/>
-    </row>
-    <row r="602" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N602" s="10"/>
-    </row>
-    <row r="603" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N603" s="10"/>
-    </row>
-    <row r="604" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N604" s="10"/>
-    </row>
-    <row r="605" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N605" s="10"/>
-    </row>
-    <row r="606" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N606" s="10"/>
-    </row>
-    <row r="607" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N607" s="10"/>
-    </row>
-    <row r="608" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N608" s="10"/>
-    </row>
-    <row r="609" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N609" s="10"/>
-    </row>
-    <row r="610" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N610" s="10"/>
-    </row>
-    <row r="611" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N611" s="10"/>
-    </row>
-    <row r="612" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N612" s="10"/>
-    </row>
-    <row r="613" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N613" s="10"/>
-    </row>
-    <row r="614" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N614" s="10"/>
-    </row>
-    <row r="615" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N615" s="10"/>
-    </row>
-    <row r="616" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N616" s="10"/>
-    </row>
-    <row r="617" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N617" s="10"/>
-    </row>
-    <row r="618" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N618" s="10"/>
-    </row>
-    <row r="619" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N619" s="10"/>
-    </row>
-    <row r="620" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N620" s="10"/>
-    </row>
-    <row r="621" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N621" s="10"/>
-    </row>
-    <row r="622" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N622" s="10"/>
-    </row>
-    <row r="623" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N623" s="10"/>
-    </row>
-    <row r="624" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N624" s="10"/>
-    </row>
-    <row r="625" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N625" s="10"/>
-    </row>
-    <row r="626" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N626" s="10"/>
-    </row>
-    <row r="627" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N627" s="10"/>
-    </row>
-    <row r="628" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N628" s="10"/>
-    </row>
-    <row r="629" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N629" s="10"/>
-    </row>
-    <row r="630" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N630" s="10"/>
-    </row>
-    <row r="631" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N631" s="10"/>
-    </row>
-    <row r="632" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N632" s="10"/>
-    </row>
-    <row r="633" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N633" s="10"/>
-    </row>
-    <row r="634" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N634" s="10"/>
-    </row>
-    <row r="635" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N635" s="10"/>
-    </row>
-    <row r="636" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N636" s="10"/>
-    </row>
-    <row r="637" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N637" s="10"/>
-    </row>
-    <row r="638" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N638" s="10"/>
-    </row>
-    <row r="639" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N639" s="10"/>
-    </row>
-    <row r="640" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N640" s="10"/>
-    </row>
-    <row r="641" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N641" s="10"/>
-    </row>
-    <row r="642" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N642" s="10"/>
-    </row>
-    <row r="643" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N643" s="10"/>
-    </row>
-    <row r="644" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N644" s="10"/>
-    </row>
-    <row r="645" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N645" s="10"/>
-    </row>
-    <row r="646" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N646" s="10"/>
-    </row>
-    <row r="647" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N647" s="10"/>
-    </row>
-    <row r="648" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N648" s="10"/>
-    </row>
-    <row r="649" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N649" s="10"/>
-    </row>
-    <row r="650" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N650" s="10"/>
-    </row>
-    <row r="651" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N651" s="10"/>
-    </row>
-    <row r="652" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N652" s="10"/>
-    </row>
-    <row r="653" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N653" s="10"/>
-    </row>
-    <row r="654" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N654" s="10"/>
-    </row>
-    <row r="655" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N655" s="10"/>
-    </row>
-    <row r="656" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N656" s="10"/>
-    </row>
-    <row r="657" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N657" s="10"/>
-    </row>
-    <row r="658" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N658" s="10"/>
-    </row>
-    <row r="659" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N659" s="10"/>
-    </row>
-    <row r="660" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N660" s="10"/>
-    </row>
-    <row r="661" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N661" s="10"/>
-    </row>
-    <row r="662" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N662" s="10"/>
-    </row>
-    <row r="663" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N663" s="10"/>
-    </row>
-    <row r="664" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N664" s="10"/>
-    </row>
-    <row r="665" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N665" s="10"/>
-    </row>
-    <row r="666" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N666" s="10"/>
-    </row>
-    <row r="667" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N667" s="10"/>
-    </row>
-    <row r="668" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N668" s="10"/>
-    </row>
-    <row r="669" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N669" s="10"/>
-    </row>
-    <row r="670" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N670" s="10"/>
-    </row>
-    <row r="671" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N671" s="10"/>
-    </row>
-    <row r="672" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N672" s="10"/>
-    </row>
-    <row r="673" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N673" s="10"/>
-    </row>
-    <row r="674" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N674" s="10"/>
-    </row>
-    <row r="675" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N675" s="10"/>
-    </row>
-    <row r="676" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N676" s="10"/>
-    </row>
-    <row r="677" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N677" s="10"/>
-    </row>
-    <row r="678" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N678" s="10"/>
-    </row>
-    <row r="679" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N679" s="10"/>
-    </row>
-    <row r="680" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N680" s="10"/>
-    </row>
-    <row r="681" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N681" s="10"/>
-    </row>
-    <row r="682" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N682" s="10"/>
-    </row>
-    <row r="683" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N683" s="10"/>
-    </row>
-    <row r="684" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N684" s="10"/>
-    </row>
-    <row r="685" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N685" s="10"/>
-    </row>
-    <row r="686" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N686" s="10"/>
-    </row>
-    <row r="687" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N687" s="10"/>
-    </row>
-    <row r="688" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N688" s="10"/>
-    </row>
-    <row r="689" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N689" s="10"/>
-    </row>
-    <row r="690" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N690" s="10"/>
-    </row>
-    <row r="691" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N691" s="10"/>
-    </row>
-    <row r="692" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N692" s="10"/>
-    </row>
-    <row r="693" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N693" s="10"/>
-    </row>
-    <row r="694" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N694" s="10"/>
-    </row>
-    <row r="695" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N695" s="10"/>
-    </row>
-    <row r="696" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N696" s="10"/>
-    </row>
-    <row r="697" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N697" s="10"/>
-    </row>
-    <row r="698" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N698" s="10"/>
-    </row>
-    <row r="699" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N699" s="10"/>
-    </row>
-    <row r="700" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N700" s="10"/>
-    </row>
-    <row r="701" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N701" s="10"/>
-    </row>
-    <row r="702" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N702" s="10"/>
-    </row>
-    <row r="703" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N703" s="10"/>
-    </row>
-    <row r="704" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N704" s="10"/>
-    </row>
-    <row r="705" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N705" s="10"/>
-    </row>
-    <row r="706" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N706" s="10"/>
-    </row>
-    <row r="707" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N707" s="10"/>
-    </row>
-    <row r="708" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N708" s="10"/>
-    </row>
-    <row r="709" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N709" s="10"/>
-    </row>
-    <row r="710" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N710" s="10"/>
-    </row>
-    <row r="711" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N711" s="10"/>
-    </row>
-    <row r="712" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N712" s="10"/>
-    </row>
-    <row r="713" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N713" s="10"/>
-    </row>
-    <row r="714" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N714" s="10"/>
-    </row>
-    <row r="715" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N715" s="10"/>
-    </row>
-    <row r="716" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N716" s="10"/>
-    </row>
-    <row r="717" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N717" s="10"/>
-    </row>
-    <row r="718" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N718" s="10"/>
-    </row>
-    <row r="719" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N719" s="10"/>
-    </row>
-    <row r="720" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N720" s="10"/>
-    </row>
-    <row r="721" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N721" s="10"/>
-    </row>
-    <row r="722" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N722" s="10"/>
-    </row>
-    <row r="723" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N723" s="10"/>
-    </row>
-    <row r="724" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N724" s="10"/>
-    </row>
-    <row r="725" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N725" s="10"/>
-    </row>
-    <row r="726" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N726" s="10"/>
-    </row>
-    <row r="727" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N727" s="10"/>
-    </row>
-    <row r="728" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N728" s="10"/>
-    </row>
-    <row r="729" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N729" s="10"/>
-    </row>
-    <row r="730" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N730" s="10"/>
-    </row>
-    <row r="731" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N731" s="10"/>
-    </row>
-    <row r="732" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N732" s="10"/>
-    </row>
-    <row r="733" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N733" s="10"/>
-    </row>
-    <row r="734" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N734" s="10"/>
-    </row>
-    <row r="735" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N735" s="10"/>
-    </row>
-    <row r="736" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N736" s="10"/>
-    </row>
-    <row r="737" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N737" s="10"/>
-    </row>
-    <row r="738" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N738" s="10"/>
-    </row>
-    <row r="739" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N739" s="10"/>
-    </row>
-    <row r="740" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N740" s="10"/>
-    </row>
-    <row r="741" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N741" s="10"/>
-    </row>
-    <row r="742" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N742" s="10"/>
-    </row>
-    <row r="743" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N743" s="10"/>
-    </row>
-    <row r="744" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N744" s="10"/>
-    </row>
-    <row r="745" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N745" s="10"/>
-    </row>
-    <row r="746" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N746" s="10"/>
-    </row>
-    <row r="747" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N747" s="10"/>
-    </row>
-    <row r="748" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N748" s="10"/>
-    </row>
-    <row r="749" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N749" s="10"/>
-    </row>
-    <row r="750" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N750" s="10"/>
-    </row>
-    <row r="751" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N751" s="10"/>
-    </row>
-    <row r="752" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N752" s="10"/>
-    </row>
-    <row r="753" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N753" s="10"/>
-    </row>
-    <row r="754" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N754" s="10"/>
-    </row>
-    <row r="755" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N755" s="10"/>
-    </row>
-    <row r="756" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N756" s="10"/>
-    </row>
-    <row r="757" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N757" s="10"/>
-    </row>
-    <row r="758" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N758" s="10"/>
-    </row>
-    <row r="759" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N759" s="10"/>
-    </row>
-    <row r="760" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N760" s="10"/>
-    </row>
-    <row r="761" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N761" s="10"/>
-    </row>
-    <row r="762" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N762" s="10"/>
-    </row>
-    <row r="763" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N763" s="10"/>
-    </row>
-    <row r="764" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N764" s="10"/>
-    </row>
-    <row r="765" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N765" s="10"/>
-    </row>
-    <row r="766" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N766" s="10"/>
-    </row>
-    <row r="767" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N767" s="10"/>
-    </row>
-    <row r="768" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N768" s="10"/>
-    </row>
-    <row r="769" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N769" s="10"/>
-    </row>
-    <row r="770" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N770" s="10"/>
-    </row>
-    <row r="771" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N771" s="10"/>
-    </row>
-    <row r="772" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N772" s="10"/>
-    </row>
-    <row r="773" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N773" s="10"/>
-    </row>
-    <row r="774" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N774" s="10"/>
-    </row>
-    <row r="775" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N775" s="10"/>
-    </row>
-    <row r="776" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N776" s="10"/>
-    </row>
-    <row r="777" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N777" s="10"/>
-    </row>
-    <row r="778" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N778" s="10"/>
-    </row>
-    <row r="779" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N779" s="10"/>
-    </row>
-    <row r="780" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N780" s="10"/>
-    </row>
-    <row r="781" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N781" s="10"/>
-    </row>
-    <row r="782" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N782" s="10"/>
-    </row>
-    <row r="783" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N783" s="10"/>
-    </row>
-    <row r="784" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N784" s="10"/>
-    </row>
-    <row r="785" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N785" s="10"/>
-    </row>
-    <row r="786" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N786" s="10"/>
-    </row>
-    <row r="787" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N787" s="10"/>
-    </row>
-    <row r="788" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N788" s="10"/>
-    </row>
-    <row r="789" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N789" s="10"/>
-    </row>
-    <row r="790" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N790" s="10"/>
-    </row>
-    <row r="791" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N791" s="10"/>
-    </row>
-    <row r="792" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N792" s="10"/>
-    </row>
-    <row r="793" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N793" s="10"/>
-    </row>
-    <row r="794" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N794" s="10"/>
-    </row>
-    <row r="795" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N795" s="10"/>
-    </row>
-    <row r="796" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N796" s="10"/>
-    </row>
-    <row r="797" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N797" s="10"/>
-    </row>
-    <row r="798" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N798" s="10"/>
-    </row>
-    <row r="799" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N799" s="10"/>
-    </row>
-    <row r="800" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N800" s="10"/>
-    </row>
-    <row r="801" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N801" s="10"/>
-    </row>
-    <row r="802" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N802" s="10"/>
-    </row>
-    <row r="803" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N803" s="10"/>
-    </row>
-    <row r="804" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N804" s="10"/>
-    </row>
-    <row r="805" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N805" s="10"/>
-    </row>
-    <row r="806" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N806" s="10"/>
-    </row>
-    <row r="807" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N807" s="10"/>
-    </row>
-    <row r="808" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N808" s="10"/>
-    </row>
-    <row r="809" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N809" s="10"/>
-    </row>
-    <row r="810" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N810" s="10"/>
-    </row>
-    <row r="811" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N811" s="10"/>
-    </row>
-    <row r="812" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N812" s="10"/>
-    </row>
-    <row r="813" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N813" s="10"/>
-    </row>
-    <row r="814" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N814" s="10"/>
-    </row>
-    <row r="815" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N815" s="10"/>
-    </row>
-    <row r="816" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N816" s="10"/>
-    </row>
-    <row r="817" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N817" s="10"/>
-    </row>
-    <row r="818" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N818" s="10"/>
-    </row>
-    <row r="819" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N819" s="10"/>
-    </row>
-    <row r="820" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N820" s="10"/>
-    </row>
-    <row r="821" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N821" s="10"/>
-    </row>
-    <row r="822" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N822" s="10"/>
-    </row>
-    <row r="823" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N823" s="10"/>
-    </row>
-    <row r="824" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N824" s="10"/>
-    </row>
-    <row r="825" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N825" s="10"/>
-    </row>
-    <row r="826" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N826" s="10"/>
-    </row>
-    <row r="827" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N827" s="10"/>
-    </row>
-    <row r="828" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N828" s="10"/>
-    </row>
-    <row r="829" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N829" s="10"/>
-    </row>
-    <row r="830" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N830" s="10"/>
-    </row>
-    <row r="831" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N831" s="10"/>
-    </row>
-    <row r="832" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N832" s="10"/>
-    </row>
-    <row r="833" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N833" s="10"/>
-    </row>
-    <row r="834" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N834" s="10"/>
-    </row>
-    <row r="835" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N835" s="10"/>
-    </row>
-    <row r="836" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N836" s="10"/>
-    </row>
-    <row r="837" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N837" s="10"/>
-    </row>
-    <row r="838" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N838" s="10"/>
-    </row>
-    <row r="839" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N839" s="10"/>
-    </row>
-    <row r="840" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N840" s="10"/>
-    </row>
-    <row r="841" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N841" s="10"/>
-    </row>
-    <row r="842" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N842" s="10"/>
-    </row>
-    <row r="843" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N843" s="10"/>
-    </row>
-    <row r="844" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N844" s="10"/>
-    </row>
-    <row r="845" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N845" s="10"/>
-    </row>
-    <row r="846" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N846" s="10"/>
-    </row>
-    <row r="847" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N847" s="10"/>
-    </row>
-    <row r="848" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N848" s="10"/>
-    </row>
-    <row r="849" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N849" s="10"/>
-    </row>
-    <row r="850" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N850" s="10"/>
-    </row>
-    <row r="851" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N851" s="10"/>
-    </row>
-    <row r="852" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N852" s="10"/>
-    </row>
-    <row r="853" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N853" s="10"/>
-    </row>
-    <row r="854" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N854" s="10"/>
-    </row>
-    <row r="855" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N855" s="10"/>
-    </row>
-    <row r="856" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N856" s="10"/>
-    </row>
-    <row r="857" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N857" s="10"/>
-    </row>
-    <row r="858" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N858" s="10"/>
-    </row>
-    <row r="859" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N859" s="10"/>
-    </row>
-    <row r="860" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N860" s="10"/>
-    </row>
-    <row r="861" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N861" s="10"/>
-    </row>
-    <row r="862" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N862" s="10"/>
-    </row>
-    <row r="863" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N863" s="10"/>
-    </row>
-    <row r="864" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N864" s="10"/>
-    </row>
-    <row r="865" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N865" s="10"/>
-    </row>
-    <row r="866" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N866" s="10"/>
-    </row>
-    <row r="867" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N867" s="10"/>
-    </row>
-    <row r="868" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N868" s="10"/>
-    </row>
-    <row r="869" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N869" s="10"/>
-    </row>
-    <row r="870" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N870" s="10"/>
-    </row>
-    <row r="871" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N871" s="10"/>
-    </row>
-    <row r="872" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N872" s="10"/>
-    </row>
-    <row r="873" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N873" s="10"/>
-    </row>
-    <row r="874" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N874" s="10"/>
-    </row>
-    <row r="875" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N875" s="10"/>
-    </row>
-    <row r="876" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N876" s="10"/>
-    </row>
-    <row r="877" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N877" s="10"/>
-    </row>
-    <row r="878" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N878" s="10"/>
-    </row>
-    <row r="879" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N879" s="10"/>
-    </row>
-    <row r="880" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N880" s="10"/>
-    </row>
-    <row r="881" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N881" s="10"/>
-    </row>
-    <row r="882" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N882" s="10"/>
-    </row>
-    <row r="883" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N883" s="10"/>
-    </row>
-    <row r="884" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N884" s="10"/>
-    </row>
-    <row r="885" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N885" s="10"/>
-    </row>
-    <row r="886" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N886" s="10"/>
-    </row>
-    <row r="887" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N887" s="10"/>
-    </row>
-    <row r="888" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N888" s="10"/>
-    </row>
-    <row r="889" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N889" s="10"/>
-    </row>
-    <row r="890" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N890" s="10"/>
-    </row>
-    <row r="891" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N891" s="10"/>
-    </row>
-    <row r="892" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N892" s="10"/>
-    </row>
-    <row r="893" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N893" s="10"/>
-    </row>
-    <row r="894" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N894" s="10"/>
-    </row>
-    <row r="895" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N895" s="10"/>
-    </row>
-    <row r="896" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N896" s="10"/>
-    </row>
-    <row r="897" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N897" s="10"/>
-    </row>
-    <row r="898" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N898" s="10"/>
-    </row>
-    <row r="899" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N899" s="10"/>
-    </row>
-    <row r="900" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N900" s="10"/>
-    </row>
-    <row r="901" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N901" s="10"/>
-    </row>
-    <row r="902" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N902" s="10"/>
-    </row>
-    <row r="903" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N903" s="10"/>
-    </row>
-    <row r="904" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N904" s="10"/>
-    </row>
-    <row r="905" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N905" s="10"/>
-    </row>
-    <row r="906" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N906" s="10"/>
-    </row>
-    <row r="907" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N907" s="10"/>
-    </row>
-    <row r="908" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N908" s="10"/>
-    </row>
-    <row r="909" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N909" s="10"/>
-    </row>
-    <row r="910" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N910" s="10"/>
-    </row>
-    <row r="911" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N911" s="10"/>
-    </row>
-    <row r="912" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N912" s="10"/>
-    </row>
-    <row r="913" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N913" s="10"/>
-    </row>
-    <row r="914" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N914" s="10"/>
-    </row>
-    <row r="915" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N915" s="10"/>
-    </row>
-    <row r="916" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N916" s="10"/>
-    </row>
-    <row r="917" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N917" s="10"/>
-    </row>
-    <row r="918" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N918" s="10"/>
-    </row>
-    <row r="919" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N919" s="10"/>
-    </row>
-    <row r="920" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N920" s="10"/>
-    </row>
-    <row r="921" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N921" s="10"/>
-    </row>
-    <row r="922" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N922" s="10"/>
-    </row>
-    <row r="923" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N923" s="10"/>
-    </row>
-    <row r="924" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N924" s="10"/>
-    </row>
-    <row r="925" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N925" s="10"/>
-    </row>
-    <row r="926" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N926" s="10"/>
-    </row>
-    <row r="927" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N927" s="10"/>
-    </row>
-    <row r="928" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N928" s="10"/>
-    </row>
-    <row r="929" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N929" s="10"/>
-    </row>
-    <row r="930" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N930" s="10"/>
-    </row>
-    <row r="931" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N931" s="10"/>
-    </row>
-    <row r="932" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N932" s="10"/>
-    </row>
-    <row r="933" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N933" s="10"/>
-    </row>
-    <row r="934" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N934" s="10"/>
-    </row>
-    <row r="935" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N935" s="10"/>
-    </row>
-    <row r="936" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N936" s="10"/>
-    </row>
-    <row r="937" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N937" s="10"/>
-    </row>
-    <row r="938" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N938" s="10"/>
-    </row>
-    <row r="939" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N939" s="10"/>
-    </row>
-    <row r="940" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N940" s="10"/>
-    </row>
-    <row r="941" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N941" s="10"/>
-    </row>
-    <row r="942" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N942" s="10"/>
-    </row>
-    <row r="943" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N943" s="10"/>
-    </row>
-    <row r="944" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N944" s="10"/>
-    </row>
-    <row r="945" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N945" s="10"/>
-    </row>
-    <row r="946" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N946" s="10"/>
-    </row>
-    <row r="947" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N947" s="10"/>
-    </row>
-    <row r="948" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N948" s="10"/>
-    </row>
-    <row r="949" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N949" s="10"/>
-    </row>
-    <row r="950" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N950" s="10"/>
-    </row>
-    <row r="951" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N951" s="10"/>
-    </row>
-    <row r="952" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N952" s="10"/>
-    </row>
-    <row r="953" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N953" s="10"/>
-    </row>
-    <row r="954" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N954" s="10"/>
-    </row>
-    <row r="955" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N955" s="10"/>
-    </row>
-    <row r="956" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N956" s="10"/>
-    </row>
-    <row r="957" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N957" s="10"/>
-    </row>
-    <row r="958" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N958" s="10"/>
-    </row>
-    <row r="959" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N959" s="10"/>
-    </row>
-    <row r="960" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N960" s="10"/>
-    </row>
-    <row r="961" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N961" s="10"/>
-    </row>
-    <row r="962" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N962" s="10"/>
-    </row>
-    <row r="963" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N963" s="10"/>
-    </row>
-    <row r="964" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N964" s="10"/>
-    </row>
-    <row r="965" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N965" s="10"/>
-    </row>
-    <row r="966" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N966" s="10"/>
-    </row>
-    <row r="967" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N967" s="10"/>
-    </row>
-    <row r="968" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N968" s="10"/>
-    </row>
-    <row r="969" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N969" s="10"/>
-    </row>
-    <row r="970" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N970" s="10"/>
-    </row>
-    <row r="971" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N971" s="10"/>
-    </row>
-    <row r="972" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N972" s="10"/>
-    </row>
-    <row r="973" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N973" s="10"/>
-    </row>
-    <row r="974" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N974" s="10"/>
-    </row>
-    <row r="975" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N975" s="10"/>
-    </row>
-    <row r="976" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N976" s="10"/>
-    </row>
-    <row r="977" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N977" s="10"/>
-    </row>
-    <row r="978" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N978" s="10"/>
-    </row>
-    <row r="979" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N979" s="10"/>
-    </row>
-    <row r="980" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N980" s="10"/>
-    </row>
-    <row r="981" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N981" s="10"/>
-    </row>
-    <row r="982" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N982" s="10"/>
-    </row>
-    <row r="983" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N983" s="10"/>
-    </row>
-    <row r="984" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N984" s="10"/>
-    </row>
-    <row r="985" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N985" s="10"/>
-    </row>
-    <row r="986" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N986" s="10"/>
-    </row>
-    <row r="987" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N987" s="10"/>
-    </row>
-    <row r="988" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N988" s="10"/>
-    </row>
-    <row r="989" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N989" s="10"/>
-    </row>
-    <row r="990" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N990" s="10"/>
-    </row>
-    <row r="991" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N991" s="10"/>
-    </row>
-    <row r="992" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N992" s="10"/>
-    </row>
-    <row r="993" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N993" s="10"/>
-    </row>
-    <row r="994" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N994" s="10"/>
-    </row>
-    <row r="995" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N995" s="10"/>
-    </row>
-    <row r="996" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N996" s="10"/>
-    </row>
-    <row r="997" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N997" s="10"/>
-    </row>
-    <row r="998" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N998" s="10"/>
-    </row>
-    <row r="999" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N999" s="10"/>
-    </row>
-    <row r="1000" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N1000" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/auth" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>53</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>68</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6178,144 +4459,150 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:S998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7310,8 +5597,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7319,6 +5604,272 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="13">
+        <v>44958</v>
+      </c>
+      <c r="L2" s="13">
+        <v>44958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="12">
+        <v>400</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7336,42 +5887,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>109</v>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>112</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,37 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0FFC61C6-1449-4BFE-95BB-D085C29B26D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{41B9FD17-6442-4171-A0AC-48DB21D80ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Case Master-OLD" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case Master" sheetId="2" r:id="rId2"/>
-    <sheet name="Basic Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Accounts" sheetId="4" r:id="rId4"/>
-    <sheet name="Party" sheetId="5" r:id="rId5"/>
-    <sheet name="Budget" sheetId="6" r:id="rId6"/>
-    <sheet name="Scheduled" sheetId="7" r:id="rId7"/>
-    <sheet name="Payment Profile" sheetId="8" r:id="rId8"/>
+    <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Accounts" sheetId="3" r:id="rId3"/>
+    <sheet name="Party" sheetId="4" r:id="rId4"/>
+    <sheet name="Budget" sheetId="5" r:id="rId5"/>
+    <sheet name="Scheduled" sheetId="6" r:id="rId6"/>
+    <sheet name="Payment Profile" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miJVWP15JaCovKwi0Jx2gEs/j/q6Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7miN0ZB4aP7dq/8ubycJJfJNbm6Mag=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Skip</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Run TC</t>
   </si>
   <si>
     <t>Module name</t>
@@ -43,59 +42,6 @@
   </si>
   <si>
     <t>Assertion</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Basic Deatils</t>
-  </si>
-  <si>
-    <t>Create a Deal having Accounts for XCRO Transactions</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Create a Deal having Accounts, Parties for EComm Transactions</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Create a XCRO Deal having 2 Payments</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Create a XCRO Deal with 1 Retention and 2 Payments</t>
-  </si>
-  <si>
-    <t>In the Budget Screen, validate the Available Budget and Utilized budget</t>
-  </si>
-  <si>
-    <t>TC100</t>
-  </si>
-  <si>
-    <t>Create Deal Basic details info and select Contexualize
-Onboarding a account
-Creating a payment with PRS</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>Test Scenario ID</t>
-  </si>
-  <si>
-    <t>Run TC</t>
   </si>
   <si>
     <t>TS01</t>
@@ -106,6 +52,9 @@
   <si>
     <t>Basic Details
 Accounts</t>
+  </si>
+  <si>
+    <t>Create a Deal having Accounts for XCRO Transactions</t>
   </si>
   <si>
     <t>TS02</t>
@@ -116,14 +65,21 @@
 Party</t>
   </si>
   <si>
+    <t>Create a Deal having Accounts,Basicdetails, Parties</t>
+  </si>
+  <si>
     <t>TS03</t>
   </si>
   <si>
     <t>Basic Details
 Accounts
 Party
-Payments
-Retention</t>
+Payments</t>
+  </si>
+  <si>
+    <t>Create Deal Basic details info
+Onboarding a account
+Creating a payment</t>
   </si>
   <si>
     <t>TS04</t>
@@ -132,17 +88,31 @@
     <t>Basic Details
 Accounts
 Party
-Payments
-Retention
-Fees</t>
+Linked Instruction</t>
+  </si>
+  <si>
+    <t>Create a XCRO Deal as TS03 + Linked Instruction payment</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Budget
+Scheduled payment</t>
+  </si>
+  <si>
+    <t>TS03 + Budget and Payments</t>
   </si>
   <si>
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
-    <t>TS05</t>
-  </si>
-  <si>
     <t>Deal Name</t>
   </si>
   <si>
@@ -215,9 +185,6 @@
     <t>TS02_Deal</t>
   </si>
   <si>
-    <t>flexible funding</t>
-  </si>
-  <si>
     <t>Mumbai HO</t>
   </si>
   <si>
@@ -227,9 +194,6 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>Acquirer</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -257,9 +221,27 @@
     <t>Physical</t>
   </si>
   <si>
+    <t>Country Code</t>
+  </si>
+  <si>
     <t>INR</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
     <t>Add a new Party</t>
   </si>
   <si>
@@ -324,9 +306,6 @@
   </si>
   <si>
     <t>BIC123</t>
-  </si>
-  <si>
-    <t>IN</t>
   </si>
   <si>
     <t>SBI98765</t>
@@ -391,7 +370,7 @@
     <t>Select Instruction Type</t>
   </si>
   <si>
-    <t>Basic Deatils - Name</t>
+    <t>Basic Details Name</t>
   </si>
   <si>
     <t>Balance Consideration</t>
@@ -479,13 +458,16 @@
 Debit Remittance Info</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
-    <t>Country Code</t>
+    <t>Movie Production</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Battery</t>
   </si>
 </sst>
 </file>
@@ -495,10 +477,50 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -511,20 +533,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -554,36 +582,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,7 +850,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -814,8 +860,9 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
@@ -852,208 +899,125 @@
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="8"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2014,15 +1978,6 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,1149 +1988,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F993"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="80.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3191,182 +2008,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="M1" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4367,101 +3188,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>145</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
+      <c r="A2" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
+      <c r="A3" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4473,134 +3318,135 @@
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="M1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="N1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="O1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="P1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="Q1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
+      <c r="A3" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
+      <c r="A4" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5602,8 +4448,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5620,78 +4466,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="J1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>37</v>
+      <c r="K1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="18">
         <v>1000</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="19">
         <v>44958</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="19">
         <v>44958</v>
       </c>
     </row>
@@ -5700,8 +4546,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5725,151 +4571,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="L1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="M1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="N1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="O1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="P1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="Q1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="R1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="S1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="U1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="V1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="12">
+      <c r="H2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="18">
         <v>400</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>6</v>
+      <c r="S2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5887,40 +4733,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>142</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>62</v>
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>144</v>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>TS04_Deal</t>
+  </si>
+  <si>
+    <t>At specific time</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +698,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2055,8 +2061,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2277,9 @@
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="30"/>
+    </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3266,6 +3274,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3276,7 +3285,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:E5"/>
     </sheetView>
@@ -4866,7 +4875,9 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4991,7 +5002,7 @@
         <v>101</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>140</v>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ManishaDrive1\Appveen\FinalFramework\upp-test-automation\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -22,6 +17,7 @@
     <sheet name="Payment Profile" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miCy/JUKnYOZrLAXVLuveWCcaIa2A=="/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="154">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -2061,8 +2057,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2227,7 @@
       <c r="B5" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -3402,11 +3398,15 @@
   </sheetPr>
   <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="24.21875" customWidth="1"/>
@@ -3601,6 +3601,60 @@
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>15</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ManishaDrive1\Appveen\FinalFramework\upp-test-automation\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="5208" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="7296" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,6 @@
     <sheet name="Payment Profile" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId21" roundtripDataSignature="AMtx7mhutaEAu3Eo/TVBwvxT6q/0+D6ZAw=="/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="231">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -472,15 +476,6 @@
     <t>Current Date</t>
   </si>
   <si>
-    <t>TestUser4</t>
-  </si>
-  <si>
-    <t>Testuser4@gmail.com</t>
-  </si>
-  <si>
-    <t>BIC678</t>
-  </si>
-  <si>
     <t>TestUser5</t>
   </si>
   <si>
@@ -757,6 +752,18 @@
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>TS07_Deal</t>
+  </si>
+  <si>
+    <t>TestUser7</t>
+  </si>
+  <si>
+    <t>Testuser7@gmail.com</t>
+  </si>
+  <si>
+    <t>Testuser4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -766,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -834,6 +841,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -892,10 +906,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,8 +993,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1200,7 +1217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2425,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,13 +2456,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2500,67 +2517,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="N1" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>113</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="U1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="V1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -2568,25 +2585,25 @@
         <v>29</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>95</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>80</v>
@@ -2595,22 +2612,22 @@
         <v>79</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>56</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="31">
         <v>250</v>
@@ -2619,16 +2636,16 @@
         <v>80</v>
       </c>
       <c r="S2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>192</v>
-      </c>
       <c r="V2" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2657,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2688,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2701,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,13 +2732,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2776,7 @@
         <v>103</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>105</v>
@@ -2768,7 +2785,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>110</v>
@@ -2798,10 +2815,10 @@
         <v>118</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>121</v>
@@ -2827,13 +2844,13 @@
         <v>53</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>123</v>
@@ -2845,7 +2862,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>79</v>
@@ -2857,10 +2874,10 @@
         <v>127</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2888,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2916,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2933,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2979,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3975,7 +3992,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4264,43 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="35"/>
+    </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5250,11 +5303,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5380,6 +5433,23 @@
       </c>
       <c r="E7" s="18" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5563,9 @@
   </sheetPr>
   <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5691,54 +5763,59 @@
       <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="J4" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>137</v>
+        <v>54</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>123</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,34 +5826,34 @@
         <v>7</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>123</v>
@@ -5808,34 +5885,34 @@
         <v>7</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>123</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>84</v>
@@ -5853,7 +5930,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6846,6 +6981,10 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6879,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>89</v>
@@ -6891,55 +7030,55 @@
         <v>86</v>
       </c>
       <c r="F1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="N1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>160</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>113</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -6947,19 +7086,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>23</v>
@@ -6977,10 +7116,10 @@
         <v>135</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>94</v>
@@ -6998,7 +7137,7 @@
         <v>400</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>84</v>
@@ -7025,8 +7164,8 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7042,10 +7181,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>89</v>
@@ -7054,61 +7193,61 @@
         <v>86</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>90</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>160</v>
       </c>
       <c r="U1" s="31" t="s">
         <v>113</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W1" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X1" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7116,19 +7255,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>23</v>
@@ -7137,10 +7276,10 @@
         <v>23</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>7</v>
@@ -7152,10 +7291,10 @@
         <v>135</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>51</v>
@@ -7173,7 +7312,7 @@
         <v>500</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V2" s="35" t="s">
         <v>80</v>
@@ -7215,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>89</v>
@@ -7230,37 +7369,37 @@
         <v>86</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>182</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7268,16 +7407,16 @@
         <v>27</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>95</v>
@@ -7286,7 +7425,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>123</v>
@@ -7301,19 +7440,19 @@
         <v>84</v>
       </c>
       <c r="M2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="Q2" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7345,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,13 +7498,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mj0upXukzQjdXcZMoA76U6LD7wfHQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgG4Sl0IX8+8z1LblT6PwhF9HRwcA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="287">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -315,7 +315,13 @@
     <t>TS05_Deal</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>TS06_Deal</t>
+  </si>
+  <si>
+    <t>TS07_Deal</t>
   </si>
   <si>
     <t>TS09_Deal</t>
@@ -408,6 +414,15 @@
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Phone Bill</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
   <si>
     <t>Add a new Party</t>
@@ -639,10 +654,37 @@
     <t>Next Business Day</t>
   </si>
   <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>At specific time</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Ledger Balance</t>
+  </si>
+  <si>
+    <t>Do not execute on holiday</t>
+  </si>
+  <si>
+    <t>ICICI178</t>
+  </si>
+  <si>
     <t>Parent Test case</t>
   </si>
   <si>
-    <t>API Payload</t>
+    <t>PArty Type</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>PAyload</t>
   </si>
   <si>
     <t>TS12-1</t>
@@ -654,10 +696,160 @@
     <t xml:space="preserve"> Individual</t>
   </si>
   <si>
+    <t>https://dev.upp.appveen.com/mdm/api/party</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{
+        "party": {
+                "dealRefId": "REF1672297910549",
+                "name": "Ranjith123",
+                "partyRefId": "Ranjith123",
+                "country": "IN",
+                "status": "Active",
+                "kycCompleted": true,
+                "validFrom": "2021-09-17",
+                "validUntil": "2023-12-31",
+                "responsibility": "Acquiree",
+                "attributes": {
+                        "acquiree": "Merchant",
+                        "number": 10
+                },
+"type":"company",
+"company":{
+"incorporationDate":"2021-09-17",
+"registrationNumber":"REG123432",
+"taxId":"",
+"taxType":"",
+"businessCategory":"",
+"businessType":"",
+"listingAuthority":""
+},
+                "executionPolicies": {
+                        "onPartyActivate": "doNothing",
+                        "onPartyDeactivate": "holdExecutions"
+                },
+                "contacts": [{
+                        "name": "Merchant33",
+                        "designation": "Manager",
+                        "authorizedSignatory": false,
+                        "enableNotifications": false,
+                        "workPhone": "+91 92392 29932",
+                        "mobilePhone": "+91 92392 29932",
+                        "email": "jane.doe@gmail.com",
+                        "address": {
+                                "town": "Bengaluru Urban",
+                                "street": "M G Road",
+                                "zip_pin": "4000340",
+                                "state": "KA",
+                                "country": "IN"
+                        }
+                }],
+                "accounts": [{
+                        "paymentInstrumentId": "AK-Pay",
+                        "description": "Payout Account",
+                        "paymentDetails": {
+                                "accountIban": "Account Number",
+                                "to": "123123122133",
+                                "receiverPop": "123",
+                                "name": "Merchant293",
+                                "beneficiaryCountry": "IN",
+                                "beneficiaryCurrency": "INR"
+                        },
+            "overrides": [{
+                    "profileName": "Payment Profile",
+                    "paymentInstrument":"BT",
+                    "country": "IN",
+                    "attributes": [
+                        {
+                            "name": "Charge Bearer",
+                            "value": "SHA"
+                        }
+                    ]
+                }]
+                }]
+        }
+}</t>
+  </si>
+  <si>
     <t>TS12-2</t>
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>{
+        "party": {
+                "dealRefId": "REF1672297910549",
+                "name": "Karthik123",
+                "partyRefId": "Karthik123",
+                "country": "IN",
+                "status": "Active",
+                "kycCompleted": true,
+                "validFrom": "2021-09-17",
+                "validUntil": "2023-12-31",
+                "responsibility": "Acquiree",
+                "attributes": {
+                        "acquiree": "Merchant",
+                        "number": 10
+                },
+"type":"company",
+"company":{
+"incorporationDate":"2021-09-17",
+"registrationNumber":"REG123432",
+"taxId":"",
+"taxType":"",
+"businessCategory":"",
+"businessType":"",
+"listingAuthority":""
+},
+                "executionPolicies": {
+                        "onPartyActivate": "doNothing",
+                        "onPartyDeactivate": "holdExecutions"
+                },
+                "contacts": [{
+                        "name": "Merchant33",
+                        "designation": "Manager",
+                        "authorizedSignatory": false,
+                        "enableNotifications": false,
+                        "workPhone": "+91 92392 29932",
+                        "mobilePhone": "+91 92392 29932",
+                        "email": "jane.doe@gmail.com",
+                        "address": {
+                                "town": "Bengaluru Urban",
+                                "street": "M G Road",
+                                "zip_pin": "4000340",
+                                "state": "KA",
+                                "country": "IN"
+                        }
+                }],
+                "accounts": [{
+                        "paymentInstrumentId": "AK-Pay",
+                        "description": "Payout Account",
+                        "paymentDetails": {
+                                "accountIban": "Account Number",
+                                "to": "123123122133",
+                                "receiverPop": "123",
+                                "name": "Merchant293",
+                                "beneficiaryCountry": "IN",
+                                "beneficiaryCurrency": "INR"
+                        },
+            "overrides": [{
+                    "profileName": "Payment Profile",
+                    "paymentInstrument":"BT",
+                    "country": "IN",
+                    "attributes": [
+                        {
+                            "name": "Charge Bearer",
+                            "value": "SHA"
+                        }
+                    ]
+                }]
+                }]
+        }
+}</t>
   </si>
   <si>
     <t>Linked - Amount</t>
@@ -676,9 +868,6 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>At specific time</t>
-  </si>
-  <si>
     <t>CREATE TRANSACTION - Deal Ref Id</t>
   </si>
   <si>
@@ -695,9 +884,6 @@
   </si>
   <si>
     <t>Documents-Document Type</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>File Type</t>
@@ -896,8 +1082,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -949,12 +1136,12 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1008,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1114,6 +1301,15 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1123,17 +1319,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29417,52 +29607,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>207</v>
-      </c>
       <c r="O1" s="35" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -29470,52 +29660,52 @@
         <v>27</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K2" s="35">
         <v>500.0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29546,13 +29736,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -29560,13 +29750,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29594,13 +29784,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -29608,13 +29798,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29667,67 +29857,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -29735,67 +29925,67 @@
         <v>29</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="O2" s="35" t="s">
         <v>62</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="35">
         <v>250.0</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29823,13 +30013,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -29837,13 +30027,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29866,13 +30056,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -29880,13 +30070,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29915,58 +30105,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -29977,55 +30167,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>60</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -30052,10 +30242,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -30063,10 +30253,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -30094,46 +30284,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -30141,46 +30331,46 @@
         <v>36</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K2" s="38">
         <v>44991.0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -30403,8 +30593,8 @@
       <c r="B6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>66</v>
+      <c r="C6" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>67</v>
@@ -30416,8 +30606,8 @@
       <c r="G6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>70</v>
+      <c r="H6" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>60</v>
@@ -30435,7 +30625,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="35">
         <v>1.0</v>
@@ -30469,6 +30659,36 @@
       <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
+      <c r="B8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -30480,13 +30700,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="35">
         <v>1.0</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>56</v>
@@ -30495,7 +30715,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>59</v>
@@ -30504,7 +30724,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>78</v>
@@ -31531,16 +31751,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -31548,19 +31768,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -32590,13 +32810,13 @@
         <v>48</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -32607,13 +32827,13 @@
         <v>59</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -32624,13 +32844,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -32641,13 +32861,13 @@
         <v>75</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -32658,13 +32878,13 @@
         <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -32672,7 +32892,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>91</v>
@@ -32692,13 +32912,13 @@
         <v>75</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -32719,13 +32939,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -32760,31 +32980,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>45</v>
@@ -32798,28 +33018,28 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J2" s="35">
         <v>1000.0</v>
@@ -32830,6 +33050,32 @@
       <c r="L2" s="38">
         <v>44958.0</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="40">
+        <v>45130.0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -32863,61 +33109,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -32928,55 +33174,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>60</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -32987,53 +33233,53 @@
         <v>7</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>76</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -33044,10 +33290,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>77</v>
@@ -33057,37 +33303,37 @@
       </c>
       <c r="H4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L4" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="Q4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="O4" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>144</v>
-      </c>
       <c r="S4" s="35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -33098,55 +33344,55 @@
         <v>7</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>60</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -33157,49 +33403,49 @@
         <v>7</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="35" t="s">
         <v>143</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -33220,52 +33466,52 @@
         <v>7</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K9" s="35" t="s">
         <v>60</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>165</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -34281,7 +34527,7 @@
     <col customWidth="1" min="3" max="3" width="18.75"/>
     <col customWidth="1" min="6" max="6" width="17.88"/>
     <col customWidth="1" min="10" max="10" width="20.25"/>
-    <col customWidth="1" min="13" max="13" width="16.13"/>
+    <col customWidth="1" min="13" max="13" width="20.25"/>
     <col customWidth="1" min="15" max="15" width="10.0"/>
     <col customWidth="1" min="16" max="16" width="22.63"/>
     <col customWidth="1" min="19" max="19" width="16.88"/>
@@ -34295,67 +34541,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -34363,67 +34609,61 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R2" s="35">
         <v>400.0</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -34431,67 +34671,197 @@
         <v>39</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R3" s="35">
         <v>400.0</v>
       </c>
       <c r="S3" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="35" t="s">
+      <c r="C4" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="F4" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="41">
+        <v>600.0</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>107</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="35">
+        <v>17800.0</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -34511,6 +34881,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.88"/>
     <col customWidth="1" min="2" max="2" width="23.38"/>
+    <col customWidth="1" min="4" max="4" width="37.38"/>
+    <col customWidth="1" min="6" max="6" width="65.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -34518,36 +34890,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>200</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" ht="258.0" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34586,147 +34982,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>196</v>
+        <v>102</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>214</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="B2" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="43" t="s">
+      <c r="F2" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="43" t="s">
+      <c r="L2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="43" t="s">
+      <c r="Q2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="41">
+        <v>500.0</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="44">
-        <v>500.0</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="V2" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>107</v>
+      <c r="X2" s="39" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\upp-ui-automation\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -34,6 +29,7 @@
     <sheet name="Payment Profile" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgG4Sl0IX8+8z1LblT6PwhF9HRwcA=="/>
@@ -1074,7 +1070,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
@@ -1528,14 +1524,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -29502,15 +29498,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -29636,11 +29632,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29685,11 +29681,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29734,7 +29730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29749,22 +29745,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="16" width="23.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="16" width="23.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -29917,11 +29913,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29966,7 +29962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
@@ -30010,12 +30006,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -30150,10 +30146,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -30192,11 +30188,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -30309,17 +30305,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
@@ -31631,13 +31627,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -32691,10 +32687,10 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -32862,13 +32858,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -32985,19 +32981,21 @@
   </sheetPr>
   <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="1" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33253,7 +33251,7 @@
         <v>154</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>153</v>
@@ -34416,24 +34414,24 @@
   </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.5546875" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="28.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -34722,15 +34720,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -34770,7 +34768,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6" ht="13.2">
       <c r="A3" s="35" t="s">
         <v>203</v>
       </c>
@@ -34801,7 +34799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34816,12 +34814,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="24" max="24" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -988,7 +988,7 @@
     <t>Should be same as Ecomm Maker screen amount</t>
   </si>
   <si>
-    <t>TestUser100</t>
+    <t>TestUser1002</t>
   </si>
   <si>
     <t>Testuser100@gmail.com</t>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="302">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -137,6 +137,9 @@
     <t>TS05-Assertion</t>
   </si>
   <si>
+    <t>Assertion for Budget details</t>
+  </si>
+  <si>
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
@@ -188,14 +191,28 @@
     <t>a) Creating a Holiday for Future date (Ex: 06-March-2023) and [TS03] creating a SCHD txn for the same date and because of holiday Action(next business day), txn should be schd for 07-March-2023 and executed on the same date</t>
   </si>
   <si>
-    <t>TS03-assertion1</t>
+    <t>TS10-assertion1</t>
   </si>
   <si>
-    <t>TS10- Assertion for TS 10</t>
+    <t>Assertion for TS 10</t>
   </si>
   <si>
     <t>As per the Holiday Configuration and Holiday action, transaction should be created and executed accordingly.
 Note: Validate the txn schd date</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Payments
+(AND)
+PARTY API</t>
+  </si>
+  <si>
+    <t>TS03 + Add Party through Api and creating a txn</t>
   </si>
   <si>
     <t>Deal Name</t>
@@ -334,6 +351,15 @@
   </si>
   <si>
     <t>Acquirer</t>
+  </si>
+  <si>
+    <t>TS10_Deal_Holiday</t>
+  </si>
+  <si>
+    <t>TS011_Deal</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>Currency</t>
@@ -560,6 +586,12 @@
     <t>BICTS06</t>
   </si>
   <si>
+    <t>TestUser7</t>
+  </si>
+  <si>
+    <t>Testuser7@gmail.com</t>
+  </si>
+  <si>
     <t>TestUser9</t>
   </si>
   <si>
@@ -573,6 +605,21 @@
   </si>
   <si>
     <t>IMDTS09</t>
+  </si>
+  <si>
+    <t>TestUser11</t>
+  </si>
+  <si>
+    <t>Test11 remarks</t>
+  </si>
+  <si>
+    <t>Testuser11@gmail.com</t>
+  </si>
+  <si>
+    <t>BICTS11</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
   </si>
   <si>
     <t>Select Instruction Type</t>
@@ -648,6 +695,9 @@
     <t>SCBASDFGH</t>
   </si>
   <si>
+    <t>TS03-assertion1</t>
+  </si>
+  <si>
     <t>March 06-2023</t>
   </si>
   <si>
@@ -672,10 +722,16 @@
     <t>ICICI178</t>
   </si>
   <si>
+    <t>TS11 Payment</t>
+  </si>
+  <si>
+    <t>SBITS11</t>
+  </si>
+  <si>
     <t>Parent Test case</t>
   </si>
   <si>
-    <t>PArty Type</t>
+    <t>Party Type</t>
   </si>
   <si>
     <t>URL</t>
@@ -684,16 +740,13 @@
     <t>Method</t>
   </si>
   <si>
-    <t>PAyload</t>
+    <t>Payload</t>
   </si>
   <si>
-    <t>TS12-1</t>
+    <t>TS11-1</t>
   </si>
   <si>
-    <t>TS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Individual</t>
+    <t>Company</t>
   </si>
   <si>
     <t>https://dev.upp.appveen.com/mdm/api/party</t>
@@ -704,19 +757,15 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Ranjith123",
-                "partyRefId": "Ranjith123",
+                "dealRefId": "REF1678164931132",
+                "name": "Party12345678",
+                "partyRefId": "Party12345670",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
                 "validFrom": "2021-09-17",
                 "validUntil": "2023-12-31",
                 "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
 "type":"company",
 "company":{
 "incorporationDate":"2021-09-17",
@@ -748,108 +797,24 @@
                         }
                 }],
                 "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
+                        "paymentInstrumentId": "BT",
                         "description": "Payout Account",
                         "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
+                        "beneficiaryBankBic": "BIC456",
+                        "beneficiaryCountry":"IN",
+                        "beneficiaryCurrency":"INR",
+                        "to":"SBI98765",
+                        "beneficiaryCountryOfIncorporation":"IN"
                         }
-                    ]
-                }]
                 }]
         }
 }</t>
   </si>
   <si>
-    <t>TS12-2</t>
+    <t>TS11-2</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>{
-        "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Karthik123",
-                "partyRefId": "Karthik123",
-                "country": "IN",
-                "status": "Active",
-                "kycCompleted": true,
-                "validFrom": "2021-09-17",
-                "validUntil": "2023-12-31",
-                "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
-"type":"company",
-"company":{
-"incorporationDate":"2021-09-17",
-"registrationNumber":"REG123432",
-"taxId":"",
-"taxType":"",
-"businessCategory":"",
-"businessType":"",
-"listingAuthority":""
-},
-                "executionPolicies": {
-                        "onPartyActivate": "doNothing",
-                        "onPartyDeactivate": "holdExecutions"
-                },
-                "contacts": [{
-                        "name": "Merchant33",
-                        "designation": "Manager",
-                        "authorizedSignatory": false,
-                        "enableNotifications": false,
-                        "workPhone": "+91 92392 29932",
-                        "mobilePhone": "+91 92392 29932",
-                        "email": "jane.doe@gmail.com",
-                        "address": {
-                                "town": "Bengaluru Urban",
-                                "street": "M G Road",
-                                "zip_pin": "4000340",
-                                "state": "KA",
-                                "country": "IN"
-                        }
-                }],
-                "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
-                        "description": "Payout Account",
-                        "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
-                        }
-                    ]
-                }]
-                }]
-        }
-}</t>
+    <t>Individual</t>
   </si>
   <si>
     <t>Linked - Amount</t>
@@ -1086,7 +1051,7 @@
     <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1134,6 +1099,22 @@
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1195,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1243,12 +1224,12 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1310,6 +1291,9 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1319,10 +1303,22 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1864,10 +1860,14 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
@@ -1893,14 +1893,14 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11" t="s">
@@ -1929,18 +1929,18 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1965,14 +1965,14 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11" t="s">
@@ -2001,16 +2001,16 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="11" t="s">
@@ -2039,16 +2039,16 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="9"/>
@@ -2072,22 +2072,24 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
+    <row r="13" ht="68.25" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
-        <v>40</v>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2109,15 +2111,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2139,13 +2149,13 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2167,13 +2177,13 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -29607,105 +29617,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="O1" s="35" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K2" s="35">
         <v>500.0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>231</v>
+        <v>245</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>246</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29736,27 +29746,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29784,27 +29794,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29857,135 +29867,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="35">
         <v>250.0</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -30013,27 +30023,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -30056,27 +30066,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -30105,117 +30115,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -30242,21 +30252,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -30284,93 +30294,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K2" s="38">
         <v>44991.0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -30389,7 +30399,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.75"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
     <col customWidth="1" min="3" max="4" width="13.5"/>
     <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="16.5"/>
@@ -30404,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -30445,40 +30455,40 @@
         <v>6</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="22">
         <v>1.0</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -30486,30 +30496,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L3" s="27"/>
     </row>
@@ -30518,34 +30528,34 @@
         <v>14</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="26">
         <v>1.0</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L4" s="27"/>
     </row>
@@ -30554,34 +30564,34 @@
         <v>18</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="30">
         <v>1.0</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -30591,151 +30601,214 @@
         <v>22</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" s="35">
         <v>1.0</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" s="30">
         <v>1.0</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="35">
         <v>1.0</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -31751,16 +31824,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -31768,19 +31841,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -32807,16 +32880,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -32824,16 +32897,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -32841,16 +32914,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -32858,16 +32931,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -32875,16 +32948,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -32892,65 +32965,82 @@
         <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -32980,37 +33070,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -33018,28 +33108,28 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J2" s="35">
         <v>1000.0</v>
@@ -33056,17 +33146,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="39" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I3" s="40">
         <v>45130.0</v>
@@ -33109,61 +33199,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -33174,55 +33264,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -33233,53 +33323,53 @@
         <v>7</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>139</v>
-      </c>
       <c r="N3" s="35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -33290,50 +33380,50 @@
         <v>7</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -33344,182 +33434,291 @@
         <v>7</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>165</v>
+        <v>146</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -34508,7 +34707,10 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="L7"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34541,67 +34743,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
@@ -34609,129 +34811,129 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="R2" s="35">
         <v>400.0</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="R3" s="35">
         <v>400.0</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -34739,129 +34941,191 @@
         <v>22</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="R4" s="41">
         <v>600.0</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>210</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="R5" s="35">
         <v>17800.0</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="V5" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="35">
+        <v>2000.0</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -34880,63 +35144,60 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.88"/>
-    <col customWidth="1" min="2" max="2" width="23.38"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
     <col customWidth="1" min="4" max="4" width="37.38"/>
     <col customWidth="1" min="6" max="6" width="65.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" ht="258.0" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>205</v>
+      <c r="B1" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" ht="172.5" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>207</v>
+        <v>222</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>223</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" ht="100.5" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -34982,147 +35243,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>214</v>
+        <v>109</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>229</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="T2" s="41">
         <v>500.0</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -757,9 +757,9 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1678164931132",
-                "name": "Party12345678",
-                "partyRefId": "Party12345670",
+                "dealRefId": "REF1678428748624",
+                "name": "Party1234567809",
+                "partyRefId": "Party1234567009",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
@@ -804,7 +804,8 @@
                         "beneficiaryCountry":"IN",
                         "beneficiaryCurrency":"INR",
                         "to":"SBI98765",
-                        "beneficiaryCountryOfIncorporation":"IN"
+                        "beneficiaryCountryOfIncorporation":"IN",
+                        "amount":1000
                         }
                 }]
         }

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgG4Sl0IX8+8z1LblT6PwhF9HRwcA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhTAQv+vpR89b+9ZFSfU2Yp2bBa1g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="327">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -215,6 +215,20 @@
     <t>TS03 + Add Party through Api and creating a txn</t>
   </si>
   <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , Transaction to
+ Non Registered Beneficiary Checkbox  Unckecked in Basic Details Page in Deal </t>
+  </si>
+  <si>
+    <t>TS13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , Transaction to
+ Non Registered Beneficiary Checkbox  Checked in Basic Details Page in Deal </t>
+  </si>
+  <si>
     <t>Deal Name</t>
   </si>
   <si>
@@ -356,10 +370,16 @@
     <t>TS10_Deal_Holiday</t>
   </si>
   <si>
-    <t>TS011_Deal</t>
+    <t>TS11_Deal</t>
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>TS12_Deal</t>
+  </si>
+  <si>
+    <t>TS13_Deal</t>
   </si>
   <si>
     <t>Currency</t>
@@ -607,6 +627,15 @@
     <t>IMDTS09</t>
   </si>
   <si>
+    <t>TestUser10</t>
+  </si>
+  <si>
+    <t>Test10 remarks</t>
+  </si>
+  <si>
+    <t>Testuser10@gmail.com</t>
+  </si>
+  <si>
     <t>TestUser11</t>
   </si>
   <si>
@@ -849,6 +878,18 @@
     <t>Sub Instruction - Instrument</t>
   </si>
   <si>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>Trteo</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>beneficiaryCountry</t>
+  </si>
+  <si>
     <t>Documents-Document Type</t>
   </si>
   <si>
@@ -885,6 +926,45 @@
     <t>SUBMIT</t>
   </si>
   <si>
+    <t>Adhoc Payment TS12</t>
+  </si>
+  <si>
+    <t>LTTest</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>XYZTS12</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>https://sit.upp.appveen.com/</t>
+  </si>
+  <si>
+    <t>Test data TS12</t>
+  </si>
+  <si>
+    <t>Adhoc Payment TS13</t>
+  </si>
+  <si>
+    <t>SBITS13</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>XYZTS13</t>
+  </si>
+  <si>
+    <t>OverDraft</t>
+  </si>
+  <si>
+    <t>Test data TS13</t>
+  </si>
+  <si>
     <t>Summary-Amount (Assertion)</t>
   </si>
   <si>
@@ -904,9 +984,6 @@
   </si>
   <si>
     <t>Creditor Participant Id</t>
-  </si>
-  <si>
-    <t>beneficiaryCountry</t>
   </si>
   <si>
     <t>beneficiaryCurrency</t>
@@ -1177,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1229,9 +1306,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1621,7 +1695,7 @@
     <col customWidth="1" min="2" max="2" width="14.75"/>
     <col customWidth="1" min="3" max="3" width="12.63"/>
     <col customWidth="1" min="4" max="4" width="23.63"/>
-    <col customWidth="1" min="5" max="5" width="57.25"/>
+    <col customWidth="1" min="5" max="5" width="59.13"/>
     <col customWidth="1" min="6" max="6" width="27.38"/>
   </cols>
   <sheetData>
@@ -2151,12 +2225,20 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2179,12 +2261,20 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2208,7 +2298,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2236,7 +2326,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29606,124 +29696,258 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="26.25"/>
     <col customWidth="1" min="3" max="3" width="19.75"/>
+    <col customWidth="1" min="4" max="4" width="17.25"/>
     <col customWidth="1" min="5" max="5" width="14.0"/>
     <col customWidth="1" min="7" max="8" width="18.25"/>
     <col customWidth="1" min="9" max="9" width="23.13"/>
-    <col customWidth="1" min="12" max="12" width="18.5"/>
-    <col customWidth="1" min="14" max="14" width="22.75"/>
+    <col customWidth="1" min="12" max="15" width="18.5"/>
+    <col customWidth="1" min="18" max="18" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="34">
+        <v>500.0</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="35">
-        <v>500.0</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>249</v>
+      <c r="M3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="N2"/>
+    <hyperlink r:id="rId1" ref="R2"/>
+    <hyperlink r:id="rId2" ref="R3"/>
+    <hyperlink r:id="rId3" ref="R4"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -29743,31 +29967,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>241</v>
+      <c r="B1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>249</v>
+      <c r="B2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -29791,31 +30043,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>241</v>
+      <c r="B1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>249</v>
+      <c r="B2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -29864,139 +30144,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="E2" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>250.0</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="L1" s="35" t="s">
+      <c r="T2" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="U2" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="V2" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q2" s="35">
-        <v>250.0</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -30020,31 +30300,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>241</v>
+      <c r="B1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>249</v>
+      <c r="B2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -30063,31 +30343,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>241</v>
+      <c r="B1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>249</v>
+      <c r="B2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -30112,121 +30392,121 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="35" t="s">
+      <c r="G1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>241</v>
+      <c r="L1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>276</v>
+      <c r="G2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -30249,25 +30529,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>241</v>
+      <c r="B1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>277</v>
+      <c r="B2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -30291,97 +30571,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>289</v>
+      <c r="B1" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="K2" s="38">
+      <c r="B2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="37">
         <v>44991.0</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>295</v>
+      <c r="L2" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30411,407 +30691,475 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="34">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="D14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="E14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="F14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="I14" s="34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="J14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
+    </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -31821,40 +32169,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>300</v>
+      <c r="B1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>146</v>
+      <c r="B2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>301</v>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -32877,171 +33225,200 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>97</v>
+      <c r="B1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>99</v>
+      <c r="E2" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>101</v>
+      <c r="E3" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>103</v>
+      <c r="E4" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>99</v>
+      <c r="E5" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>99</v>
+      <c r="E6" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>103</v>
+      <c r="E7" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>99</v>
+      <c r="E10" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>37</v>
       </c>
+      <c r="B11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>99</v>
+      <c r="E12" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -33067,106 +33444,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>50</v>
+      <c r="E1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="35">
+      <c r="D2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="34">
         <v>1000.0</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <v>44958.0</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="37">
         <v>44958.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="B3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="39">
         <v>45130.0</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <v>1000.0</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -33196,528 +33573,582 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>142</v>
       </c>
+      <c r="O1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="K2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="J3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="J4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="J7" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="J3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="N7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="35" t="s">
+      <c r="O7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q7" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="35" t="s">
+      <c r="S7" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="J4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="35" t="s">
+      <c r="C9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="35" t="s">
+      <c r="S10" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="S4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="37" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="35" t="s">
+      <c r="C11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="35" t="s">
+      <c r="S11" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="S9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -34740,393 +35171,461 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="34">
+        <v>400.0</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="34">
+        <v>400.0</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="40">
+        <v>600.0</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="34">
+        <v>17800.0</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" s="35">
-        <v>400.0</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="35">
-        <v>400.0</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="U5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="P4" s="39" t="s">
+      <c r="C6" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="41">
-        <v>600.0</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V4" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="H6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="35">
-        <v>17800.0</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="R6" s="35">
+      <c r="M7" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="R7" s="34">
         <v>2000.0</v>
       </c>
-      <c r="S6" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>116</v>
+      <c r="S7" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -35151,54 +35650,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>220</v>
+      <c r="B1" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="172.5" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>225</v>
+      <c r="C2" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>227</v>
+      <c r="C3" s="34" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -35240,151 +35739,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="V2" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" s="41">
-        <v>500.0</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>116</v>
+      <c r="W2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\dev\upp-test-automation\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,6 @@
     <sheet name="Payment Profile" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgG4Sl0IX8+8z1LblT6PwhF9HRwcA=="/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="302">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -141,6 +145,9 @@
     <t>TS05-Assertion</t>
   </si>
   <si>
+    <t>Assertion for Budget details</t>
+  </si>
+  <si>
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
@@ -192,14 +199,28 @@
     <t>a) Creating a Holiday for Future date (Ex: 06-March-2023) and [TS03] creating a SCHD txn for the same date and because of holiday Action(next business day), txn should be schd for 07-March-2023 and executed on the same date</t>
   </si>
   <si>
-    <t>TS03-assertion1</t>
+    <t>TS10-assertion1</t>
   </si>
   <si>
-    <t>TS10- Assertion for TS 10</t>
+    <t>Assertion for TS 10</t>
   </si>
   <si>
     <t>As per the Holiday Configuration and Holiday action, transaction should be created and executed accordingly.
 Note: Validate the txn schd date</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Payments
+(AND)
+PARTY API</t>
+  </si>
+  <si>
+    <t>TS03 + Add Party through Api and creating a txn</t>
   </si>
   <si>
     <t>Deal Name</t>
@@ -319,7 +340,13 @@
     <t>TS05_Deal</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>TS06_Deal</t>
+  </si>
+  <si>
+    <t>TS07_Deal</t>
   </si>
   <si>
     <t>TS09_Deal</t>
@@ -332,6 +359,15 @@
   </si>
   <si>
     <t>Acquirer</t>
+  </si>
+  <si>
+    <t>TS10_Deal_Holiday</t>
+  </si>
+  <si>
+    <t>TS011_Deal</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>Currency</t>
@@ -558,6 +594,12 @@
     <t>BICTS06</t>
   </si>
   <si>
+    <t>TestUser7</t>
+  </si>
+  <si>
+    <t>Testuser7@gmail.com</t>
+  </si>
+  <si>
     <t>TestUser9</t>
   </si>
   <si>
@@ -571,6 +613,21 @@
   </si>
   <si>
     <t>IMDTS09</t>
+  </si>
+  <si>
+    <t>TestUser11</t>
+  </si>
+  <si>
+    <t>Test11 remarks</t>
+  </si>
+  <si>
+    <t>Testuser11@gmail.com</t>
+  </si>
+  <si>
+    <t>BICTS11</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
   </si>
   <si>
     <t>Select Instruction Type</t>
@@ -646,6 +703,9 @@
     <t>SCBASDFGH</t>
   </si>
   <si>
+    <t>TS03-assertion1</t>
+  </si>
+  <si>
     <t>March 06-2023</t>
   </si>
   <si>
@@ -655,10 +715,31 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>At specific time</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Ledger Balance</t>
+  </si>
+  <si>
+    <t>Do not execute on holiday</t>
+  </si>
+  <si>
+    <t>ICICI178</t>
+  </si>
+  <si>
+    <t>TS11 Payment</t>
+  </si>
+  <si>
+    <t>SBITS11</t>
+  </si>
+  <si>
     <t>Parent Test case</t>
   </si>
   <si>
-    <t>PArty Type</t>
+    <t>Party Type</t>
   </si>
   <si>
     <t>URL</t>
@@ -667,16 +748,13 @@
     <t>Method</t>
   </si>
   <si>
-    <t>PAyload</t>
+    <t>Payload</t>
   </si>
   <si>
-    <t>TS12-1</t>
+    <t>TS11-1</t>
   </si>
   <si>
-    <t>TS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Individual</t>
+    <t>Company</t>
   </si>
   <si>
     <t>https://dev.upp.appveen.com/mdm/api/party</t>
@@ -687,19 +765,15 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Ranjith123",
-                "partyRefId": "Ranjith123",
+                "dealRefId": "REF1678164931132",
+                "name": "Party12345678",
+                "partyRefId": "Party12345670",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
                 "validFrom": "2021-09-17",
                 "validUntil": "2023-12-31",
                 "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
 "type":"company",
 "company":{
 "incorporationDate":"2021-09-17",
@@ -731,108 +805,24 @@
                         }
                 }],
                 "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
+                        "paymentInstrumentId": "BT",
                         "description": "Payout Account",
                         "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
+                        "beneficiaryBankBic": "BIC456",
+                        "beneficiaryCountry":"IN",
+                        "beneficiaryCurrency":"INR",
+                        "to":"SBI98765",
+                        "beneficiaryCountryOfIncorporation":"IN"
                         }
-                    ]
-                }]
                 }]
         }
 }</t>
   </si>
   <si>
-    <t>TS12-2</t>
+    <t>TS11-2</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>{
-        "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Karthik123",
-                "partyRefId": "Karthik123",
-                "country": "IN",
-                "status": "Active",
-                "kycCompleted": true,
-                "validFrom": "2021-09-17",
-                "validUntil": "2023-12-31",
-                "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
-"type":"company",
-"company":{
-"incorporationDate":"2021-09-17",
-"registrationNumber":"REG123432",
-"taxId":"",
-"taxType":"",
-"businessCategory":"",
-"businessType":"",
-"listingAuthority":""
-},
-                "executionPolicies": {
-                        "onPartyActivate": "doNothing",
-                        "onPartyDeactivate": "holdExecutions"
-                },
-                "contacts": [{
-                        "name": "Merchant33",
-                        "designation": "Manager",
-                        "authorizedSignatory": false,
-                        "enableNotifications": false,
-                        "workPhone": "+91 92392 29932",
-                        "mobilePhone": "+91 92392 29932",
-                        "email": "jane.doe@gmail.com",
-                        "address": {
-                                "town": "Bengaluru Urban",
-                                "street": "M G Road",
-                                "zip_pin": "4000340",
-                                "state": "KA",
-                                "country": "IN"
-                        }
-                }],
-                "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
-                        "description": "Payout Account",
-                        "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
-                        }
-                    ]
-                }]
-                }]
-        }
-}</t>
+    <t>Individual</t>
   </si>
   <si>
     <t>Linked - Amount</t>
@@ -849,9 +839,6 @@
   </si>
   <si>
     <t>Disabled</t>
-  </si>
-  <si>
-    <t>At specific time</t>
   </si>
   <si>
     <t>CREATE TRANSACTION - Deal Ref Id</t>
@@ -944,13 +931,7 @@
     <t>Fragment Platform Reference No</t>
   </si>
   <si>
-    <t>Instrument - category</t>
-  </si>
-  <si>
     <t>PartyABCD</t>
-  </si>
-  <si>
-    <t>Adhoc Payment1</t>
   </si>
   <si>
     <t>Creditorpartyid123</t>
@@ -974,7 +955,7 @@
     <t>Should be same as Ecomm Maker screen amount</t>
   </si>
   <si>
-    <t>TestUser100</t>
+    <t>TestUser1002</t>
   </si>
   <si>
     <t>Testuser100@gmail.com</t>
@@ -1064,7 +1045,10 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Instrument category</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1059,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1128,6 +1112,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1201,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1247,9 +1250,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1295,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1297,8 +1303,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,17 +1533,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -1770,10 +1782,14 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
@@ -1799,14 +1815,14 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11" t="s">
@@ -1835,18 +1851,18 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1871,14 +1887,14 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11" t="s">
@@ -1907,16 +1923,16 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="11" t="s">
@@ -1945,16 +1961,16 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="9"/>
@@ -1978,22 +1994,24 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:26" ht="68.25" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
-        <v>40</v>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2015,15 +2033,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2045,13 +2071,13 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2073,13 +2099,13 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -29498,15 +29524,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="8" width="18.33203125" customWidth="1"/>
+    <col min="7" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="9" width="23.109375" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -29514,105 +29540,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K2" s="35">
         <v>500</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>225</v>
+        <v>245</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>246</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29632,11 +29658,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29644,27 +29670,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29681,11 +29707,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29693,27 +29719,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29730,7 +29756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29743,14 +29769,16 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
@@ -29768,139 +29796,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="V1" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="35" t="s">
         <v>244</v>
       </c>
+      <c r="E2" s="48" t="s">
+        <v>300</v>
+      </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="35">
         <v>250</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29913,11 +29942,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29925,27 +29954,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -29962,34 +29991,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -30006,12 +30035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -30019,117 +30048,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>59</v>
+        <v>144</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -30146,10 +30175,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -30157,21 +30186,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -30188,11 +30217,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -30200,93 +30229,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K2" s="38">
         <v>44991</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -30301,20 +30330,18 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="10" width="16.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30323,40 +30350,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
@@ -30364,40 +30391,40 @@
         <v>6</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -30405,30 +30432,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L3" s="27"/>
     </row>
@@ -30437,34 +30464,34 @@
         <v>14</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L4" s="27"/>
     </row>
@@ -30473,34 +30500,34 @@
         <v>18</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -30510,121 +30537,214 @@
         <v>22</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>281</v>
+        <v>84</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1"/>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:13" ht="15.75" customHeight="1"/>
@@ -31627,13 +31747,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -31641,16 +31761,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -31658,19 +31778,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -32680,17 +32800,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -32698,16 +32818,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -32715,16 +32835,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -32732,16 +32852,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -32749,16 +32869,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -32766,16 +32886,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -32783,65 +32903,94 @@
         <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -32858,11 +33007,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
@@ -32872,37 +33021,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -32910,28 +33059,28 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J2" s="35">
         <v>1000</v>
@@ -32948,17 +33097,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="39" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I3" s="40">
         <v>45130</v>
@@ -32979,89 +33128,87 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T998"/>
+  <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5546875" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="18" max="18" width="15.109375" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
@@ -33069,58 +33216,58 @@
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
@@ -33128,56 +33275,56 @@
         <v>7</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -33185,53 +33332,53 @@
         <v>7</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
@@ -33239,187 +33386,296 @@
         <v>7</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="N7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>160</v>
+        <v>171</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>163</v>
+        <v>146</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T9" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="39" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
+      <c r="S11" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -34403,6 +34659,9 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34412,25 +34671,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.88671875" customWidth="1"/>
-    <col min="20" max="20" width="28.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="28.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
     <col min="22" max="22" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34439,67 +34696,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -34507,135 +34764,129 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R2" s="35">
         <v>400</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="37" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R3" s="35">
         <v>400</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -34643,67 +34894,191 @@
         <v>22</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R4" s="41">
         <v>600</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="35">
+        <v>17800</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="35">
+        <v>2000</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -34720,66 +35095,63 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
     <col min="6" max="6" width="65.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="258" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>198</v>
+      <c r="B1" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="172.5" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>200</v>
+        <v>222</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>223</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -34799,7 +35171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34814,10 +35186,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="12" max="12" width="9.109375" customWidth="1"/>
     <col min="24" max="24" width="23.44140625" customWidth="1"/>
   </cols>
@@ -34827,147 +35199,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>207</v>
+        <v>109</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>229</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T2" s="41">
         <v>500</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -1005,9 +1005,6 @@
     <t>Fragment Platform Reference No</t>
   </si>
   <si>
-    <t>Instrument - category</t>
-  </si>
-  <si>
     <t>PartyABCD</t>
   </si>
   <si>
@@ -1123,6 +1120,9 @@
   </si>
   <si>
     <t>Test7 remarks</t>
+  </si>
+  <si>
+    <t>Instrument category</t>
   </si>
 </sst>
 </file>
@@ -30046,8 +30046,8 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -30111,8 +30111,8 @@
       <c r="N1" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="34" t="s">
-        <v>288</v>
+      <c r="O1" s="44" t="s">
+        <v>326</v>
       </c>
       <c r="P1" s="34" t="s">
         <v>142</v>
@@ -30144,7 +30144,7 @@
         <v>255</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>257</v>
@@ -30159,7 +30159,7 @@
         <v>210</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>105</v>
@@ -30168,22 +30168,22 @@
         <v>104</v>
       </c>
       <c r="K2" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="34">
         <v>250</v>
@@ -30206,6 +30206,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30244,7 +30245,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>279</v>
@@ -30386,10 +30387,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>93</v>
@@ -30401,13 +30402,13 @@
         <v>67</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>152</v>
@@ -30419,7 +30420,7 @@
         <v>105</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>104</v>
@@ -30434,7 +30435,7 @@
         <v>261</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -30476,7 +30477,7 @@
         <v>279</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -30505,46 +30506,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>305</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>253</v>
       </c>
       <c r="H1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>312</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -30552,46 +30553,46 @@
         <v>37</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>316</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>319</v>
       </c>
       <c r="K2" s="37">
         <v>44991</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -32107,16 +32108,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -32136,7 +32137,7 @@
         <v>107</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -33706,7 +33707,7 @@
         <v>85</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>84</v>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mjKYysnXdYZMAChtG/E4cS+Ia3avA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhFMMTuNg2V55ynXonvWbOvDvhTMw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="334">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -840,9 +840,9 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1678428748624",
-                "name": "Party7887",
-                "partyRefId": "Party7887",
+                "dealRefId": "REF1678956865900",
+                "name": "Party788791",
+                "partyRefId": "Party788791",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
@@ -30413,6 +30413,8 @@
     <col customWidth="1" min="2" max="2" width="13.88"/>
     <col customWidth="1" min="8" max="8" width="22.63"/>
     <col customWidth="1" min="10" max="10" width="19.75"/>
+    <col customWidth="1" min="12" max="12" width="21.0"/>
+    <col customWidth="1" min="13" max="13" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -30447,30 +30449,36 @@
         <v>140</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>269</v>
       </c>
     </row>
@@ -30505,31 +30513,37 @@
       <c r="J2" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="34">
+        <v>600.0</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>157</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>158</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>105</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>308</v>
       </c>
     </row>
@@ -33719,7 +33733,9 @@
       <c r="N2" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="P2" s="34" t="s">
         <v>105</v>
       </c>
@@ -33780,7 +33796,9 @@
       <c r="N3" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="O3" s="34"/>
+      <c r="O3" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="P3" s="34" t="s">
         <v>109</v>
       </c>
@@ -33845,7 +33863,9 @@
       <c r="N4" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="P4" s="34" t="s">
         <v>109</v>
       </c>
@@ -33912,7 +33932,9 @@
       <c r="N5" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="P5" s="34" t="s">
         <v>105</v>
       </c>
@@ -33972,7 +33994,9 @@
       <c r="N6" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="P6" s="34" t="s">
         <v>109</v>
       </c>
@@ -34038,7 +34062,9 @@
       <c r="N7" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="38" t="s">
+        <v>105</v>
+      </c>
       <c r="P7" s="38" t="s">
         <v>105</v>
       </c>
@@ -34068,9 +34094,6 @@
       <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="34">
-        <v>600.0</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
@@ -34109,7 +34132,9 @@
       <c r="N9" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="O9" s="34"/>
+      <c r="O9" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="P9" s="34" t="s">
         <v>105</v>
       </c>
@@ -34178,7 +34203,9 @@
       <c r="N10" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="P10" s="34" t="s">
         <v>105</v>
       </c>
@@ -34238,7 +34265,9 @@
       <c r="N11" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="P11" s="34" t="s">
         <v>105</v>
       </c>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\dev\upp-test-automation\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -34,16 +29,17 @@
     <sheet name="Payment Profile" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhTAQv+vpR89b+9ZFSfU2Yp2bBa1g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mjKYysnXdYZMAChtG/E4cS+Ia3avA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="334">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -226,14 +222,14 @@
     <t>TS12</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a Transaction in Transaction Maker , Transaction to
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , with Transaction to
  Non Registered Beneficiary Checkbox  Unckecked in Basic Details Page in Deal </t>
   </si>
   <si>
     <t>TS13</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a Transaction in Transaction Maker , Transaction to
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , with Transaction to
  Non Registered Beneficiary Checkbox  Checked in Basic Details Page in Deal </t>
   </si>
   <si>
@@ -518,10 +514,25 @@
     <t>Beneficiary Bank Bic</t>
   </si>
   <si>
+    <t>Beneficiary Country Of Incorporation</t>
+  </si>
+  <si>
     <t>Beneficiary Country</t>
   </si>
   <si>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>Trteo</t>
+  </si>
+  <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>accountType</t>
   </si>
   <si>
     <t>Beneficiary Currency</t>
@@ -570,6 +581,12 @@
   </si>
   <si>
     <t>BIC456</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>XYZTS12</t>
   </si>
   <si>
     <t>DIB4567</t>
@@ -659,6 +676,45 @@
     <t>IMDTS11</t>
   </si>
   <si>
+    <t>TestUser12</t>
+  </si>
+  <si>
+    <t>Test12 remarks</t>
+  </si>
+  <si>
+    <t>Testuser12@gmail.com</t>
+  </si>
+  <si>
+    <t>LTTest</t>
+  </si>
+  <si>
+    <t>SBITS12</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>TestUser13</t>
+  </si>
+  <si>
+    <t>Test13 remarks</t>
+  </si>
+  <si>
+    <t>Testuser13@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>XYZTS13</t>
+  </si>
+  <si>
+    <t>SBITS13</t>
+  </si>
+  <si>
+    <t>OverDraft</t>
+  </si>
+  <si>
     <t>Select Instruction Type</t>
   </si>
   <si>
@@ -700,12 +756,6 @@
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Beneficiary Country Of Incorporation</t>
   </si>
   <si>
     <t>Retry-Enable Auto Retry</t>
@@ -794,9 +844,9 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1678428748624",
-                "name": "Party1234567809",
-                "partyRefId": "Party1234567009",
+                "dealRefId": "REF1678956865900",
+                "name": "Party7887901",
+                "partyRefId": "Party7887901",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
@@ -837,9 +887,6 @@
                         "paymentInstrumentId": "BT",
                         "description": "Payout Account",
                         "paymentDetails": {
-                        "beneficiaryBankBic": "BIC456",
-                        "beneficiaryCountry":"IN",
-                        "beneficiaryCurrency":"INR",
                         "to":"SBI98765",
                         "beneficiaryCountryOfIncorporation":"IN",
                         "amount":1000
@@ -886,15 +933,6 @@
     <t>Sub Instruction - Instrument</t>
   </si>
   <si>
-    <t>werwer</t>
-  </si>
-  <si>
-    <t>Trteo</t>
-  </si>
-  <si>
-    <t>accountType</t>
-  </si>
-  <si>
     <t>beneficiaryCountry</t>
   </si>
   <si>
@@ -937,18 +975,6 @@
     <t>Adhoc Payment TS12</t>
   </si>
   <si>
-    <t>LTTest</t>
-  </si>
-  <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>XYZTS12</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
     <t>https://sit.upp.appveen.com/</t>
   </si>
   <si>
@@ -956,18 +982,6 @@
   </si>
   <si>
     <t>Adhoc Payment TS13</t>
-  </si>
-  <si>
-    <t>SBITS13</t>
-  </si>
-  <si>
-    <t>ABC111</t>
-  </si>
-  <si>
-    <t>XYZTS13</t>
-  </si>
-  <si>
-    <t>OverDraft</t>
   </si>
   <si>
     <t>Test data TS13</t>
@@ -1009,7 +1023,13 @@
     <t>Fragment Platform Reference No</t>
   </si>
   <si>
+    <t>Instrument - category</t>
+  </si>
+  <si>
     <t>PartyABCD</t>
+  </si>
+  <si>
+    <t>Adhoc Payment1</t>
   </si>
   <si>
     <t>Creditorpartyid123</t>
@@ -1122,21 +1142,6 @@
   <si>
     <t>TT</t>
   </si>
-  <si>
-    <t>Test7 remarks</t>
-  </si>
-  <si>
-    <t>Instrument category</t>
-  </si>
-  <si>
-    <t>TestUser13</t>
-  </si>
-  <si>
-    <t>Test13 remarks</t>
-  </si>
-  <si>
-    <t>Testuser13@gmail.com</t>
-  </si>
 </sst>
 </file>
 
@@ -1146,7 +1151,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1230,13 +1235,6 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1295,11 +1293,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1387,14 +1384,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,10 +1400,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1626,8 +1621,8 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -29651,13 +29646,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>114</v>
@@ -29666,49 +29661,49 @@
         <v>111</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>227</v>
-      </c>
       <c r="S1" s="34" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -29716,16 +29711,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>120</v>
@@ -29734,13 +29729,13 @@
         <v>84</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K2" s="34">
         <v>500</v>
@@ -29753,19 +29748,19 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="34" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -29773,55 +29768,58 @@
         <v>46</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>264</v>
+        <v>200</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="P3" s="34" t="s">
         <v>105</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -29829,58 +29827,58 @@
         <v>48</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="L4" s="34" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>105</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R4" s="49" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -29914,13 +29912,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -29928,13 +29926,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -29942,13 +29940,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -29956,13 +29954,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -29991,13 +29989,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30005,13 +30003,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30019,13 +30017,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30033,13 +30031,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -30069,9 +30067,7 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30096,67 +30092,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>136</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>326</v>
+        <v>293</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="P1" s="34" t="s">
         <v>142</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>251</v>
+        <v>143</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>266</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -30164,25 +30160,25 @@
         <v>30</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>105</v>
@@ -30191,22 +30187,22 @@
         <v>104</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="34">
         <v>250</v>
@@ -30215,21 +30211,20 @@
         <v>105</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30254,13 +30249,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30268,13 +30263,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -30298,13 +30293,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30312,13 +30307,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -30381,25 +30376,25 @@
         <v>142</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1">
@@ -30410,55 +30405,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>105</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>104</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -30486,10 +30481,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30497,10 +30492,10 @@
         <v>34</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -30519,6 +30514,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" customWidth="1"/>
@@ -30529,46 +30525,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -30576,46 +30572,46 @@
         <v>37</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K2" s="37">
         <v>44991</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30630,9 +30626,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -32131,16 +32125,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -32151,7 +32145,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -32160,7 +32154,7 @@
         <v>107</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -33172,9 +33166,9 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33532,11 +33526,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V998"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -33547,12 +33539,14 @@
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="15" max="15" width="27.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -33595,16 +33589,16 @@
       <c r="N1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="41" t="s">
         <v>143</v>
       </c>
       <c r="P1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="41" t="s">
         <v>146</v>
       </c>
       <c r="S1" s="34" t="s">
@@ -33613,8 +33607,23 @@
       <c r="T1" s="34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+      <c r="U1" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -33622,58 +33631,65 @@
         <v>7</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" s="34">
+        <v>600</v>
+      </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W2" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
@@ -33681,56 +33697,67 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H3" s="34"/>
       <c r="J3" s="34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>84</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="Q3" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" s="34">
+        <v>600</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W3" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
@@ -33738,56 +33765,58 @@
         <v>7</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>325</v>
-      </c>
       <c r="G4" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="34"/>
       <c r="J4" s="34" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="O4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P4" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+      <c r="S4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="T4" s="34">
+        <v>600</v>
+      </c>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W4" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
@@ -33795,58 +33824,65 @@
         <v>7</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>68</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="T5" s="34">
+        <v>600</v>
+      </c>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>28</v>
       </c>
@@ -33854,52 +33890,59 @@
         <v>7</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>85</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>84</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>84</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" s="34">
+        <v>600</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="X6" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>30</v>
       </c>
@@ -33907,66 +33950,76 @@
         <v>7</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="41" t="s">
-        <v>176</v>
+      <c r="L7" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="T7" s="34">
+        <v>600</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W7" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
+      <c r="T8" s="34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
@@ -33974,55 +34027,62 @@
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T9" s="34">
+        <v>600</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W9" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>37</v>
       </c>
@@ -34030,58 +34090,65 @@
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10" s="34">
+        <v>600</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W10" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
@@ -34089,112 +34156,187 @@
         <v>7</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>84</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K11" s="34" t="s">
         <v>84</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="O11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="T11" s="34">
+        <v>600</v>
+      </c>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="S11" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="W11" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="44"/>
+      <c r="O12" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12" s="34">
+        <v>600</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="47" t="s">
+      <c r="F13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="J13" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" s="47" t="s">
+      <c r="J13" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="O13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="T13" s="34">
+        <v>600</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="W13" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X13" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -35180,7 +35322,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L7" r:id="rId1"/>
-    <hyperlink ref="L13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35216,10 +35357,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>114</v>
@@ -35228,55 +35369,55 @@
         <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>200</v>
+        <v>219</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>220</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>142</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -35284,19 +35425,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>122</v>
@@ -35311,16 +35452,16 @@
         <v>122</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>124</v>
@@ -35329,7 +35470,7 @@
         <v>400</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>109</v>
@@ -35343,22 +35484,22 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="36" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>122</v>
@@ -35373,19 +35514,19 @@
         <v>122</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>119</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P3" s="34" t="s">
         <v>123</v>
@@ -35397,7 +35538,7 @@
         <v>400</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>109</v>
@@ -35414,19 +35555,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>122</v>
@@ -35441,19 +35582,19 @@
         <v>122</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="N4" s="38" t="s">
         <v>119</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P4" s="38" t="s">
         <v>128</v>
@@ -35465,7 +35606,7 @@
         <v>600</v>
       </c>
       <c r="S4" s="38" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T4" s="38" t="s">
         <v>109</v>
@@ -35482,19 +35623,19 @@
         <v>34</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>122</v>
@@ -35509,16 +35650,16 @@
         <v>122</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="38" t="s">
         <v>124</v>
@@ -35527,7 +35668,7 @@
         <v>17800</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>105</v>
@@ -35544,19 +35685,19 @@
         <v>37</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>120</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>122</v>
@@ -35571,19 +35712,19 @@
         <v>122</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>119</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P6" s="38" t="s">
         <v>128</v>
@@ -35595,7 +35736,7 @@
         <v>500</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T6" s="38" t="s">
         <v>105</v>
@@ -35612,19 +35753,19 @@
         <v>43</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>122</v>
@@ -35639,25 +35780,25 @@
         <v>122</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="R7" s="34">
         <v>2000</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>105</v>
@@ -35696,50 +35837,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.5" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -35787,10 +35928,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>114</v>
@@ -35799,61 +35940,61 @@
         <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>238</v>
+      <c r="K1" s="41" t="s">
+        <v>256</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>200</v>
+        <v>219</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>220</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="U1" s="34" t="s">
         <v>142</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="X1" s="34" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -35861,19 +36002,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>122</v>
@@ -35882,10 +36023,10 @@
         <v>122</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>7</v>
@@ -35894,19 +36035,19 @@
         <v>122</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="R2" s="38" t="s">
         <v>65</v>
@@ -35918,7 +36059,7 @@
         <v>500</v>
       </c>
       <c r="U2" s="38" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="V2" s="38" t="s">
         <v>105</v>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\upp-test-automation\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -29,17 +34,16 @@
     <sheet name="Payment Profile" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgG4Sl0IX8+8z1LblT6PwhF9HRwcA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7miH7zaeOoXaO+HROu0JwChLWuaB/Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="305">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -141,6 +145,9 @@
     <t>TS05-Assertion</t>
   </si>
   <si>
+    <t>Assertion for Budget details</t>
+  </si>
+  <si>
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
@@ -192,14 +199,28 @@
     <t>a) Creating a Holiday for Future date (Ex: 06-March-2023) and [TS03] creating a SCHD txn for the same date and because of holiday Action(next business day), txn should be schd for 07-March-2023 and executed on the same date</t>
   </si>
   <si>
-    <t>TS03-assertion1</t>
+    <t>TS10-assertion1</t>
   </si>
   <si>
-    <t>TS10- Assertion for TS 10</t>
+    <t>Assertion for TS 10</t>
   </si>
   <si>
     <t>As per the Holiday Configuration and Holiday action, transaction should be created and executed accordingly.
 Note: Validate the txn schd date</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>Basic Details
+Accounts
+Party
+Payments
+(AND)
+PARTY API</t>
+  </si>
+  <si>
+    <t>TS03 + Add Party through Api and creating a txn</t>
   </si>
   <si>
     <t>Deal Name</t>
@@ -319,7 +340,13 @@
     <t>TS05_Deal</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>TS06_Deal</t>
+  </si>
+  <si>
+    <t>TS07_Deal</t>
   </si>
   <si>
     <t>TS09_Deal</t>
@@ -332,6 +359,15 @@
   </si>
   <si>
     <t>Acquirer</t>
+  </si>
+  <si>
+    <t>TS10_Deal_Holiday</t>
+  </si>
+  <si>
+    <t>TS011_Deal</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>Currency</t>
@@ -558,6 +594,12 @@
     <t>BICTS06</t>
   </si>
   <si>
+    <t>TestUser7</t>
+  </si>
+  <si>
+    <t>Testuser7@gmail.com</t>
+  </si>
+  <si>
     <t>TestUser9</t>
   </si>
   <si>
@@ -571,6 +613,30 @@
   </si>
   <si>
     <t>IMDTS09</t>
+  </si>
+  <si>
+    <t>TestUser10</t>
+  </si>
+  <si>
+    <t>Test10 remarks</t>
+  </si>
+  <si>
+    <t>Testuser10@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUser11</t>
+  </si>
+  <si>
+    <t>Test11 remarks</t>
+  </si>
+  <si>
+    <t>Testuser11@gmail.com</t>
+  </si>
+  <si>
+    <t>BICTS11</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
   </si>
   <si>
     <t>Select Instruction Type</t>
@@ -646,6 +712,9 @@
     <t>SCBASDFGH</t>
   </si>
   <si>
+    <t>TS03-assertion1</t>
+  </si>
+  <si>
     <t>March 06-2023</t>
   </si>
   <si>
@@ -655,10 +724,31 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>At specific time</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Ledger Balance</t>
+  </si>
+  <si>
+    <t>Do not execute on holiday</t>
+  </si>
+  <si>
+    <t>ICICI178</t>
+  </si>
+  <si>
+    <t>TS11 Payment</t>
+  </si>
+  <si>
+    <t>SBITS11</t>
+  </si>
+  <si>
     <t>Parent Test case</t>
   </si>
   <si>
-    <t>PArty Type</t>
+    <t>Party Type</t>
   </si>
   <si>
     <t>URL</t>
@@ -667,16 +757,13 @@
     <t>Method</t>
   </si>
   <si>
-    <t>PAyload</t>
+    <t>Payload</t>
   </si>
   <si>
-    <t>TS12-1</t>
+    <t>TS11-1</t>
   </si>
   <si>
-    <t>TS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Individual</t>
+    <t>Company</t>
   </si>
   <si>
     <t>https://dev.upp.appveen.com/mdm/api/party</t>
@@ -687,19 +774,15 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Ranjith123",
-                "partyRefId": "Ranjith123",
+                "dealRefId": "REF1678428748624",
+                "name": "Party1234567809",
+                "partyRefId": "Party1234567009",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
                 "validFrom": "2021-09-17",
                 "validUntil": "2023-12-31",
                 "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
 "type":"company",
 "company":{
 "incorporationDate":"2021-09-17",
@@ -731,108 +814,25 @@
                         }
                 }],
                 "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
+                        "paymentInstrumentId": "BT",
                         "description": "Payout Account",
                         "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
+                        "beneficiaryBankBic": "BIC456",
+                        "beneficiaryCountry":"IN",
+                        "beneficiaryCurrency":"INR",
+                        "to":"SBI98765",
+                        "beneficiaryCountryOfIncorporation":"IN",
+                        "amount":1000
                         }
-                    ]
-                }]
                 }]
         }
 }</t>
   </si>
   <si>
-    <t>TS12-2</t>
+    <t>TS11-2</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>{
-        "party": {
-                "dealRefId": "REF1672297910549",
-                "name": "Karthik123",
-                "partyRefId": "Karthik123",
-                "country": "IN",
-                "status": "Active",
-                "kycCompleted": true,
-                "validFrom": "2021-09-17",
-                "validUntil": "2023-12-31",
-                "responsibility": "Acquiree",
-                "attributes": {
-                        "acquiree": "Merchant",
-                        "number": 10
-                },
-"type":"company",
-"company":{
-"incorporationDate":"2021-09-17",
-"registrationNumber":"REG123432",
-"taxId":"",
-"taxType":"",
-"businessCategory":"",
-"businessType":"",
-"listingAuthority":""
-},
-                "executionPolicies": {
-                        "onPartyActivate": "doNothing",
-                        "onPartyDeactivate": "holdExecutions"
-                },
-                "contacts": [{
-                        "name": "Merchant33",
-                        "designation": "Manager",
-                        "authorizedSignatory": false,
-                        "enableNotifications": false,
-                        "workPhone": "+91 92392 29932",
-                        "mobilePhone": "+91 92392 29932",
-                        "email": "jane.doe@gmail.com",
-                        "address": {
-                                "town": "Bengaluru Urban",
-                                "street": "M G Road",
-                                "zip_pin": "4000340",
-                                "state": "KA",
-                                "country": "IN"
-                        }
-                }],
-                "accounts": [{
-                        "paymentInstrumentId": "AK-Pay",
-                        "description": "Payout Account",
-                        "paymentDetails": {
-                                "accountIban": "Account Number",
-                                "to": "123123122133",
-                                "receiverPop": "123",
-                                "name": "Merchant293",
-                                "beneficiaryCountry": "IN",
-                                "beneficiaryCurrency": "INR"
-                        },
-            "overrides": [{
-                    "profileName": "Payment Profile",
-                    "paymentInstrument":"BT",
-                    "country": "IN",
-                    "attributes": [
-                        {
-                            "name": "Charge Bearer",
-                            "value": "SHA"
-                        }
-                    ]
-                }]
-                }]
-        }
-}</t>
+    <t>Individual</t>
   </si>
   <si>
     <t>Linked - Amount</t>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>Disabled</t>
-  </si>
-  <si>
-    <t>At specific time</t>
   </si>
   <si>
     <t>CREATE TRANSACTION - Deal Ref Id</t>
@@ -974,7 +971,7 @@
     <t>Should be same as Ecomm Maker screen amount</t>
   </si>
   <si>
-    <t>TestUser100</t>
+    <t>TestUser1002</t>
   </si>
   <si>
     <t>Testuser100@gmail.com</t>
@@ -1031,9 +1028,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Creating a new holiday for March 06</t>
-  </si>
-  <si>
     <t>Test Description</t>
   </si>
   <si>
@@ -1064,18 +1058,18 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>TS10 Holiday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1128,6 +1122,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1201,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1247,9 +1260,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1305,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1297,8 +1313,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,14 +1546,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -1770,10 +1792,14 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
@@ -1799,14 +1825,14 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11" t="s">
@@ -1835,18 +1861,18 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1871,14 +1897,14 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11" t="s">
@@ -1907,16 +1933,16 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="11" t="s">
@@ -1945,16 +1971,16 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="9"/>
@@ -1978,22 +2004,24 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:26" ht="68.25" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
-        <v>40</v>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2015,15 +2043,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2045,13 +2081,13 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2073,13 +2109,13 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -29498,15 +29534,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -29514,105 +29550,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>241</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K2" s="35">
         <v>500</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>249</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -29632,11 +29668,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29644,27 +29680,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -29681,11 +29717,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29693,27 +29729,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -29730,7 +29766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29745,22 +29781,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="16" width="23.109375" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="16" width="23.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -29768,135 +29804,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>218</v>
-      </c>
       <c r="U1" s="35" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="35">
         <v>250</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -29913,11 +29949,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29925,27 +29961,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -29962,34 +29998,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -30006,12 +30042,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
@@ -30019,117 +30055,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>59</v>
+        <v>144</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -30146,10 +30182,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -30157,21 +30193,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -30186,13 +30222,15 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -30200,93 +30238,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="K2" s="38">
         <v>44991</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -30301,21 +30339,19 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
@@ -30323,40 +30359,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
@@ -30364,40 +30400,40 @@
         <v>6</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -30405,30 +30441,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L3" s="27"/>
     </row>
@@ -30437,34 +30473,34 @@
         <v>14</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L4" s="27"/>
     </row>
@@ -30473,34 +30509,34 @@
         <v>18</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -30510,121 +30546,214 @@
         <v>22</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>281</v>
+        <v>84</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1"/>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:13" ht="15.75" customHeight="1"/>
@@ -31627,13 +31756,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -31641,16 +31770,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -31658,19 +31787,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -32680,17 +32809,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -32698,16 +32827,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -32715,16 +32844,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -32732,16 +32861,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -32749,16 +32878,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -32766,16 +32895,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -32783,65 +32912,94 @@
         <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -32858,13 +33016,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -32872,37 +33030,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -32910,28 +33068,28 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J2" s="35">
         <v>1000</v>
@@ -32948,17 +33106,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="39" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I3" s="40">
         <v>45130</v>
@@ -32979,89 +33137,87 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T998"/>
+  <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
@@ -33069,58 +33225,58 @@
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
@@ -33128,56 +33284,56 @@
         <v>7</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -33185,53 +33341,53 @@
         <v>7</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
@@ -33239,187 +33395,350 @@
         <v>7</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="N7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>160</v>
+        <v>171</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>163</v>
+        <v>146</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R9" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="O10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="Q10" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="35" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
+      <c r="S10" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -34403,6 +34722,9 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34412,26 +34734,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" customWidth="1"/>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
-    <col min="20" max="20" width="28.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -34439,67 +34759,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -34507,135 +34827,129 @@
         <v>14</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R2" s="35">
         <v>400</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="37" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R3" s="35">
         <v>400</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -34643,67 +34957,259 @@
         <v>22</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R4" s="41">
         <v>600</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="35">
+        <v>17800</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="41">
+        <v>500</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="R7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -34720,66 +35226,63 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="12.75">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="258" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>198</v>
+      <c r="B1" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="172.5" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>200</v>
+        <v>225</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -34799,7 +35302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34814,12 +35317,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -34827,147 +35330,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>207</v>
+        <v>109</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>232</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T2" s="41">
         <v>500</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhFMMTuNg2V55ynXonvWbOvDvhTMw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhNV9JfRs2C8C0+57sdV6iPbofVPA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="381">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Acquiree</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>TS04_Deal</t>
   </si>
   <si>
@@ -504,6 +501,21 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Beneficiary Name</t>
+  </si>
+  <si>
+    <t>Select Account/IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary bank IFSC code</t>
+  </si>
+  <si>
+    <t>Beneficiary Account Number / IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary Address Line 1</t>
+  </si>
+  <si>
     <t>Accounts-Payment System</t>
   </si>
   <si>
@@ -552,15 +564,27 @@
     <t>Testuser1@gmail.com</t>
   </si>
   <si>
-    <t>BT</t>
+    <t>Deal_TS2</t>
+  </si>
+  <si>
+    <t>ACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>HDFC002</t>
+  </si>
+  <si>
+    <t>SBI98765</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>BT_IN</t>
   </si>
   <si>
     <t>BIC123</t>
   </si>
   <si>
-    <t>SBI98765</t>
-  </si>
-  <si>
     <t>Blueprint</t>
   </si>
   <si>
@@ -576,6 +600,21 @@
     <t>Testuser3@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS3</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>HDFC003</t>
+  </si>
+  <si>
+    <t>DIB4567</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
     <t>BIC456</t>
   </si>
   <si>
@@ -585,9 +624,6 @@
     <t>XYZTS12</t>
   </si>
   <si>
-    <t>DIB4567</t>
-  </si>
-  <si>
     <t>Architect certificate</t>
   </si>
   <si>
@@ -603,6 +639,15 @@
     <t>Testuser4@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS4</t>
+  </si>
+  <si>
+    <t>HDFC004</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
     <t>BIC678</t>
   </si>
   <si>
@@ -615,6 +660,15 @@
     <t>Testuser5@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS5</t>
+  </si>
+  <si>
+    <t>HDFC005</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>TestUser6</t>
   </si>
   <si>
@@ -624,6 +678,15 @@
     <t>Testuser6@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS6</t>
+  </si>
+  <si>
+    <t>HDFC006</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
     <t>BICTS06</t>
   </si>
   <si>
@@ -633,6 +696,15 @@
     <t>Testuser7@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS7</t>
+  </si>
+  <si>
+    <t>HDFC007</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
     <t>TestUser9</t>
   </si>
   <si>
@@ -642,12 +714,18 @@
     <t>Testuser9@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS9</t>
+  </si>
+  <si>
+    <t>SBI009</t>
+  </si>
+  <si>
+    <t>IMDTS09</t>
+  </si>
+  <si>
     <t>BICTS09</t>
   </si>
   <si>
-    <t>IMDTS09</t>
-  </si>
-  <si>
     <t>TestUser10</t>
   </si>
   <si>
@@ -657,6 +735,12 @@
     <t>Testuser10@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS10</t>
+  </si>
+  <si>
+    <t>SBI010</t>
+  </si>
+  <si>
     <t>TestUser11</t>
   </si>
   <si>
@@ -666,12 +750,18 @@
     <t>Testuser11@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS11</t>
+  </si>
+  <si>
+    <t>SBI011</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
+  </si>
+  <si>
     <t>BICTS11</t>
   </si>
   <si>
-    <t>IMDTS11</t>
-  </si>
-  <si>
     <t>TestUser12</t>
   </si>
   <si>
@@ -681,12 +771,18 @@
     <t>Testuser12@gmail.com</t>
   </si>
   <si>
-    <t>LTTest</t>
+    <t>Deal_TS12</t>
+  </si>
+  <si>
+    <t>SBI012</t>
   </si>
   <si>
     <t>SBITS12</t>
   </si>
   <si>
+    <t>LT_IN</t>
+  </si>
+  <si>
     <t>Savings</t>
   </si>
   <si>
@@ -699,13 +795,19 @@
     <t>Testuser13@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS13</t>
+  </si>
+  <si>
+    <t>SBI013</t>
+  </si>
+  <si>
+    <t>SBITS13</t>
+  </si>
+  <si>
     <t>ABC111</t>
   </si>
   <si>
     <t>XYZTS13</t>
-  </si>
-  <si>
-    <t>SBITS13</t>
   </si>
   <si>
     <t>OverDraft</t>
@@ -754,6 +856,9 @@
     <t>to</t>
   </si>
   <si>
+    <t>Sender POP</t>
+  </si>
+  <si>
     <t>Retry-Enable Auto Retry</t>
   </si>
   <si>
@@ -775,9 +880,15 @@
     <t>Execute on holiday</t>
   </si>
   <si>
+    <t>BT_UAE</t>
+  </si>
+  <si>
     <t>SCBASDFGH</t>
   </si>
   <si>
+    <t>VER1</t>
+  </si>
+  <si>
     <t>TS03-assertion1</t>
   </si>
   <si>
@@ -787,12 +898,21 @@
     <t>Next Business Day</t>
   </si>
   <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>VER2</t>
+  </si>
+  <si>
     <t>Bill</t>
   </si>
   <si>
     <t>At specific time</t>
   </si>
   <si>
+    <t>VER3</t>
+  </si>
+  <si>
     <t>Bill Payment</t>
   </si>
   <si>
@@ -805,10 +925,19 @@
     <t>ICICI178</t>
   </si>
   <si>
+    <t>VER4</t>
+  </si>
+  <si>
+    <t>VER5</t>
+  </si>
+  <si>
     <t>TS11 Payment</t>
   </si>
   <si>
     <t>SBITS11</t>
+  </si>
+  <si>
+    <t>VER6</t>
   </si>
   <si>
     <t>Parent Test case</t>
@@ -974,6 +1103,9 @@
     <t>Adhoc Payment TS12</t>
   </si>
   <si>
+    <t>LTTest</t>
+  </si>
+  <si>
     <t>https://sit.upp.appveen.com/</t>
   </si>
   <si>
@@ -1056,6 +1188,15 @@
   </si>
   <si>
     <t>Testuser100@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS9a</t>
+  </si>
+  <si>
+    <t>SBI009a</t>
+  </si>
+  <si>
+    <t>IMDTS09A</t>
   </si>
   <si>
     <t>SBI987659</t>
@@ -1150,7 +1291,7 @@
     <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1198,6 +1339,11 @@
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF777777"/>
+      <name val="Ubuntu"/>
     </font>
     <font>
       <u/>
@@ -1275,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1299,14 +1445,11 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1321,12 +1464,18 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1387,22 +1536,25 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1411,10 +1563,10 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3"/>
@@ -1848,8 +2000,8 @@
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="3"/>
@@ -1886,8 +2038,8 @@
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="3"/>
@@ -1924,8 +2076,8 @@
       <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="3"/>
@@ -1962,10 +2114,10 @@
       <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1994,12 +2146,12 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="3"/>
@@ -2030,12 +2182,12 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3"/>
@@ -2066,12 +2218,12 @@
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3"/>
@@ -2105,11 +2257,11 @@
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="3"/>
@@ -2143,10 +2295,10 @@
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2173,19 +2325,19 @@
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2207,21 +2359,21 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="3"/>
@@ -2245,19 +2397,19 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="3"/>
@@ -2281,19 +2433,19 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="3"/>
@@ -2319,7 +2471,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2347,7 +2499,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29726,243 +29878,243 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="F2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="J2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="35">
+        <v>500.0</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="34">
-        <v>500.0</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="I3" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>277</v>
+      <c r="H4" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -29991,59 +30143,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>277</v>
+      <c r="B2" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>277</v>
+      <c r="B3" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>277</v>
+      <c r="B4" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30067,59 +30219,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>277</v>
+      <c r="B2" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>277</v>
+      <c r="B3" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>277</v>
+      <c r="B4" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30168,139 +30320,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="O2" s="34" t="s">
+      <c r="J2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q2" s="34">
+      <c r="P2" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q2" s="35">
         <v>250.0</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>277</v>
+      <c r="R2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30324,31 +30476,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>277</v>
+      <c r="B2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30367,31 +30519,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>277</v>
+      <c r="B2" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -30413,138 +30565,172 @@
     <col customWidth="1" min="2" max="2" width="13.88"/>
     <col customWidth="1" min="8" max="8" width="22.63"/>
     <col customWidth="1" min="10" max="10" width="19.75"/>
-    <col customWidth="1" min="12" max="12" width="21.0"/>
-    <col customWidth="1" min="13" max="13" width="28.0"/>
+    <col customWidth="1" min="12" max="13" width="21.0"/>
+    <col customWidth="1" min="14" max="14" width="23.25"/>
+    <col customWidth="1" min="15" max="15" width="30.63"/>
+    <col customWidth="1" min="16" max="16" width="22.88"/>
+    <col customWidth="1" min="17" max="17" width="21.0"/>
+    <col customWidth="1" min="18" max="18" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="M1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" s="34" t="s">
+      <c r="U1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>269</v>
+      <c r="V1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K2" s="34">
+      <c r="J2" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="35">
         <v>600.0</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q2" s="34" t="s">
+      <c r="L2" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>308</v>
+      <c r="S2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -30567,25 +30753,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>269</v>
+      <c r="B1" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>309</v>
+      <c r="B2" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -30610,97 +30796,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>321</v>
+      <c r="H1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="37">
+      <c r="F2" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="38">
         <v>44991.0</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>327</v>
+      <c r="L2" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -30730,472 +30916,472 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>1.0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <v>1.0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="35">
         <v>1.0</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H8" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="28" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="25" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="35">
         <v>1.0</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E14" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F14" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="G14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -32208,40 +32394,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>332</v>
+      <c r="B1" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>157</v>
+      <c r="B2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>333</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -33264,200 +33450,217 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="20" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="20" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="E6" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="20" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="E10" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="20" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="E12" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="20" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -33483,106 +33686,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="35">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="38">
+        <v>44958.0</v>
+      </c>
+      <c r="L2" s="38">
+        <v>44958.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="34">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="40">
+        <v>45130.0</v>
+      </c>
+      <c r="J3" s="41">
         <v>1000.0</v>
       </c>
-      <c r="K2" s="37">
-        <v>44958.0</v>
-      </c>
-      <c r="L2" s="37">
-        <v>44958.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="39">
-        <v>45130.0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>1000.0</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -33604,816 +33807,1000 @@
     <col customWidth="1" min="10" max="10" width="18.88"/>
     <col customWidth="1" min="11" max="11" width="24.25"/>
     <col customWidth="1" min="12" max="12" width="18.38"/>
-    <col customWidth="1" min="13" max="13" width="21.0"/>
-    <col customWidth="1" min="14" max="14" width="16.0"/>
-    <col customWidth="1" min="15" max="15" width="27.25"/>
-    <col customWidth="1" min="16" max="16" width="15.75"/>
-    <col customWidth="1" min="22" max="22" width="16.5"/>
-    <col customWidth="1" min="23" max="23" width="15.13"/>
-    <col customWidth="1" min="24" max="24" width="14.0"/>
+    <col customWidth="1" min="13" max="15" width="22.88"/>
+    <col customWidth="1" min="16" max="16" width="30.63"/>
+    <col customWidth="1" min="17" max="17" width="22.88"/>
+    <col customWidth="1" min="18" max="18" width="21.0"/>
+    <col customWidth="1" min="19" max="19" width="16.0"/>
+    <col customWidth="1" min="20" max="20" width="27.25"/>
+    <col customWidth="1" min="21" max="21" width="15.75"/>
+    <col customWidth="1" min="27" max="27" width="16.5"/>
+    <col customWidth="1" min="28" max="28" width="15.13"/>
+    <col customWidth="1" min="29" max="29" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="43" t="s">
         <v>153</v>
       </c>
+      <c r="AA1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34" t="s">
+      <c r="L2" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y2" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="J3" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y3" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="J4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC6" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="34">
+      <c r="G7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y7" s="35">
         <v>600.0</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="T9" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="U9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC9" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD9" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C10" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC10" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="O11" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y11" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC11" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y12" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z12" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB12" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC12" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="J3" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="S3" s="34" t="s">
+      <c r="O13" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>600.0</v>
+      </c>
+      <c r="Z13" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB13" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="T3" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="W3" s="34" t="s">
+      <c r="AC13" s="39" t="s">
         <v>169</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="J4" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="T4" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="T5" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="X5" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="T6" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="T7" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="W7" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="T9" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="X9" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="T10" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="T11" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="W11" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="X11" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="T12" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="W12" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="X12" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R13" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T13" s="34">
-        <v>600.0</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="X13" s="38" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -35428,467 +35815,564 @@
     <col customWidth="1" min="15" max="15" width="10.0"/>
     <col customWidth="1" min="16" max="16" width="22.63"/>
     <col customWidth="1" min="19" max="19" width="16.88"/>
-    <col customWidth="1" min="20" max="20" width="28.38"/>
-    <col customWidth="1" min="21" max="21" width="19.75"/>
-    <col customWidth="1" min="22" max="22" width="23.13"/>
+    <col customWidth="1" min="20" max="25" width="28.38"/>
+    <col customWidth="1" min="26" max="26" width="19.75"/>
+    <col customWidth="1" min="27" max="27" width="23.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="35">
+        <v>400.0</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="35">
+        <v>400.0</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="41">
+        <v>600.0</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="35">
+        <v>17800.0</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="V5" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="34" t="s">
+      <c r="W5" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA5" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="41">
+        <v>500.0</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="V6" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q1" s="34" t="s">
+      <c r="W6" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="R7" s="35">
+        <v>2000.0</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" s="34" t="s">
+      <c r="V7" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="34">
-        <v>400.0</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="34">
-        <v>400.0</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="40">
-        <v>600.0</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="34">
-        <v>17800.0</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="R6" s="40">
-        <v>500.0</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="V6" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="R7" s="34">
-        <v>2000.0</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="V7" s="38" t="s">
-        <v>122</v>
+      <c r="W7" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA7" s="39" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -35913,54 +36397,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>247</v>
+      <c r="B1" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" ht="172.5" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>252</v>
+      <c r="C2" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>254</v>
+      <c r="C3" s="35" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -36002,151 +36486,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="K1" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="41" t="s">
+      <c r="R1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="S1" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>225</v>
+      <c r="T1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="38" t="s">
+      <c r="B2" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="38" t="s">
+      <c r="L2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="38" t="s">
+      <c r="Q2" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="40">
+      <c r="S2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="41">
         <v>500.0</v>
       </c>
-      <c r="U2" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="38" t="s">
-        <v>122</v>
+      <c r="U2" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\dev\upp-test-automation\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,6 @@
     <sheet name="Payment Profile" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H15"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mjKYysnXdYZMAChtG/E4cS+Ia3avA=="/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="340">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -1142,6 +1146,24 @@
   <si>
     <t>TT</t>
   </si>
+  <si>
+    <t>LT_IN</t>
+  </si>
+  <si>
+    <t>Bank IFSC code</t>
+  </si>
+  <si>
+    <t>AccountOrIban</t>
+  </si>
+  <si>
+    <t>Beneficiary country</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>ICICICDS</t>
+  </si>
 </sst>
 </file>
 
@@ -1151,7 +1173,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1235,6 +1257,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1296,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1429,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29625,9 +29658,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -29637,11 +29672,14 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="12" max="15" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -29669,44 +29707,53 @@
       <c r="I1" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
@@ -29740,30 +29787,33 @@
       <c r="K2" s="34">
         <v>500</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
       <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="U2" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:24">
       <c r="A3" s="34" t="s">
         <v>46</v>
       </c>
@@ -29791,38 +29841,38 @@
       <c r="J3" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="U3" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="V3" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="W3" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:24">
       <c r="A4" s="34" t="s">
         <v>48</v>
       </c>
@@ -29844,50 +29894,63 @@
       <c r="H4" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>200</v>
+      <c r="I4" s="51" t="s">
+        <v>334</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="O4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="Q4" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="R4" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="S4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="T4" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="U4" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="V4" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="W4" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="X4" s="34" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="R3" r:id="rId2"/>
-    <hyperlink ref="R4" r:id="rId3"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="U3" r:id="rId2"/>
+    <hyperlink ref="U4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -33166,7 +33229,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -33177,7 +33240,7 @@
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -33194,7 +33257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -33211,7 +33274,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="13.2">
       <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
@@ -33228,7 +33291,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="13.2">
       <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
@@ -33245,7 +33308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="13.2">
       <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
@@ -33262,7 +33325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="13.2">
       <c r="A6" s="35" t="s">
         <v>22</v>
       </c>
@@ -33279,7 +33342,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="13.2">
       <c r="A7" s="35" t="s">
         <v>28</v>
       </c>
@@ -33296,17 +33359,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="13.2">
       <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13.2">
       <c r="A9" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="13.2">
       <c r="A10" s="35" t="s">
         <v>34</v>
       </c>
@@ -33323,7 +33386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="13.2">
       <c r="A11" s="35" t="s">
         <v>37</v>
       </c>
@@ -33340,7 +33403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="13.2">
       <c r="A12" s="35" t="s">
         <v>43</v>
       </c>
@@ -33357,7 +33420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="13.2">
       <c r="A13" s="35" t="s">
         <v>46</v>
       </c>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mhNV9JfRs2C8C0+57sdV6iPbofVPA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgza8788oiRIUO0TUpQ4EI4RKyHRw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="387">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ETA</t>
   </si>
   <si>
     <t>TS01</t>
@@ -66,6 +72,9 @@
   </si>
   <si>
     <t>Create a Deal having Accounts for XCRO Transactions</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>TS02</t>
@@ -163,6 +172,9 @@
 Depends on TS07</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>TS09</t>
   </si>
   <si>
@@ -191,6 +203,9 @@
     <t>a) Creating a Holiday for Future date (Ex: 06-March-2023) and [TS03] creating a SCHD txn for the same date and because of holiday Action(next business day), txn should be schd for 07-March-2023 and executed on the same date</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>TS10-assertion1</t>
   </si>
   <si>
@@ -227,6 +242,9 @@
   <si>
     <t xml:space="preserve">Create a Transaction in Transaction Maker , with Transaction to
  Non Registered Beneficiary Checkbox  Checked in Basic Details Page in Deal </t>
+  </si>
+  <si>
+    <t>21/3/2023</t>
   </si>
   <si>
     <t>Deal Name</t>
@@ -1103,16 +1121,16 @@
     <t>Adhoc Payment TS12</t>
   </si>
   <si>
+    <t>https://sit.upp.appveen.com/</t>
+  </si>
+  <si>
+    <t>Test data TS12</t>
+  </si>
+  <si>
+    <t>Adhoc Payment TS13</t>
+  </si>
+  <si>
     <t>LTTest</t>
-  </si>
-  <si>
-    <t>https://sit.upp.appveen.com/</t>
-  </si>
-  <si>
-    <t>Test data TS12</t>
-  </si>
-  <si>
-    <t>Adhoc Payment TS13</t>
   </si>
   <si>
     <t>Test data TS13</t>
@@ -1421,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1447,6 +1465,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -1892,8 +1913,12 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1915,20 +1940,22 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1951,22 +1978,24 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1989,22 +2018,24 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2027,22 +2058,24 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2065,22 +2098,24 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2103,22 +2138,24 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>27</v>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2141,20 +2178,22 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2177,20 +2216,22 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2213,20 +2254,22 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2249,22 +2292,24 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2287,20 +2332,22 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2323,22 +2370,24 @@
     <row r="13" ht="68.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="E13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2359,24 +2408,26 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>7</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2397,22 +2448,24 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2433,23 +2486,27 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2471,7 +2528,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2499,7 +2556,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29873,255 +29930,314 @@
     <col customWidth="1" min="5" max="5" width="14.0"/>
     <col customWidth="1" min="7" max="8" width="18.25"/>
     <col customWidth="1" min="9" max="9" width="23.13"/>
-    <col customWidth="1" min="12" max="15" width="18.5"/>
-    <col customWidth="1" min="18" max="18" width="22.75"/>
+    <col customWidth="1" min="12" max="13" width="23.25"/>
+    <col customWidth="1" min="14" max="14" width="18.5"/>
+    <col customWidth="1" min="15" max="15" width="22.88"/>
+    <col customWidth="1" min="16" max="19" width="18.5"/>
+    <col customWidth="1" min="22" max="22" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>152</v>
+      <c r="B1" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="L1" s="43" t="s">
         <v>147</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="P1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>312</v>
+      <c r="Q1" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" s="35">
+      <c r="A2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="36">
         <v>500.0</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="T2" s="35" t="s">
+      <c r="L2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="35" t="s">
+      <c r="D3" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="36">
+        <v>500.0</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="T3" s="35" t="s">
+      <c r="V3" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="W3" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="X3" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="D4" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="36">
+        <v>500.0</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U4" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="T4" s="35" t="s">
+      <c r="V4" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y4" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="R2"/>
-    <hyperlink r:id="rId2" ref="R3"/>
-    <hyperlink r:id="rId3" ref="R4"/>
+    <hyperlink r:id="rId1" ref="V2"/>
+    <hyperlink r:id="rId2" ref="V3"/>
+    <hyperlink r:id="rId3" ref="V4"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -30143,59 +30259,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>312</v>
+      <c r="B1" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>320</v>
+      <c r="A2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>320</v>
+      <c r="A3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>320</v>
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30219,59 +30335,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>312</v>
+      <c r="B1" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>320</v>
+      <c r="A2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>320</v>
+      <c r="A3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>320</v>
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30320,139 +30436,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="G1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" s="35" t="s">
+      <c r="I1" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>312</v>
+      <c r="Q1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="35" t="s">
+      <c r="A2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="D2" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="F2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q2" s="36">
         <v>250.0</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>320</v>
+      <c r="R2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30476,31 +30592,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>312</v>
+      <c r="B1" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>320</v>
+      <c r="A2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30519,31 +30635,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>312</v>
+      <c r="B1" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>320</v>
+      <c r="A2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30574,163 +30690,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="E1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="35" t="s">
+      <c r="T1" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>312</v>
+      <c r="U1" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="K2" s="35">
+      <c r="A2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="K2" s="36">
         <v>600.0</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="X2" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>355</v>
+      <c r="N2" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -30753,25 +30869,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>312</v>
+      <c r="B1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>356</v>
+      <c r="A2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -30796,97 +30912,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="G1" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>368</v>
       </c>
+      <c r="I1" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="K2" s="38">
+      <c r="A2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="K2" s="39">
         <v>44991.0</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>374</v>
+      <c r="L2" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -30916,473 +31032,473 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B13" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="36">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="D14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="E14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="F14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="G14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="I14" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="J14" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="26" t="s">
+      <c r="K14" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -32394,40 +32510,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>379</v>
+      <c r="B1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>272</v>
+      <c r="A2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>380</v>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -33450,217 +33566,217 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>102</v>
+      <c r="B1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>104</v>
+      <c r="A2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>106</v>
+      <c r="A3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>108</v>
+      <c r="A4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>104</v>
+      <c r="A5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>104</v>
+      <c r="A6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>108</v>
+      <c r="A7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="36" t="s">
-        <v>30</v>
+      <c r="A8" s="37" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="s">
-        <v>32</v>
+      <c r="A9" s="37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>104</v>
+      <c r="A10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>104</v>
+      <c r="A11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>104</v>
+      <c r="A12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>104</v>
+      <c r="A13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>104</v>
+      <c r="A14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -33686,106 +33802,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>54</v>
+      <c r="E1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="35" t="s">
+      <c r="A2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="35">
+      <c r="D2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="36">
         <v>1000.0</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="39">
         <v>44958.0</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="39">
         <v>44958.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="A3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="41">
         <v>45130.0</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="42">
         <v>1000.0</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -33820,987 +33936,987 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="H1" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="I1" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="J1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="K1" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="L1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="M1" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="O1" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="P1" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="Q1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="R1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="S1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="U1" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="V1" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="W1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>157</v>
       </c>
+      <c r="Y1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="A2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="D2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="G2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="M2" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="T2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y2" s="35">
+      <c r="N2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y2" s="36">
         <v>600.0</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="J3" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="J4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="O4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="Q5" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="Y5" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC7" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="R9" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y9" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC9" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD9" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="Q10" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="S10" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="T10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y10" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="AC10" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="35" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y11" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="X3" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y3" s="35">
+      <c r="O12" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="S12" s="47"/>
+      <c r="T12" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y12" s="36">
         <v>600.0</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB3" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC3" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD3" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="J4" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="X4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y4" s="35">
+      <c r="Z12" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="S13" s="45"/>
+      <c r="T13" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y13" s="36">
         <v>600.0</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD4" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="Z13" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="O5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y5" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y6" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC6" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y7" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB7" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S9" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y9" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD9" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y10" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB10" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC10" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="S11" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y11" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB11" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC11" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="X12" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y12" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z12" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB12" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC12" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y13" s="35">
-        <v>600.0</v>
-      </c>
-      <c r="Z13" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB13" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC13" s="39" t="s">
-        <v>169</v>
+      <c r="AC13" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -35821,558 +35937,558 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="36">
+        <v>400.0</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="36">
+        <v>400.0</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="42">
+        <v>600.0</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="36">
+        <v>17800.0</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="U1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="W1" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="Z5" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" s="42">
+        <v>500.0</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="T6" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="35">
-        <v>400.0</v>
-      </c>
-      <c r="S2" s="35" t="s">
+      <c r="U6" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z6" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="T2" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="C7" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="L3" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="35">
-        <v>400.0</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="P4" s="39" t="s">
+      <c r="M7" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="36">
+        <v>2000.0</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="41">
-        <v>600.0</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="W4" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="X4" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="35">
-        <v>17800.0</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="V5" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="W5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="X5" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA5" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="P6" s="39" t="s">
+      <c r="AA7" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="41">
-        <v>500.0</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="W6" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="X6" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="R7" s="35">
-        <v>2000.0</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="W7" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="X7" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA7" s="39" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -36397,54 +36513,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>290</v>
+      <c r="B1" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="172.5" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>295</v>
+      <c r="A2" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>297</v>
+      <c r="A3" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -36486,151 +36602,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="42">
+        <v>500.0</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="V2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" s="41">
-        <v>500.0</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>121</v>
+      <c r="W2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="389">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -152,6 +152,9 @@
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>TS06</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
   <si>
     <t>ECommerce Transaction + Party API + Transaction API (REST API calls)
 Depends on TS07</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>TS09</t>
@@ -206,6 +206,9 @@
     <t>In Progress</t>
   </si>
   <si>
+    <t>23.3.2023</t>
+  </si>
+  <si>
     <t>TS10-assertion1</t>
   </si>
   <si>
@@ -237,6 +240,9 @@
  Non Registered Beneficiary Checkbox  Unckecked in Basic Details Page in Deal </t>
   </si>
   <si>
+    <t>23/03/2023</t>
+  </si>
+  <si>
     <t>TS13</t>
   </si>
   <si>
@@ -988,14 +994,15 @@
     <t>{
         "party": {
                 "dealRefId": "REF1678956865900",
-                "name": "Party788791",
-                "partyRefId": "Party788791",
+                "name": "Party7887910",
+                "partyRefId": "Party7887910",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
                 "validFrom": "2021-09-17",
                 "validUntil": "2023-12-31",
                 "responsibility": "Acquiree",
+                "remarks":"Test09",
 "type":"company",
 "company":{
 "incorporationDate":"2021-09-17",
@@ -1027,15 +1034,17 @@
                         }
                 }],
                 "accounts": [{
-                        "paymentInstrumentId": "BT",
+                        "paymentInstrumentId": "BT_IN",
                         "description": "Payout Account",
                         "paymentDetails": {
-                        "beneficiaryBankBic": "BIC456",
                         "beneficiaryCountry":"IN",
                         "beneficiaryCurrency":"INR",
                         "to":"SBI98765",
                         "beneficiaryCountryOfIncorporation":"IN",
-                        "amount":1000
+                        "beneficiaryBankIfscCode":"HDFC123",
+                        "beneficiaryName":"DealTS11",
+                        "accountOrIban":"ACCOUNTNUMBER",
+                        "beneficiaryAddressLine1":"Bengaluru"
                         }
                 }]
         }
@@ -1309,7 +1318,7 @@
     <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1335,6 +1344,10 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Lato"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1439,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1490,6 +1503,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1500,94 +1516,94 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2154,7 +2170,7 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2178,14 +2194,14 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
@@ -2216,14 +2232,14 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
@@ -2254,21 +2270,21 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2348,7 +2364,9 @@
       <c r="H12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2370,7 +2388,7 @@
     <row r="13" ht="68.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>9</v>
@@ -2379,16 +2397,18 @@
         <v>42</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2408,21 +2428,21 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>48</v>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -2448,25 +2468,27 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
-        <v>51</v>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2486,26 +2508,26 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>53</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2528,7 +2550,7 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2556,7 +2578,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29938,299 +29960,299 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="37">
+        <v>500.0</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="C3" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="G3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" s="37">
+        <v>500.0</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="36">
+      <c r="M3" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="V3" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="37">
         <v>500.0</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="W2" s="36" t="s">
+      <c r="L4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="X2" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y2" s="36" t="s">
+      <c r="V4" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W4" s="37" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="36">
-        <v>500.0</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="V3" s="52" t="s">
+      <c r="X4" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y4" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" s="36">
-        <v>500.0</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="V4" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -30259,59 +30281,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>318</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>326</v>
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>326</v>
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>326</v>
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30335,59 +30357,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>318</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>326</v>
+      <c r="C2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>326</v>
+      <c r="C3" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>326</v>
+      <c r="C4" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30436,139 +30458,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="G1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="I1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="L1" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="P1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="U1" s="36" t="s">
+      <c r="N1" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="T1" s="37" t="s">
         <v>318</v>
       </c>
+      <c r="U1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="D2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="F2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="I2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="O2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="36" t="s">
+      <c r="M2" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="N2" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="37">
         <v>250.0</v>
       </c>
-      <c r="R2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="T2" s="36" t="s">
+      <c r="R2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="U2" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="V2" s="36" t="s">
+      <c r="T2" s="37" t="s">
         <v>326</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30592,31 +30614,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>318</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>326</v>
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30635,31 +30657,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>318</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>326</v>
+      <c r="C2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30690,163 +30712,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="E1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="X1" s="36" t="s">
+      <c r="T1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>318</v>
+      <c r="W1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="C2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="37">
         <v>600.0</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="O2" s="36" t="s">
+      <c r="L2" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="P2" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="36" t="s">
+      <c r="M2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="R2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z2" s="36" t="s">
-        <v>361</v>
+      <c r="T2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30869,25 +30891,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>318</v>
+      <c r="B1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>362</v>
+      <c r="B2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -30912,97 +30934,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="G1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="I1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>374</v>
       </c>
+      <c r="N1" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="E2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="K2" s="39">
+      <c r="H2" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="40">
         <v>44991.0</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>380</v>
+      <c r="N2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -31032,473 +31054,473 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>67</v>
       </c>
+      <c r="L1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="24">
         <v>1.0</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>78</v>
       </c>
+      <c r="L2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="27" t="s">
+      <c r="G3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="I5" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="H6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="37">
         <v>1.0</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="E7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="E12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>76</v>
+      <c r="J14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -32510,40 +32532,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>385</v>
       </c>
+      <c r="D1" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>278</v>
+      <c r="B2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>386</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -33566,217 +33588,217 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>108</v>
       </c>
+      <c r="D1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>110</v>
+      <c r="E2" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="22" t="s">
+    <row r="6">
+      <c r="A6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E6" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="E7" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E10" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E11" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E12" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="E13" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>110</v>
+      <c r="E14" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33802,106 +33824,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>60</v>
+      <c r="I1" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="36">
+      <c r="H2" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="37">
         <v>1000.0</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="40">
         <v>44958.0</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="40">
         <v>44958.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="41">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="42">
         <v>45130.0</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="43">
         <v>1000.0</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -33936,987 +33958,987 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="K1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="O1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="Q1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="R1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="T1" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="U1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="W1" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="Z1" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37" t="s">
         <v>163</v>
       </c>
+      <c r="AC1" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="C2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="K2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="J3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="J4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y6" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="P2" s="36" t="s">
+      <c r="G7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" s="36" t="s">
+      <c r="O9" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y9" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36" t="s">
+      <c r="Q10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="O11" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y11" s="37">
         <v>600.0</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC11" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C12" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="W12" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X12" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y12" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z12" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB12" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="AC12" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="S13" s="46"/>
+      <c r="T13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="W13" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y13" s="37">
+        <v>600.0</v>
+      </c>
+      <c r="Z13" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB13" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="AC13" s="41" t="s">
         <v>177</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="J3" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y3" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="J4" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC5" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y6" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="M7" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S7" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="T7" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="U7" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y7" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC7" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S9" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y9" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB9" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC9" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD9" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y10" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB10" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC10" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y11" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB11" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC11" s="40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="S12" s="47"/>
-      <c r="T12" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y12" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB12" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y13" s="36">
-        <v>600.0</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB13" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -35937,558 +35959,558 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="37">
+        <v>400.0</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="Z2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="C3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="F3" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="37">
+        <v>400.0</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="F4" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="43">
+        <v>600.0</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="F5" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="37">
+        <v>17800.0</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M2" s="36" t="s">
+      <c r="F6" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="G6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="43">
+        <v>500.0</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="M7" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="R7" s="37">
+        <v>2000.0</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z7" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="36">
-        <v>400.0</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="AA7" s="41" t="s">
         <v>129</v>
-      </c>
-      <c r="R3" s="36">
-        <v>400.0</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R4" s="42">
-        <v>600.0</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R5" s="36">
-        <v>17800.0</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA5" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R6" s="42">
-        <v>500.0</v>
-      </c>
-      <c r="S6" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y6" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA6" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="R7" s="36">
-        <v>2000.0</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="V7" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="X7" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -36513,54 +36535,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>296</v>
       </c>
+      <c r="E1" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="2" ht="172.5" customHeight="1">
-      <c r="A2" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="53" t="s">
         <v>301</v>
       </c>
+      <c r="E2" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="3" ht="100.5" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>303</v>
+      <c r="A3" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -36602,151 +36624,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" s="36" t="s">
+      <c r="G1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="O1" s="36" t="s">
+      <c r="J1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="Q1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="36" t="s">
+      <c r="R1" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="X1" s="36" t="s">
-        <v>266</v>
+      <c r="T1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="C2" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="K2" s="40" t="s">
+      <c r="F2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="42">
+      <c r="M2" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="43">
         <v>500.0</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="V2" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="X2" s="40" t="s">
-        <v>127</v>
+      <c r="U2" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7miH7zaeOoXaO+HROu0JwChLWuaB/Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgza8788oiRIUO0TUpQ4EI4RKyHRw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="390">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ETA</t>
   </si>
   <si>
     <t>TS01</t>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>Create a Deal having Accounts for XCRO Transactions</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>TS02</t>
@@ -151,6 +160,9 @@
     <t>In the Budget Screen, validate the Available Budget and Utilized budget next day</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>TS06</t>
   </si>
   <si>
@@ -199,6 +211,12 @@
     <t>a) Creating a Holiday for Future date (Ex: 06-March-2023) and [TS03] creating a SCHD txn for the same date and because of holiday Action(next business day), txn should be schd for 07-March-2023 and executed on the same date</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>23.3.2023</t>
+  </si>
+  <si>
     <t>TS10-assertion1</t>
   </si>
   <si>
@@ -223,6 +241,26 @@
     <t>TS03 + Add Party through Api and creating a txn</t>
   </si>
   <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , with Transaction to
+ Non Registered Beneficiary Checkbox  Unckecked in Basic Details Page in Deal </t>
+  </si>
+  <si>
+    <t>23/03/2023</t>
+  </si>
+  <si>
+    <t>TS13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Transaction in Transaction Maker , with Transaction to
+ Non Registered Beneficiary Checkbox  Checked in Basic Details Page in Deal </t>
+  </si>
+  <si>
+    <t>21/3/2023</t>
+  </si>
+  <si>
     <t>Deal Name</t>
   </si>
   <si>
@@ -331,9 +369,6 @@
     <t>Acquiree</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>TS04_Deal</t>
   </si>
   <si>
@@ -364,10 +399,16 @@
     <t>TS10_Deal_Holiday</t>
   </si>
   <si>
-    <t>TS011_Deal</t>
+    <t>TS11_Deal</t>
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>TS12_Deal</t>
+  </si>
+  <si>
+    <t>TS13_Deal</t>
   </si>
   <si>
     <t>Currency</t>
@@ -492,18 +533,48 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Beneficiary Name</t>
+  </si>
+  <si>
+    <t>Select Account/IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary bank IFSC code</t>
+  </si>
+  <si>
+    <t>Beneficiary Account Number / IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary Address Line 1</t>
+  </si>
+  <si>
     <t>Accounts-Payment System</t>
   </si>
   <si>
     <t>Beneficiary Bank Bic</t>
   </si>
   <si>
+    <t>Beneficiary Country Of Incorporation</t>
+  </si>
+  <si>
     <t>Beneficiary Country</t>
   </si>
   <si>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>Trteo</t>
+  </si>
+  <si>
     <t>To</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
     <t>Beneficiary Currency</t>
   </si>
   <si>
@@ -525,15 +596,27 @@
     <t>Testuser1@gmail.com</t>
   </si>
   <si>
-    <t>BT</t>
+    <t>Deal_TS2</t>
+  </si>
+  <si>
+    <t>ACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>HDFC002</t>
+  </si>
+  <si>
+    <t>SBI98765</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>BT_IN</t>
   </si>
   <si>
     <t>BIC123</t>
   </si>
   <si>
-    <t>SBI98765</t>
-  </si>
-  <si>
     <t>Blueprint</t>
   </si>
   <si>
@@ -549,10 +632,28 @@
     <t>Testuser3@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS3</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>HDFC003</t>
+  </si>
+  <si>
+    <t>DIB4567</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
     <t>BIC456</t>
   </si>
   <si>
-    <t>DIB4567</t>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>XYZTS12</t>
   </si>
   <si>
     <t>Architect certificate</t>
@@ -567,9 +668,21 @@
     <t>TestUser4</t>
   </si>
   <si>
+    <t>Test4 remarks</t>
+  </si>
+  <si>
     <t>Testuser4@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS4</t>
+  </si>
+  <si>
+    <t>HDFC004</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
     <t>BIC678</t>
   </si>
   <si>
@@ -582,6 +695,15 @@
     <t>Testuser5@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS5</t>
+  </si>
+  <si>
+    <t>HDFC005</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>TestUser6</t>
   </si>
   <si>
@@ -591,6 +713,15 @@
     <t>Testuser6@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS6</t>
+  </si>
+  <si>
+    <t>HDFC006</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
     <t>BICTS06</t>
   </si>
   <si>
@@ -600,6 +731,15 @@
     <t>Testuser7@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS7</t>
+  </si>
+  <si>
+    <t>HDFC007</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
     <t>TestUser9</t>
   </si>
   <si>
@@ -609,12 +749,18 @@
     <t>Testuser9@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS9</t>
+  </si>
+  <si>
+    <t>SBI009</t>
+  </si>
+  <si>
+    <t>IMDTS09</t>
+  </si>
+  <si>
     <t>BICTS09</t>
   </si>
   <si>
-    <t>IMDTS09</t>
-  </si>
-  <si>
     <t>TestUser10</t>
   </si>
   <si>
@@ -624,6 +770,12 @@
     <t>Testuser10@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS10</t>
+  </si>
+  <si>
+    <t>SBI010</t>
+  </si>
+  <si>
     <t>TestUser11</t>
   </si>
   <si>
@@ -633,10 +785,67 @@
     <t>Testuser11@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS11</t>
+  </si>
+  <si>
+    <t>SBI011</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
+  </si>
+  <si>
     <t>BICTS11</t>
   </si>
   <si>
-    <t>IMDTS11</t>
+    <t>TestUser12</t>
+  </si>
+  <si>
+    <t>Test12 remarks</t>
+  </si>
+  <si>
+    <t>Testuser12@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS12</t>
+  </si>
+  <si>
+    <t>SBI012</t>
+  </si>
+  <si>
+    <t>SBITS12</t>
+  </si>
+  <si>
+    <t>LT_IN</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>TestUser13</t>
+  </si>
+  <si>
+    <t>Test13 remarks</t>
+  </si>
+  <si>
+    <t>Testuser13@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS13</t>
+  </si>
+  <si>
+    <t>SBI013</t>
+  </si>
+  <si>
+    <t>SBITS13</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>XYZTS13</t>
+  </si>
+  <si>
+    <t>OverDraft</t>
   </si>
   <si>
     <t>Select Instruction Type</t>
@@ -682,10 +891,7 @@
     <t>to</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Beneficiary Country Of Incorporation</t>
+    <t>Sender POP</t>
   </si>
   <si>
     <t>Retry-Enable Auto Retry</t>
@@ -709,9 +915,15 @@
     <t>Execute on holiday</t>
   </si>
   <si>
+    <t>BT_UAE</t>
+  </si>
+  <si>
     <t>SCBASDFGH</t>
   </si>
   <si>
+    <t>VER1</t>
+  </si>
+  <si>
     <t>TS03-assertion1</t>
   </si>
   <si>
@@ -721,12 +933,21 @@
     <t>Next Business Day</t>
   </si>
   <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>VER2</t>
+  </si>
+  <si>
     <t>Bill</t>
   </si>
   <si>
     <t>At specific time</t>
   </si>
   <si>
+    <t>VER3</t>
+  </si>
+  <si>
     <t>Bill Payment</t>
   </si>
   <si>
@@ -739,10 +960,19 @@
     <t>ICICI178</t>
   </si>
   <si>
+    <t>VER4</t>
+  </si>
+  <si>
+    <t>VER5</t>
+  </si>
+  <si>
     <t>TS11 Payment</t>
   </si>
   <si>
     <t>SBITS11</t>
+  </si>
+  <si>
+    <t>VER6</t>
   </si>
   <si>
     <t>Parent Test case</t>
@@ -774,15 +1004,16 @@
   <si>
     <t>{
         "party": {
-                "dealRefId": "REF1678428748624",
-                "name": "Party1234567809",
-                "partyRefId": "Party1234567009",
+                "dealRefId": "REF1678956865900",
+                "name": "Party7887910",
+                "partyRefId": "Party7887910",
                 "country": "IN",
                 "status": "Active",
                 "kycCompleted": true,
                 "validFrom": "2021-09-17",
                 "validUntil": "2023-12-31",
                 "responsibility": "Acquiree",
+                "remarks":"Test09",
 "type":"company",
 "company":{
 "incorporationDate":"2021-09-17",
@@ -814,15 +1045,17 @@
                         }
                 }],
                 "accounts": [{
-                        "paymentInstrumentId": "BT",
+                        "paymentInstrumentId": "BT_IN",
                         "description": "Payout Account",
                         "paymentDetails": {
-                        "beneficiaryBankBic": "BIC456",
                         "beneficiaryCountry":"IN",
                         "beneficiaryCurrency":"INR",
                         "to":"SBI98765",
                         "beneficiaryCountryOfIncorporation":"IN",
-                        "amount":1000
+                        "beneficiaryBankIfscCode":"HDFC123",
+                        "beneficiaryName":"DealTS11",
+                        "accountOrIban":"ACCOUNTNUMBER",
+                        "beneficiaryAddressLine1":"Bengaluru"
                         }
                 }]
         }
@@ -866,6 +1099,9 @@
     <t>Sub Instruction - Instrument</t>
   </si>
   <si>
+    <t>beneficiaryCountry</t>
+  </si>
+  <si>
     <t>Documents-Document Type</t>
   </si>
   <si>
@@ -902,6 +1138,21 @@
     <t>SUBMIT</t>
   </si>
   <si>
+    <t>Adhoc Payment TS12</t>
+  </si>
+  <si>
+    <t>https://sit.upp.appveen.com/</t>
+  </si>
+  <si>
+    <t>Test data TS12</t>
+  </si>
+  <si>
+    <t>Adhoc Payment TS13</t>
+  </si>
+  <si>
+    <t>Test data TS13</t>
+  </si>
+  <si>
     <t>Summary-Amount (Assertion)</t>
   </si>
   <si>
@@ -923,9 +1174,6 @@
     <t>Creditor Participant Id</t>
   </si>
   <si>
-    <t>beneficiaryCountry</t>
-  </si>
-  <si>
     <t>beneficiaryCurrency</t>
   </si>
   <si>
@@ -977,6 +1225,15 @@
     <t>Testuser100@gmail.com</t>
   </si>
   <si>
+    <t>Deal_TS9a</t>
+  </si>
+  <si>
+    <t>SBI009a</t>
+  </si>
+  <si>
+    <t>IMDTS09A</t>
+  </si>
+  <si>
     <t>SBI987659</t>
   </si>
   <si>
@@ -1026,6 +1283,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Creating a new holiday for March 06</t>
   </si>
   <si>
     <t>Test Description</t>
@@ -1058,7 +1318,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>TS10 Holiday</t>
+    <t>Next business day</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1329,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1099,6 +1359,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Lato"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
@@ -1122,6 +1387,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Ubuntu"/>
     </font>
     <font>
       <u/>
@@ -1214,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1236,14 +1506,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1258,69 +1526,76 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,7 +1827,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1576,8 +1851,12 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1599,20 +1878,22 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1635,22 +1916,24 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1673,22 +1956,24 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1711,22 +1996,24 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1749,22 +2036,24 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1787,22 +2076,24 @@
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1825,20 +2116,22 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1861,20 +2154,22 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1897,20 +2192,22 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="10" t="s">
-        <v>33</v>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1933,22 +2230,24 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1971,21 +2270,25 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2007,23 +2310,27 @@
     <row r="13" spans="1:26" ht="68.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2043,24 +2350,26 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17" t="s">
-        <v>43</v>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2081,15 +2390,27 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2109,15 +2430,27 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2139,7 +2472,7 @@
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2167,7 +2500,7 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29530,7 +29863,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29538,122 +29871,318 @@
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="12" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="19" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="37">
+        <v>500</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="37">
+        <v>500</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="O3" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="V3" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="J4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="37">
+        <v>500</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="35">
-        <v>500</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" s="35" t="s">
+      <c r="O4" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R4" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S4" s="37" t="s">
         <v>252</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3" r:id="rId2"/>
+    <hyperlink ref="V4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29664,7 +30193,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29676,31 +30205,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>244</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>252</v>
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -29713,7 +30270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29725,31 +30282,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>244</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>252</v>
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -29800,139 +30385,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>264</v>
+      <c r="B1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>345</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>199</v>
+        <v>346</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="S1" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>244</v>
+        <v>318</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="35" t="s">
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q2" s="35">
+      <c r="H2" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="37">
         <v>250</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>252</v>
+      <c r="R2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -29957,31 +30542,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>244</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>252</v>
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30001,31 +30586,31 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>244</v>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>252</v>
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30038,7 +30623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30048,124 +30633,172 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="12" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="35" t="s">
+      <c r="E1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="H1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="J1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="K1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="N1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>279</v>
+      <c r="O1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="37">
+        <v>600</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30189,25 +30822,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>244</v>
+      <c r="B1" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>280</v>
+      <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -30222,109 +30855,108 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>292</v>
+      <c r="B1" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="K2" s="38">
+      <c r="A2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="40">
         <v>44991</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>297</v>
+      <c r="L2" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -30355,407 +30987,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="B12" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="B13" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B14" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="37">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="D14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="26" t="s">
+      <c r="E14" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="G14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="I14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="J14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="K14" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="35">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1"/>
+    </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -31766,40 +32466,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>302</v>
+      <c r="B1" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>146</v>
+      <c r="A2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>303</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -32809,7 +33509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32823,183 +33523,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>99</v>
+      <c r="B13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33026,106 +33760,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>50</v>
+      <c r="B1" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="35">
+      <c r="A2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="37">
         <v>1000</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="40">
         <v>44958</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="40">
         <v>44958</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="A3" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="42">
         <v>45130</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="43">
         <v>1000</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33137,7 +33871,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V998"/>
+  <dimension ref="A1:AF998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33148,597 +33882,1008 @@
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="24.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="13" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="H1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="I1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="35" t="s">
+      <c r="J1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="K1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="L1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="M1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="N1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="O1" s="44" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="P1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="Q1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="J3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="R1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="T1" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="U1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="J3" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="J4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y6" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="J4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="42" t="s">
+      <c r="F9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="35" t="s">
+      <c r="O9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y9" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="44" t="s">
+      <c r="Q10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="R10" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="35" t="s">
+      <c r="S10" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="Q9" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="S9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="T10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="AC10" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y11" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="AC11" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="35" t="s">
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="W12" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X12" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y12" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z12" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB12" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="AC12" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="S13" s="46"/>
+      <c r="T13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="W13" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y13" s="37">
+        <v>600</v>
+      </c>
+      <c r="Z13" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB13" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+      <c r="AC13" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -34734,9 +35879,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -34749,467 +35896,564 @@
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="20" max="25" width="28.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="37">
+        <v>400</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="35" t="s">
+      <c r="U2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="37">
+        <v>400</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="35" t="s">
+      <c r="L4" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="43">
+        <v>600</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="37">
+        <v>17800</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="43">
+        <v>500</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="37">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="T7" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" s="35">
-        <v>400</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="35">
-        <v>400</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="41">
-        <v>600</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V4" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="35">
-        <v>17800</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="41">
-        <v>500</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="R7" s="35">
-        <v>2000</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="V7" s="39" t="s">
-        <v>116</v>
+      <c r="U7" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA7" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -35235,54 +36479,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>223</v>
+      <c r="B1" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.5" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>228</v>
+      <c r="A2" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100.5" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>230</v>
+      <c r="A3" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -35326,151 +36570,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>109</v>
+      <c r="B1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" s="41">
+      <c r="N2" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="43">
         <v>500</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>116</v>
+      <c r="U2" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="389">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>TS02_Deal</t>
-  </si>
-  <si>
-    <t>flexible funding</t>
   </si>
   <si>
     <t>Mumbai HO</t>
@@ -29887,76 +29884,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="T1" s="45" t="s">
+      <c r="U1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="V1" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="W1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -29964,70 +29961,70 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" s="37">
         <v>500</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>210</v>
-      </c>
       <c r="P2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="V2" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="W2" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="X2" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="Y2" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -30035,73 +30032,73 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>323</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="37">
         <v>500</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="S3" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V3" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X3" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="W3" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="X3" s="37" t="s">
-        <v>332</v>
-      </c>
       <c r="Y3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -30109,73 +30106,73 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>323</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K4" s="37">
         <v>500</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="S4" s="37" t="s">
-        <v>252</v>
-      </c>
       <c r="T4" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W4" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30209,13 +30206,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30223,13 +30220,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30237,13 +30234,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30251,13 +30248,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30286,13 +30283,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30300,13 +30297,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30314,13 +30311,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30328,13 +30325,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30389,67 +30386,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="45" t="s">
+      <c r="T1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -30457,67 +30454,67 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q2" s="37">
         <v>250</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T2" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30546,13 +30543,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30560,13 +30557,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30590,13 +30587,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30604,13 +30601,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30646,79 +30643,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>156</v>
-      </c>
       <c r="U1" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V1" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="Y1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
@@ -30729,76 +30726,76 @@
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="37">
         <v>600</v>
       </c>
       <c r="L2" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="P2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="37" t="s">
+      <c r="V2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="37" t="s">
+      <c r="X2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z2" s="37" t="s">
         <v>362</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30826,10 +30823,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30837,10 +30834,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30870,46 +30867,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -30917,46 +30914,46 @@
         <v>41</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>378</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>379</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>381</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>382</v>
       </c>
       <c r="K2" s="40">
         <v>44991</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M2" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>381</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -30971,7 +30968,9 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31076,27 +31075,27 @@
         <v>81</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="28" t="s">
         <v>77</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="29"/>
     </row>
@@ -31105,13 +31104,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>72</v>
@@ -31120,16 +31119,16 @@
         <v>73</v>
       </c>
       <c r="G4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>78</v>
@@ -31141,7 +31140,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="32">
         <v>1</v>
@@ -31178,20 +31177,20 @@
         <v>25</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>75</v>
@@ -31203,7 +31202,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -31212,7 +31211,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -31227,16 +31226,16 @@
         <v>73</v>
       </c>
       <c r="G7" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="I7" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="J7" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>78</v>
@@ -31247,7 +31246,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
@@ -31287,13 +31286,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="37">
         <v>1</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>72</v>
@@ -31302,16 +31301,16 @@
         <v>73</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>78</v>
@@ -31322,20 +31321,20 @@
         <v>41</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>75</v>
@@ -31356,13 +31355,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>72</v>
@@ -31377,10 +31376,10 @@
         <v>75</v>
       </c>
       <c r="I12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>78</v>
@@ -31391,13 +31390,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>72</v>
@@ -31412,10 +31411,10 @@
         <v>75</v>
       </c>
       <c r="I13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>78</v>
@@ -31426,7 +31425,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="37">
         <v>1</v>
@@ -31441,7 +31440,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>75</v>
@@ -32470,16 +32469,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>386</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -32487,19 +32486,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -33530,13 +33529,13 @@
         <v>64</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -33547,13 +33546,13 @@
         <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -33561,16 +33560,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -33578,16 +33577,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -33598,13 +33597,13 @@
         <v>75</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -33615,13 +33614,13 @@
         <v>75</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -33629,16 +33628,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -33659,13 +33658,13 @@
         <v>75</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -33676,13 +33675,13 @@
         <v>75</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -33693,13 +33692,13 @@
         <v>75</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -33710,13 +33709,13 @@
         <v>75</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -33727,13 +33726,13 @@
         <v>75</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -33764,31 +33763,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>61</v>
@@ -33802,28 +33801,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="37">
         <v>1000</v>
@@ -33840,17 +33839,17 @@
         <v>25</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="42">
         <v>45130</v>
@@ -33899,91 +33898,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="U1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="W1" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="X1" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="AA1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AC1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AD1" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1">
@@ -33994,79 +33993,79 @@
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="S2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
       <c r="X2" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y2" s="37">
         <v>600</v>
       </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB2" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC2" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1">
@@ -34077,81 +34076,81 @@
         <v>9</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>179</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="37"/>
       <c r="J3" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="O3" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="R3" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S3" s="37" t="s">
+      <c r="T3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="37" t="s">
+      <c r="W3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="W3" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="X3" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y3" s="37">
         <v>600</v>
       </c>
       <c r="Z3" s="37"/>
       <c r="AA3" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC3" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AD3" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD3" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1">
@@ -34162,75 +34161,75 @@
         <v>9</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="G4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="37"/>
       <c r="J4" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="N4" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="37" t="s">
+      <c r="R4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>198</v>
-      </c>
       <c r="T4" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y4" s="37">
         <v>600</v>
       </c>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB4" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC4" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AD4" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1">
@@ -34241,79 +34240,79 @@
         <v>9</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="N5" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="N5" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="37" t="s">
+      <c r="P5" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>204</v>
-      </c>
       <c r="R5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S5" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
       <c r="X5" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y5" s="37">
         <v>600</v>
       </c>
       <c r="Z5" s="37"/>
       <c r="AA5" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC5" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC5" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1">
@@ -34324,73 +34323,73 @@
         <v>9</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="G6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="N6" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" s="37" t="s">
+      <c r="P6" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="37" t="s">
+      <c r="R6" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="R6" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>211</v>
-      </c>
       <c r="T6" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U6" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y6" s="37">
         <v>600</v>
       </c>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC6" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1">
@@ -34401,79 +34400,79 @@
         <v>9</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" s="37" t="s">
+      <c r="P7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="P7" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>216</v>
-      </c>
       <c r="R7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S7" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="41" t="s">
-        <v>175</v>
-      </c>
       <c r="T7" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U7" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
       <c r="X7" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y7" s="37">
         <v>600</v>
       </c>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB7" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC7" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC7" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
@@ -34493,76 +34492,76 @@
         <v>9</v>
       </c>
       <c r="C9" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>218</v>
-      </c>
       <c r="G9" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="N9" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="37" t="s">
+      <c r="P9" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="Q9" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="Q9" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S9" s="48" t="s">
-        <v>223</v>
-      </c>
       <c r="T9" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y9" s="37">
         <v>600</v>
       </c>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC9" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC9" s="37" t="s">
+      <c r="AD9" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD9" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
@@ -34573,79 +34572,79 @@
         <v>9</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L10" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="N10" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>228</v>
-      </c>
       <c r="P10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R10" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S10" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T10" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y10" s="37">
         <v>600</v>
       </c>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB10" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC10" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC10" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1">
@@ -34656,73 +34655,73 @@
         <v>9</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="N11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O11" s="37" t="s">
+      <c r="P11" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="Q11" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S11" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>235</v>
-      </c>
       <c r="T11" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U11" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y11" s="37">
         <v>600</v>
       </c>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC11" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC11" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
@@ -34733,74 +34732,74 @@
         <v>9</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>237</v>
-      </c>
       <c r="G12" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N12" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="N12" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="37" t="s">
+      <c r="P12" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="Q12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="R12" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>242</v>
       </c>
       <c r="S12" s="48"/>
       <c r="T12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V12" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="W12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="W12" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="X12" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="37">
         <v>600</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB12" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC12" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC12" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
@@ -34811,74 +34810,74 @@
         <v>9</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>245</v>
-      </c>
       <c r="G13" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L13" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="N13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="N13" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O13" s="37" t="s">
+      <c r="P13" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="P13" s="37" t="s">
-        <v>249</v>
-      </c>
       <c r="Q13" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V13" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="W13" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="W13" s="37" t="s">
-        <v>251</v>
-      </c>
       <c r="X13" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y13" s="37">
         <v>600</v>
       </c>
       <c r="Z13" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB13" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC13" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC13" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1"/>
@@ -35881,8 +35880,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -35906,82 +35905,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="O1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -35989,151 +35988,151 @@
         <v>17</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>275</v>
-      </c>
       <c r="Q2" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" s="37">
         <v>400</v>
       </c>
       <c r="S2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="Y2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="M3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>130</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>131</v>
       </c>
       <c r="R3" s="37">
         <v>400</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -36141,82 +36140,82 @@
         <v>25</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>284</v>
-      </c>
       <c r="M4" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R4" s="43">
         <v>600</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="V4" s="37" t="s">
-        <v>203</v>
-      </c>
       <c r="W4" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y4" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z4" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -36224,76 +36223,76 @@
         <v>38</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="41" t="s">
+      <c r="G5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>288</v>
-      </c>
       <c r="O5" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="37">
         <v>17800</v>
       </c>
       <c r="S5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="X5" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="T5" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="W5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="X5" s="37" t="s">
-        <v>290</v>
-      </c>
       <c r="Y5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA5" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -36301,82 +36300,82 @@
         <v>41</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>273</v>
-      </c>
       <c r="M6" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6" s="43">
         <v>500</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T6" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U6" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="V6" s="37" t="s">
-        <v>228</v>
-      </c>
       <c r="W6" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA6" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -36384,76 +36383,76 @@
         <v>49</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>292</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>293</v>
       </c>
       <c r="R7" s="37">
         <v>2000</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U7" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="V7" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="W7" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z7" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -36483,50 +36482,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>298</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.5" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -36574,73 +36573,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>309</v>
-      </c>
       <c r="M1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>266</v>
-      </c>
       <c r="T1" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="W1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X1" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -36648,73 +36647,73 @@
         <v>21</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>311</v>
-      </c>
       <c r="J2" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T2" s="43">
         <v>500</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="7296" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="387">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -677,13 +677,7 @@
     <t>Deal_TS4</t>
   </si>
   <si>
-    <t>HDFC004</t>
-  </si>
-  <si>
     <t>Pune</t>
-  </si>
-  <si>
-    <t>BIC678</t>
   </si>
   <si>
     <t>TestUser5</t>
@@ -1195,9 +1189,6 @@
     <t>PartyABCD</t>
   </si>
   <si>
-    <t>Adhoc Payment1</t>
-  </si>
-  <si>
     <t>Creditorpartyid123</t>
   </si>
   <si>
@@ -1316,6 +1307,9 @@
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>BIC124</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1320,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1420,6 +1414,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1478,10 +1479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,8 +1595,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -29862,8 +29866,8 @@
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -29886,13 +29890,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>314</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>121</v>
@@ -29901,16 +29905,16 @@
         <v>118</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>160</v>
@@ -29940,22 +29944,22 @@
         <v>161</v>
       </c>
       <c r="T1" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="W1" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>319</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>321</v>
       </c>
       <c r="Z1" s="51"/>
     </row>
@@ -29964,16 +29968,16 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>127</v>
@@ -29982,7 +29986,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>174</v>
@@ -29997,13 +30001,13 @@
         <v>170</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N2" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>208</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>210</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>116</v>
@@ -30015,19 +30019,19 @@
         <v>116</v>
       </c>
       <c r="U2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="X2" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="Y2" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -30035,28 +30039,28 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K3" s="37">
         <v>500</v>
@@ -30065,13 +30069,13 @@
         <v>182</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P3" s="37" t="s">
         <v>112</v>
@@ -30083,25 +30087,25 @@
         <v>188</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T3" s="37" t="s">
         <v>112</v>
       </c>
       <c r="U3" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="V3" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="W3" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="V3" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="W3" s="37" t="s">
+      <c r="X3" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y3" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="X3" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y3" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -30109,28 +30113,28 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>92</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K4" s="37">
         <v>500</v>
@@ -30139,43 +30143,43 @@
         <v>170</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P4" s="37" t="s">
         <v>112</v>
       </c>
       <c r="Q4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="S4" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="T4" s="37" t="s">
         <v>112</v>
       </c>
       <c r="U4" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="W4" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="V4" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="W4" s="37" t="s">
+      <c r="X4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y4" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="X4" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y4" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30209,13 +30213,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30223,13 +30227,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30237,13 +30241,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30251,13 +30255,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30286,13 +30290,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30300,13 +30304,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>339</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30314,13 +30318,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>339</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30328,13 +30332,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>339</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30364,7 +30368,9 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30389,46 +30395,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>121</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>345</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>347</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>154</v>
@@ -30440,16 +30446,16 @@
         <v>155</v>
       </c>
       <c r="S1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="U1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="V1" s="37" t="s">
         <v>319</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -30457,25 +30463,25 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="37" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>112</v>
@@ -30484,22 +30490,22 @@
         <v>111</v>
       </c>
       <c r="K2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>351</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q2" s="37">
         <v>250</v>
@@ -30508,16 +30514,16 @@
         <v>112</v>
       </c>
       <c r="S2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="U2" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30546,13 +30552,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30560,13 +30566,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30590,13 +30596,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30604,13 +30610,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>339</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30715,10 +30721,10 @@
         <v>164</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
@@ -30729,10 +30735,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>100</v>
@@ -30744,28 +30750,28 @@
         <v>75</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K2" s="37">
         <v>600</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>170</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>173</v>
@@ -30783,7 +30789,7 @@
         <v>112</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V2" s="37" t="s">
         <v>111</v>
@@ -30795,10 +30801,10 @@
         <v>177</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -30826,10 +30832,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30837,10 +30843,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -30870,46 +30876,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="I1" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>373</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -30917,46 +30923,46 @@
         <v>41</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K2" s="40">
         <v>44991</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -32470,16 +32476,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -32490,7 +32496,7 @@
         <v>112</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -32499,7 +32505,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -33513,7 +33519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33645,10 +33651,34 @@
       <c r="A8" s="38" t="s">
         <v>34</v>
       </c>
+      <c r="B8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="38" t="s">
         <v>36</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -33873,7 +33903,9 @@
   </sheetPr>
   <dimension ref="A1:AF998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -34158,79 +34190,83 @@
       <c r="A4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="J4" s="37" t="s">
+      <c r="G4" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="37" t="s">
+      <c r="I4" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="R4" s="37" t="s">
+      <c r="O4" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U4" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y4" s="37">
+      <c r="S4" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y4" s="51">
         <v>600</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>191</v>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC4" s="51" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1">
@@ -34241,49 +34277,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>182</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>172</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R5" s="37" t="s">
         <v>174</v>
@@ -34324,49 +34360,49 @@
         <v>9</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N6" s="37" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P6" s="37" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R6" s="37" t="s">
         <v>174</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T6" s="37" t="s">
         <v>116</v>
@@ -34401,10 +34437,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>77</v>
@@ -34416,34 +34452,34 @@
         <v>76</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>182</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P7" s="41" t="s">
         <v>172</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R7" s="37" t="s">
         <v>174</v>
@@ -34493,40 +34529,40 @@
         <v>9</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>170</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="37" t="s">
         <v>173</v>
@@ -34535,7 +34571,7 @@
         <v>174</v>
       </c>
       <c r="S9" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T9" s="37" t="s">
         <v>112</v>
@@ -34546,7 +34582,7 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y9" s="37">
         <v>600</v>
@@ -34573,43 +34609,43 @@
         <v>9</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>92</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>182</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P10" s="37" t="s">
         <v>172</v>
@@ -34656,49 +34692,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K11" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>170</v>
       </c>
       <c r="O11" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R11" s="37" t="s">
         <v>174</v>
       </c>
       <c r="S11" s="48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T11" s="37" t="s">
         <v>112</v>
@@ -34709,7 +34745,7 @@
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y11" s="37">
         <v>600</v>
@@ -34733,46 +34769,46 @@
         <v>9</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>182</v>
       </c>
       <c r="O12" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="37" t="s">
         <v>240</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>242</v>
       </c>
       <c r="S12" s="48"/>
       <c r="T12" s="37" t="s">
@@ -34788,13 +34824,13 @@
         <v>188</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y12" s="37">
         <v>600</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB12" s="41" t="s">
         <v>176</v>
@@ -34811,46 +34847,46 @@
         <v>9</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N13" s="37" t="s">
         <v>170</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="37" t="s">
@@ -34860,19 +34896,19 @@
         <v>112</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W13" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X13" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y13" s="37">
         <v>600</v>
       </c>
       <c r="Z13" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB13" s="41" t="s">
         <v>176</v>
@@ -35869,6 +35905,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L7" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35904,10 +35941,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>121</v>
@@ -35916,40 +35953,40 @@
         <v>118</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="P1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>264</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>266</v>
       </c>
       <c r="R1" s="37" t="s">
         <v>160</v>
@@ -35970,16 +36007,16 @@
         <v>149</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="37" t="s">
         <v>155</v>
       </c>
       <c r="Z1" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -35987,19 +36024,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>129</v>
@@ -36017,13 +36054,13 @@
         <v>191</v>
       </c>
       <c r="L2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>273</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>275</v>
       </c>
       <c r="Q2" s="37" t="s">
         <v>131</v>
@@ -36032,7 +36069,7 @@
         <v>400</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T2" s="37" t="s">
         <v>185</v>
@@ -36047,7 +36084,7 @@
         <v>182</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y2" s="37" t="s">
         <v>116</v>
@@ -36061,22 +36098,22 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>129</v>
@@ -36091,19 +36128,19 @@
         <v>129</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N3" s="37" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P3" s="37" t="s">
         <v>130</v>
@@ -36115,14 +36152,14 @@
         <v>400</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y3" s="37" t="s">
         <v>116</v>
@@ -36139,19 +36176,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>129</v>
@@ -36169,16 +36206,16 @@
         <v>191</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N4" s="41" t="s">
         <v>126</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>135</v>
@@ -36190,22 +36227,22 @@
         <v>600</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W4" s="37" t="s">
         <v>182</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y4" s="41" t="s">
         <v>116</v>
@@ -36222,19 +36259,19 @@
         <v>38</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>127</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>129</v>
@@ -36252,10 +36289,10 @@
         <v>191</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O5" s="37" t="s">
         <v>174</v>
@@ -36267,22 +36304,22 @@
         <v>17800</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T5" s="37" t="s">
         <v>173</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="W5" s="37" t="s">
         <v>170</v>
       </c>
       <c r="X5" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Y5" s="37" t="s">
         <v>112</v>
@@ -36299,19 +36336,19 @@
         <v>41</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>129</v>
@@ -36329,16 +36366,16 @@
         <v>191</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N6" s="41" t="s">
         <v>126</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P6" s="41" t="s">
         <v>135</v>
@@ -36350,22 +36387,22 @@
         <v>500</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T6" s="37" t="s">
         <v>185</v>
       </c>
       <c r="U6" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V6" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W6" s="37" t="s">
         <v>182</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y6" s="41" t="s">
         <v>112</v>
@@ -36382,19 +36419,19 @@
         <v>49</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>129</v>
@@ -36412,37 +36449,37 @@
         <v>191</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>174</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R7" s="37">
         <v>2000</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W7" s="37" t="s">
         <v>170</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y7" s="37" t="s">
         <v>112</v>
@@ -36481,50 +36518,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>297</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.5" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="F2" s="37" t="s">
         <v>302</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -36555,27 +36592,52 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>121</v>
@@ -36584,81 +36646,90 @@
         <v>118</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>122</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="P1" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="R1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>264</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>266</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="37" t="s">
+      <c r="U1" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Z1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>129</v>
@@ -36667,10 +36738,10 @@
         <v>129</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>9</v>
@@ -36682,16 +36753,16 @@
         <v>191</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>73</v>
@@ -36702,16 +36773,25 @@
       <c r="T2" s="43">
         <v>500</v>
       </c>
-      <c r="U2" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="V2" s="41" t="s">
+      <c r="U2" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="Z2" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="AA2" s="41" t="s">
         <v>129</v>
       </c>
     </row>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="389">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>TS02_Deal</t>
-  </si>
-  <si>
-    <t>flexible funding</t>
   </si>
   <si>
     <t>Mumbai HO</t>
@@ -1285,9 +1282,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Creating a new holiday for March 06</t>
-  </si>
-  <si>
     <t>Test Description</t>
   </si>
   <si>
@@ -1319,6 +1313,9 @@
   </si>
   <si>
     <t>Next business day</t>
+  </si>
+  <si>
+    <t>TS-10 Holiday</t>
   </si>
 </sst>
 </file>
@@ -29887,76 +29884,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="T1" s="45" t="s">
+      <c r="U1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="V1" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="W1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -29964,70 +29961,70 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" s="37">
         <v>500</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>210</v>
-      </c>
       <c r="P2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="V2" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="W2" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="X2" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="Y2" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -30035,73 +30032,73 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>323</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="37">
         <v>500</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="S3" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V3" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X3" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="W3" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="X3" s="37" t="s">
-        <v>332</v>
-      </c>
       <c r="Y3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -30109,73 +30106,73 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>323</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K4" s="37">
         <v>500</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="S4" s="37" t="s">
-        <v>252</v>
-      </c>
       <c r="T4" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W4" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30209,13 +30206,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30223,13 +30220,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30237,13 +30234,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30251,13 +30248,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30286,13 +30283,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30300,13 +30297,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30314,13 +30311,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -30328,13 +30325,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30389,67 +30386,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="45" t="s">
+      <c r="T1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -30457,67 +30454,67 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q2" s="37">
         <v>250</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T2" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -30546,13 +30543,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30560,13 +30557,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30590,13 +30587,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -30604,13 +30601,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -30646,79 +30643,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>156</v>
-      </c>
       <c r="U1" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V1" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="Y1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
@@ -30729,76 +30726,76 @@
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="37">
         <v>600</v>
       </c>
       <c r="L2" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="P2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="37" t="s">
+      <c r="V2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="37" t="s">
+      <c r="X2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z2" s="37" t="s">
         <v>362</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30826,10 +30823,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30837,10 +30834,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -30855,7 +30852,9 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30870,46 +30869,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -30917,46 +30916,46 @@
         <v>41</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>378</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>380</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>382</v>
       </c>
       <c r="K2" s="40">
         <v>44991</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -30971,7 +30970,9 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31076,27 +31077,27 @@
         <v>81</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="28" t="s">
         <v>77</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="29"/>
     </row>
@@ -31105,13 +31106,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>72</v>
@@ -31120,16 +31121,16 @@
         <v>73</v>
       </c>
       <c r="G4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>78</v>
@@ -31141,7 +31142,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="32">
         <v>1</v>
@@ -31178,20 +31179,20 @@
         <v>25</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>75</v>
@@ -31203,7 +31204,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -31212,7 +31213,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -31227,16 +31228,16 @@
         <v>73</v>
       </c>
       <c r="G7" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="I7" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="J7" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>78</v>
@@ -31247,7 +31248,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
@@ -31287,13 +31288,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="37">
         <v>1</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>72</v>
@@ -31302,16 +31303,16 @@
         <v>73</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>78</v>
@@ -31322,20 +31323,20 @@
         <v>41</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>75</v>
@@ -31356,13 +31357,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>72</v>
@@ -31377,10 +31378,10 @@
         <v>75</v>
       </c>
       <c r="I12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>78</v>
@@ -31391,13 +31392,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>72</v>
@@ -31412,10 +31413,10 @@
         <v>75</v>
       </c>
       <c r="I13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>78</v>
@@ -31426,7 +31427,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="37">
         <v>1</v>
@@ -31441,7 +31442,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>75</v>
@@ -32470,16 +32471,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>385</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -32487,19 +32488,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
@@ -33530,13 +33531,13 @@
         <v>64</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -33547,13 +33548,13 @@
         <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -33561,16 +33562,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -33578,16 +33579,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -33598,13 +33599,13 @@
         <v>75</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -33615,13 +33616,13 @@
         <v>75</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -33629,16 +33630,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -33659,13 +33660,13 @@
         <v>75</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -33676,13 +33677,13 @@
         <v>75</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -33693,13 +33694,13 @@
         <v>75</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -33710,13 +33711,13 @@
         <v>75</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -33727,13 +33728,13 @@
         <v>75</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -33764,31 +33765,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>61</v>
@@ -33802,28 +33803,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="37">
         <v>1000</v>
@@ -33840,17 +33841,17 @@
         <v>25</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="42">
         <v>45130</v>
@@ -33873,7 +33874,9 @@
   </sheetPr>
   <dimension ref="A1:AF998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -33899,91 +33902,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="U1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="W1" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="X1" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="AA1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AC1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AD1" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1">
@@ -33994,79 +33997,79 @@
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="S2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
       <c r="X2" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y2" s="37">
         <v>600</v>
       </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB2" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC2" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1">
@@ -34077,81 +34080,81 @@
         <v>9</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>179</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="37"/>
       <c r="J3" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="O3" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="R3" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S3" s="37" t="s">
+      <c r="T3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="37" t="s">
+      <c r="W3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="W3" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="X3" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y3" s="37">
         <v>600</v>
       </c>
       <c r="Z3" s="37"/>
       <c r="AA3" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC3" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AD3" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD3" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1">
@@ -34162,75 +34165,75 @@
         <v>9</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="G4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="37"/>
       <c r="J4" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="N4" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="37" t="s">
+      <c r="R4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>198</v>
-      </c>
       <c r="T4" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y4" s="37">
         <v>600</v>
       </c>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB4" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC4" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AD4" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1">
@@ -34241,79 +34244,79 @@
         <v>9</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="N5" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="N5" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="37" t="s">
+      <c r="P5" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>204</v>
-      </c>
       <c r="R5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S5" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
       <c r="X5" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y5" s="37">
         <v>600</v>
       </c>
       <c r="Z5" s="37"/>
       <c r="AA5" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC5" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC5" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1">
@@ -34324,73 +34327,73 @@
         <v>9</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="G6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="N6" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" s="37" t="s">
+      <c r="P6" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="37" t="s">
+      <c r="R6" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="R6" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>211</v>
-      </c>
       <c r="T6" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U6" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y6" s="37">
         <v>600</v>
       </c>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC6" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1">
@@ -34401,79 +34404,79 @@
         <v>9</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" s="37" t="s">
+      <c r="P7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="P7" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>216</v>
-      </c>
       <c r="R7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S7" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="41" t="s">
-        <v>175</v>
-      </c>
       <c r="T7" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U7" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
       <c r="X7" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y7" s="37">
         <v>600</v>
       </c>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB7" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC7" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC7" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
@@ -34493,76 +34496,76 @@
         <v>9</v>
       </c>
       <c r="C9" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>218</v>
-      </c>
       <c r="G9" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="N9" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="37" t="s">
+      <c r="P9" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="Q9" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="Q9" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S9" s="48" t="s">
-        <v>223</v>
-      </c>
       <c r="T9" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y9" s="37">
         <v>600</v>
       </c>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC9" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC9" s="37" t="s">
+      <c r="AD9" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="AD9" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
@@ -34573,79 +34576,79 @@
         <v>9</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L10" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="N10" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>228</v>
-      </c>
       <c r="P10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R10" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="S10" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="T10" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y10" s="37">
         <v>600</v>
       </c>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB10" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC10" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AC10" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1">
@@ -34656,73 +34659,73 @@
         <v>9</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="N11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O11" s="37" t="s">
+      <c r="P11" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="Q11" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="S11" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>235</v>
-      </c>
       <c r="T11" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U11" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y11" s="37">
         <v>600</v>
       </c>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC11" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC11" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
@@ -34733,74 +34736,74 @@
         <v>9</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>237</v>
-      </c>
       <c r="G12" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N12" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="N12" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="37" t="s">
+      <c r="P12" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="Q12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="R12" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>242</v>
       </c>
       <c r="S12" s="48"/>
       <c r="T12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V12" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="W12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="W12" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="X12" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="37">
         <v>600</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB12" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC12" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC12" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
@@ -34811,74 +34814,74 @@
         <v>9</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>245</v>
-      </c>
       <c r="G13" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>76</v>
       </c>
       <c r="L13" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="N13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="N13" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="O13" s="37" t="s">
+      <c r="P13" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="P13" s="37" t="s">
-        <v>249</v>
-      </c>
       <c r="Q13" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V13" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="W13" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="W13" s="37" t="s">
-        <v>251</v>
-      </c>
       <c r="X13" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y13" s="37">
         <v>600</v>
       </c>
       <c r="Z13" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB13" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC13" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="AC13" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1"/>
@@ -35881,7 +35884,7 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -35906,82 +35909,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="O1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -35989,151 +35992,151 @@
         <v>17</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="O2" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>275</v>
-      </c>
       <c r="Q2" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" s="37">
         <v>400</v>
       </c>
       <c r="S2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="Y2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="M3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>130</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>131</v>
       </c>
       <c r="R3" s="37">
         <v>400</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -36141,82 +36144,82 @@
         <v>25</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>284</v>
-      </c>
       <c r="M4" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R4" s="43">
         <v>600</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="V4" s="37" t="s">
-        <v>203</v>
-      </c>
       <c r="W4" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y4" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z4" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -36224,76 +36227,76 @@
         <v>38</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="41" t="s">
+      <c r="G5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>288</v>
-      </c>
       <c r="O5" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="37">
         <v>17800</v>
       </c>
       <c r="S5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="X5" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="T5" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="W5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="X5" s="37" t="s">
-        <v>290</v>
-      </c>
       <c r="Y5" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA5" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -36301,82 +36304,82 @@
         <v>41</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>273</v>
-      </c>
       <c r="M6" s="41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6" s="43">
         <v>500</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T6" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U6" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="V6" s="37" t="s">
-        <v>228</v>
-      </c>
       <c r="W6" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA6" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -36384,76 +36387,76 @@
         <v>49</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>292</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>293</v>
       </c>
       <c r="R7" s="37">
         <v>2000</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U7" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="V7" s="37" t="s">
-        <v>233</v>
-      </c>
       <c r="W7" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z7" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -36483,50 +36486,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>298</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.5" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100.5" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -36574,73 +36577,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>309</v>
-      </c>
       <c r="M1" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>266</v>
-      </c>
       <c r="T1" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="W1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X1" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -36648,73 +36651,73 @@
         <v>21</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>311</v>
-      </c>
       <c r="J2" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T2" s="43">
         <v>500</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="397">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -155,6 +155,9 @@
     <t>In Progress</t>
   </si>
   <si>
+    <t>30-03-2023</t>
+  </si>
+  <si>
     <t>TS06</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   <si>
     <t>ECommerce Transaction + Party API + Transaction API (REST API calls)
 Depends on TS07</t>
+  </si>
+  <si>
+    <t>31-03-2023</t>
   </si>
   <si>
     <t>TS09</t>
@@ -232,9 +238,6 @@
     <t xml:space="preserve">Create a Deal with  1 party and then Add another Party through Api and Use The GET Party Api and Update Party API
  and  then edit the live deal and create a transaction using Payment Tab in Scheduled Instruction
 </t>
-  </si>
-  <si>
-    <t>29-03-2023</t>
   </si>
   <si>
     <t>TS12</t>
@@ -1257,9 +1260,6 @@
   </si>
   <si>
     <t>PartyABCD</t>
-  </si>
-  <si>
-    <t>Adhoc Payment1</t>
   </si>
   <si>
     <t>Creditorpartyid123</t>
@@ -2253,7 +2253,9 @@
       <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2275,14 +2277,14 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
@@ -2313,14 +2315,14 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
@@ -2351,14 +2353,14 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="6" t="s">
@@ -2367,7 +2369,9 @@
       <c r="H10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2389,16 +2393,16 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="6" t="s">
@@ -2429,16 +2433,16 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="6" t="s">
@@ -2448,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2471,19 +2475,19 @@
     <row r="13" ht="68.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>12</v>
@@ -2492,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2515,16 +2519,16 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="6" t="s">
@@ -2534,7 +2538,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2557,14 +2561,14 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="6" t="s">
@@ -2574,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2597,14 +2601,14 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="6" t="s">
@@ -2614,7 +2618,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -30051,295 +30055,295 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>147</v>
-      </c>
       <c r="O1" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T1" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K2" s="35">
         <v>500.0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M2" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>207</v>
-      </c>
       <c r="O2" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
       <c r="T2" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V2" s="56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I3" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="K3" s="35">
         <v>500.0</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M3" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>238</v>
-      </c>
       <c r="O3" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V3" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W3" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X3" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K4" s="35">
         <v>500.0</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M4" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="44" t="s">
-        <v>246</v>
-      </c>
       <c r="O4" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V4" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W4" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y4" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30372,55 +30376,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30448,55 +30452,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30549,99 +30553,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>358</v>
       </c>
       <c r="I2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>110</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>359</v>
@@ -30656,7 +30660,7 @@
         <v>362</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>363</v>
@@ -30665,19 +30669,19 @@
         <v>250.0</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30705,27 +30709,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>364</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30748,27 +30752,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -30803,84 +30807,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>158</v>
-      </c>
       <c r="V1" s="35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>9</v>
@@ -30892,19 +30896,19 @@
         <v>365</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>365</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>366</v>
@@ -30916,7 +30920,7 @@
         <v>367</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>368</v>
@@ -30925,34 +30929,34 @@
         <v>369</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U2" s="35" t="s">
         <v>370</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>371</v>
@@ -30982,18 +30986,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>372</v>
@@ -31040,7 +31044,7 @@
         <v>377</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>378</v>
@@ -31069,7 +31073,7 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>385</v>
@@ -31081,7 +31085,7 @@
         <v>387</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>377</v>
@@ -31145,40 +31149,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -31186,40 +31190,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="22">
         <v>1.0</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -31227,30 +31231,30 @@
         <v>14</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" s="27"/>
     </row>
@@ -31259,34 +31263,34 @@
         <v>17</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="26">
         <v>1.0</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" s="27"/>
     </row>
@@ -31295,34 +31299,34 @@
         <v>21</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="30">
         <v>1.0</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -31332,282 +31336,282 @@
         <v>25</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="35">
         <v>1.0</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="30">
         <v>1.0</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="35">
         <v>1.0</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>104</v>
-      </c>
       <c r="D13" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="35">
         <v>1.0</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -32640,16 +32644,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>396</v>
@@ -33679,16 +33683,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -33696,16 +33700,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -33713,16 +33717,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -33730,16 +33734,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -33747,16 +33751,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -33764,128 +33768,140 @@
         <v>25</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33915,37 +33931,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -33953,28 +33969,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J2" s="35">
         <v>1000.0</v>
@@ -33991,17 +34007,17 @@
         <v>25</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="40">
         <v>45130.0</v>
@@ -34049,91 +34065,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T1" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V1" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W1" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -34144,79 +34160,79 @@
         <v>9</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>165</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
       <c r="X2" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y2" s="35">
         <v>600.0</v>
       </c>
       <c r="Z2" s="35"/>
       <c r="AA2" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB2" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC2" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -34227,81 +34243,81 @@
         <v>9</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>183</v>
       </c>
       <c r="Y3" s="35">
         <v>600.0</v>
       </c>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC3" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD3" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -34312,75 +34328,75 @@
         <v>9</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E4" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="H4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y4" s="35">
         <v>600.0</v>
       </c>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB4" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC4" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD4" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -34391,239 +34407,239 @@
         <v>9</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>199</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>198</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
       <c r="X5" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y5" s="35">
         <v>600.0</v>
       </c>
       <c r="Z5" s="35"/>
       <c r="AA5" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB5" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="J6" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>204</v>
-      </c>
       <c r="K6" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T6" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
       <c r="X6" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y6" s="35">
         <v>600.0</v>
       </c>
       <c r="Z6" s="35"/>
       <c r="AA6" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB6" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC6" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>76</v>
-      </c>
       <c r="H7" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U7" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y7" s="35">
         <v>600.0</v>
       </c>
       <c r="Z7" s="39"/>
       <c r="AA7" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB7" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC7" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -34631,404 +34647,404 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>216</v>
-      </c>
       <c r="K9" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S9" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U9" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y9" s="35">
         <v>600.0</v>
       </c>
       <c r="Z9" s="35"/>
       <c r="AA9" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB9" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC9" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD9" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>224</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T10" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="35">
         <v>600.0</v>
       </c>
       <c r="Z10" s="35"/>
       <c r="AA10" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB10" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC10" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>228</v>
-      </c>
       <c r="K11" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T11" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U11" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y11" s="35">
         <v>600.0</v>
       </c>
       <c r="Z11" s="35"/>
       <c r="AA11" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB11" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC11" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>235</v>
-      </c>
       <c r="K12" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W12" s="35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y12" s="35">
         <v>600.0</v>
       </c>
       <c r="Z12" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC12" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="J13" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>243</v>
-      </c>
       <c r="K13" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S13" s="44"/>
       <c r="T13" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V13" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="35" t="s">
         <v>249</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>248</v>
       </c>
       <c r="Y13" s="35">
         <v>600.0</v>
       </c>
       <c r="Z13" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC13" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -36053,82 +36069,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U1" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="42" t="s">
-        <v>148</v>
-      </c>
       <c r="X1" s="35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -36136,151 +36152,151 @@
         <v>17</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>269</v>
-      </c>
       <c r="E2" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R2" s="35">
         <v>400.0</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="W2" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="X2" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>269</v>
-      </c>
       <c r="E3" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>125</v>
-      </c>
       <c r="O3" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R3" s="35">
         <v>400.0</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T3" s="35"/>
       <c r="U3" s="35"/>
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
       <c r="X3" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z3" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -36288,319 +36304,319 @@
         <v>25</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="O4" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R4" s="41">
         <v>600.0</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>202</v>
-      </c>
       <c r="W4" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R5" s="35">
         <v>17800.0</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W5" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X5" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y5" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="O6" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R6" s="41">
         <v>500.0</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T6" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V6" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R7" s="35">
         <v>2000.0</v>
       </c>
       <c r="S7" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T7" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U7" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V7" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W7" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X7" s="35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y7" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -36632,77 +36648,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" ht="172.5" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" ht="100.5" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F3" s="51"/>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
@@ -36779,19 +36795,19 @@
   <sheetData>
     <row r="1" ht="172.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
@@ -36865,73 +36881,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -36939,73 +36955,73 @@
         <v>21</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T2" s="41">
         <v>500.0</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -1349,7 +1349,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Creating a new holiday for March 06</t>
+    <t>TS-10 Holiday</t>
   </si>
   <si>
     <t>Test Description</t>

--- a/src/main/resources/upp-automation-testdata.xlsx
+++ b/src/main/resources/upp-automation-testdata.xlsx
@@ -6,8 +6,8 @@
     <sheet state="visible" name="Test Case Master" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Basic Details" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Accounts" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Budget" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Party" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Party" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Budget" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Scheduled" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="PArty API" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Ecommerce Tnx Api" sheetId="8" r:id="rId11"/>
@@ -28,14 +28,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgeKJ8xoB8rxVMoDUS5MRG+Lgvg2w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mgYtIJvJSbaNQRPFmXGiFFD3iLZkg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="436">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>Create a Deal with Basic details,Accounts,Party and then Add a Transaction with Transaction Maker,and approve the 
-Transaction using Transaction Checker and Transaction Checker and check status in Execution Report</t>
+Transaction using Transaction Checker and Transaction Verifier and check status in Execution Report</t>
   </si>
   <si>
     <t>TS07</t>
@@ -176,9 +176,6 @@
   <si>
     <t>ECommerce Transaction + Party API + Transaction API (REST API calls)
 Depends on TS07</t>
-  </si>
-  <si>
-    <t>31-03-2023</t>
   </si>
   <si>
     <t>TS09</t>
@@ -236,7 +233,8 @@
   </si>
   <si>
     <t xml:space="preserve">Create a Deal with  1 party and then Add another Party through Api and Use The GET Party Api and Update Party API
- and  then edit the live deal and create a transaction using Payment Tab in Scheduled Instruction
+ and  then edit the live deal and create a transaction using Payment Tab in Scheduled Instruction and then verify the 
+changes made by API in UI
 </t>
   </si>
   <si>
@@ -261,6 +259,20 @@
     <t>21/3/2023</t>
   </si>
   <si>
+    <t>TS14</t>
+  </si>
+  <si>
+    <t>Txn creation+ Rules + Mappers
+a) create a new deal 
+b) On board a bank account
+c)Create 2-3 parties (Debitor1 , Creditor1, Creditor2 and Creditor3 ) 
+d) open the DB and create a Rule in deal.rules collection 
+e) Open the DB and create mappers for Creditor1, Creditor2 and Creditor3. 
+f) EDIT the deal again and approve the deal (i.e. deal maker/checker) 
+h) Create the txn via API  Expected: As per the RULE and Mappers configuration, amount should be split accordingly. 
+NOTE: There should be 1 mapper with Remainder</t>
+  </si>
+  <si>
     <t>Deal Name</t>
   </si>
   <si>
@@ -381,6 +393,12 @@
     <t>TS07_Deal</t>
   </si>
   <si>
+    <t>TS08_Deal</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
     <t>TS09_Deal</t>
   </si>
   <si>
@@ -399,15 +417,15 @@
     <t>TS11_Deal</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>TS12_Deal</t>
   </si>
   <si>
     <t>TS13_Deal</t>
   </si>
   <si>
+    <t>TS14_Deal</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -433,6 +451,462 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>Add a new Party</t>
+  </si>
+  <si>
+    <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>eCommerce Party-checkbox</t>
+  </si>
+  <si>
+    <t>Participant Id</t>
+  </si>
+  <si>
+    <t>Debit Accounts</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Authorised signatory-check box</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Beneficiary Name</t>
+  </si>
+  <si>
+    <t>Select Account/IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary bank IFSC code</t>
+  </si>
+  <si>
+    <t>Beneficiary Account Number / IBAN</t>
+  </si>
+  <si>
+    <t>Beneficiary Address Line 1</t>
+  </si>
+  <si>
+    <t>Accounts-Payment System</t>
+  </si>
+  <si>
+    <t>Beneficiary Bank Bic</t>
+  </si>
+  <si>
+    <t>Beneficiary Country Of Incorporation</t>
+  </si>
+  <si>
+    <t>Beneficiary Country</t>
+  </si>
+  <si>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>Trteo</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>Beneficiary Currency</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document Nature</t>
+  </si>
+  <si>
+    <t>Document Date</t>
+  </si>
+  <si>
+    <t>TestUser1</t>
+  </si>
+  <si>
+    <t>Test remarks</t>
+  </si>
+  <si>
+    <t>Testuser1@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS2</t>
+  </si>
+  <si>
+    <t>ACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>HDFC002</t>
+  </si>
+  <si>
+    <t>SBI98765</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>BT_IN</t>
+  </si>
+  <si>
+    <t>BIC123</t>
+  </si>
+  <si>
+    <t>Blueprint</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>TestUser3</t>
+  </si>
+  <si>
+    <t>Test3 remarks</t>
+  </si>
+  <si>
+    <t>Testuser3@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS3</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>HDFC003</t>
+  </si>
+  <si>
+    <t>DIB4567</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>BIC456</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>XYZTS12</t>
+  </si>
+  <si>
+    <t>Architect certificate</t>
+  </si>
+  <si>
+    <t>Scanned</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>TestUser4</t>
+  </si>
+  <si>
+    <t>Test4 remarks</t>
+  </si>
+  <si>
+    <t>Testuser4@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS4</t>
+  </si>
+  <si>
+    <t>HDFC004</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>BIC678</t>
+  </si>
+  <si>
+    <t>TestUser5</t>
+  </si>
+  <si>
+    <t>Test5 remarks</t>
+  </si>
+  <si>
+    <t>Testuser5@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS5</t>
+  </si>
+  <si>
+    <t>HDFC005</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>TestUser6</t>
+  </si>
+  <si>
+    <t>Test6 remarks</t>
+  </si>
+  <si>
+    <t>Testuser6@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS6</t>
+  </si>
+  <si>
+    <t>HDFC006</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>BICTS06</t>
+  </si>
+  <si>
+    <t>TestUser7</t>
+  </si>
+  <si>
+    <t>Testuser7@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS7</t>
+  </si>
+  <si>
+    <t>HDFC007</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>TestUser8</t>
+  </si>
+  <si>
+    <t>Test8 remarks</t>
+  </si>
+  <si>
+    <t>Testuser8@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS8</t>
+  </si>
+  <si>
+    <t>SBI0008</t>
+  </si>
+  <si>
+    <t>IMDTS13</t>
+  </si>
+  <si>
+    <t>BICTS145</t>
+  </si>
+  <si>
+    <t>IMDTS11</t>
+  </si>
+  <si>
+    <t>TestUser9</t>
+  </si>
+  <si>
+    <t>Test9 remarks</t>
+  </si>
+  <si>
+    <t>Testuser9@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS9</t>
+  </si>
+  <si>
+    <t>SBI009</t>
+  </si>
+  <si>
+    <t>IMDTS09</t>
+  </si>
+  <si>
+    <t>BICTS09</t>
+  </si>
+  <si>
+    <t>TestUser10</t>
+  </si>
+  <si>
+    <t>Test10 remarks</t>
+  </si>
+  <si>
+    <t>Testuser10@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS10</t>
+  </si>
+  <si>
+    <t>SBI010</t>
+  </si>
+  <si>
+    <t>TestUser11</t>
+  </si>
+  <si>
+    <t>Test11 remarks</t>
+  </si>
+  <si>
+    <t>Testuser11@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS11</t>
+  </si>
+  <si>
+    <t>SBI011</t>
+  </si>
+  <si>
+    <t>BICTS11</t>
+  </si>
+  <si>
+    <t>TestUser12</t>
+  </si>
+  <si>
+    <t>Test12 remarks</t>
+  </si>
+  <si>
+    <t>Testuser12@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS12</t>
+  </si>
+  <si>
+    <t>SBI012</t>
+  </si>
+  <si>
+    <t>SBITS12</t>
+  </si>
+  <si>
+    <t>LT_IN</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>TestUser13</t>
+  </si>
+  <si>
+    <t>Test13 remarks</t>
+  </si>
+  <si>
+    <t>Testuser13@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS13</t>
+  </si>
+  <si>
+    <t>SBI013</t>
+  </si>
+  <si>
+    <t>SBITS13</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>XYZTS13</t>
+  </si>
+  <si>
+    <t>OverDraft</t>
+  </si>
+  <si>
+    <t>TestUser14</t>
+  </si>
+  <si>
+    <t>Test14 remarks</t>
+  </si>
+  <si>
+    <t>SA001</t>
+  </si>
+  <si>
+    <t>Testuser14@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS14</t>
+  </si>
+  <si>
+    <t>SBI014</t>
+  </si>
+  <si>
+    <t>SBITS14</t>
+  </si>
+  <si>
+    <t>BICTS14</t>
+  </si>
+  <si>
+    <t>TS14_DA001</t>
+  </si>
+  <si>
+    <t>TestUser14DA001</t>
+  </si>
+  <si>
+    <t>TS14_DA001 remarks</t>
+  </si>
+  <si>
+    <t>DA001</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TS14_DA001@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS14_DA001</t>
+  </si>
+  <si>
+    <t>SBI014DA001</t>
+  </si>
+  <si>
+    <t>SBITS14_DA001</t>
+  </si>
+  <si>
+    <t>BICTS14_DA001</t>
+  </si>
+  <si>
+    <t>SBITS14DA001</t>
+  </si>
+  <si>
+    <t>TS14_DA002</t>
+  </si>
+  <si>
+    <t>TestUser14DA002</t>
+  </si>
+  <si>
+    <t>TS14_DA002 remarks</t>
+  </si>
+  <si>
+    <t>DA002</t>
+  </si>
+  <si>
+    <t>TS14_DA002@gmail.com</t>
+  </si>
+  <si>
+    <t>Deal_TS14_DA002</t>
+  </si>
+  <si>
+    <t>SBI014DA002</t>
+  </si>
+  <si>
+    <t>SBITS14_DA002</t>
+  <